--- a/assets/results.xlsx
+++ b/assets/results.xlsx
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,10 +971,20 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="L2" s="2">
+        <f>SUM(D2:K2)</f>
+        <v>132</v>
+      </c>
+      <c r="M2" s="2">
+        <f>(L2/700)*100</f>
+        <v>18.857142857142858</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1004,10 +1014,20 @@
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L41" si="0">SUM(D3:K3)</f>
+        <v>113</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M41" si="1">(L3/700)*100</f>
+        <v>16.142857142857142</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
       <c r="P3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1037,10 +1057,20 @@
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="L4" s="2">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="1"/>
+        <v>18.285714285714285</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
       <c r="P4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1070,10 +1100,20 @@
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="L5" s="2">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="1"/>
+        <v>20.714285714285715</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
       <c r="P5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1103,10 +1143,20 @@
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="1"/>
+        <v>24.857142857142858</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
       <c r="P6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1136,10 +1186,20 @@
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="L7" s="2">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="1"/>
+        <v>16.857142857142858</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
       <c r="P7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1169,10 +1229,20 @@
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="L8" s="2">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="1"/>
+        <v>23.571428571428569</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
       <c r="P8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1202,10 +1272,20 @@
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="L9" s="2">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="1"/>
+        <v>19.142857142857142</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
       <c r="P9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1235,10 +1315,20 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="L10" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="1"/>
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
       <c r="P10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1268,10 +1358,20 @@
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="L11" s="2">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="1"/>
+        <v>19.285714285714288</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
       <c r="P11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1301,10 +1401,20 @@
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="L12" s="2">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="1"/>
+        <v>19.571428571428569</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
       <c r="P12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1334,10 +1444,20 @@
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="L13" s="2">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="1"/>
+        <v>17.714285714285712</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
       <c r="P13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1367,10 +1487,20 @@
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="L14" s="2">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="1"/>
+        <v>20.285714285714285</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
       <c r="P14" s="2" t="s">
         <v>21</v>
       </c>
@@ -1400,10 +1530,20 @@
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="L15" s="2">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="1"/>
+        <v>18.857142857142858</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
       <c r="P15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1433,10 +1573,20 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="L16" s="2">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="1"/>
+        <v>18.857142857142858</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
       <c r="P16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1466,10 +1616,20 @@
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="L17" s="2">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
       <c r="P17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1499,10 +1659,20 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="L18" s="2">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="1"/>
+        <v>22.285714285714285</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
       <c r="P18" s="2" t="s">
         <v>21</v>
       </c>
@@ -1532,10 +1702,20 @@
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="L19" s="2">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="1"/>
+        <v>18.714285714285715</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
       <c r="P19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1565,10 +1745,20 @@
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="L20" s="2">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="1"/>
+        <v>15.142857142857144</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
       <c r="P20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1598,10 +1788,20 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="L21" s="2">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="1"/>
+        <v>16.714285714285715</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
       <c r="P21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1631,10 +1831,20 @@
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="L22" s="2">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="1"/>
+        <v>18.428571428571427</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
       <c r="P22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1664,10 +1874,20 @@
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="L23" s="2">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="1"/>
+        <v>18.571428571428573</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
       <c r="P23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1697,10 +1917,20 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="L24" s="2">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="1"/>
+        <v>22.857142857142858</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
       <c r="P24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1730,10 +1960,20 @@
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="L25" s="2">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="1"/>
+        <v>14.714285714285714</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
       <c r="P25" s="2" t="s">
         <v>21</v>
       </c>
@@ -1763,10 +2003,20 @@
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="L26" s="2">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
       <c r="P26" s="2" t="s">
         <v>22</v>
       </c>
@@ -1796,10 +2046,20 @@
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="L27" s="2">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="1"/>
+        <v>16.571428571428569</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
       <c r="P27" s="2" t="s">
         <v>21</v>
       </c>
@@ -1829,10 +2089,20 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="L28" s="2">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
       <c r="P28" s="2" t="s">
         <v>21</v>
       </c>
@@ -1862,10 +2132,20 @@
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="L29" s="2">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="1"/>
+        <v>16.428571428571427</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
       <c r="P29" s="2" t="s">
         <v>22</v>
       </c>
@@ -1895,10 +2175,20 @@
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="L30" s="2">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="1"/>
+        <v>18.714285714285715</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
       <c r="P30" s="2" t="s">
         <v>21</v>
       </c>
@@ -1928,10 +2218,20 @@
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="L31" s="2">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="1"/>
+        <v>19.571428571428569</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
       <c r="P31" s="2" t="s">
         <v>21</v>
       </c>
@@ -1961,10 +2261,20 @@
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="L32" s="2">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="1"/>
+        <v>20.285714285714285</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
       <c r="P32" s="2" t="s">
         <v>21</v>
       </c>
@@ -1994,10 +2304,20 @@
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="L33" s="2">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="1"/>
+        <v>20.428571428571431</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
       <c r="P33" s="2" t="s">
         <v>21</v>
       </c>
@@ -2027,10 +2347,20 @@
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="L34" s="2">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="1"/>
+        <v>18.571428571428573</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
       <c r="P34" s="2" t="s">
         <v>21</v>
       </c>
@@ -2060,10 +2390,20 @@
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="L35" s="2">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="1"/>
+        <v>20.428571428571431</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
       <c r="P35" s="2" t="s">
         <v>21</v>
       </c>
@@ -2093,10 +2433,20 @@
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="L36" s="2">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="1"/>
+        <v>17.285714285714285</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
       <c r="P36" s="2" t="s">
         <v>21</v>
       </c>
@@ -2126,10 +2476,20 @@
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="L37" s="2">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="1"/>
+        <v>18.428571428571427</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
       <c r="P37" s="2" t="s">
         <v>21</v>
       </c>
@@ -2159,10 +2519,20 @@
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="L38" s="2">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="1"/>
+        <v>24.142857142857142</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
       <c r="P38" s="2" t="s">
         <v>21</v>
       </c>
@@ -2192,10 +2562,20 @@
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="L39" s="2">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
       <c r="P39" s="2" t="s">
         <v>21</v>
       </c>
@@ -2225,10 +2605,20 @@
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="L40" s="2">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="1"/>
+        <v>17.857142857142858</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
       <c r="P40" s="2" t="s">
         <v>21</v>
       </c>
@@ -2258,10 +2648,20 @@
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="L41" s="2">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="1"/>
+        <v>16.714285714285715</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
       <c r="P41" s="2" t="s">
         <v>21</v>
       </c>

--- a/assets/results.xlsx
+++ b/assets/results.xlsx
@@ -12,11 +12,13 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
-    <sheet name="Table001 (Page 1-2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="2-B" sheetId="2" r:id="rId1"/>
+    <sheet name="2-A" sheetId="1" r:id="rId2"/>
+    <sheet name="1-B" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Table001 (Page 1-2)'!$A$1:$Q$48</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'1-B'!$A$1:$S$48</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'2-B'!$A$1:$Q$48</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="251">
   <si>
     <t>Sr.
 No.</t>
@@ -467,13 +469,1029 @@
   </si>
   <si>
     <t>45207-7949809-5</t>
+  </si>
+  <si>
+    <t>Umer</t>
+  </si>
+  <si>
+    <t>CS-301</t>
+  </si>
+  <si>
+    <t>12345-1234567-1</t>
+  </si>
+  <si>
+    <t>Pre Math-I</t>
+  </si>
+  <si>
+    <t>Programing Fundamentals</t>
+  </si>
+  <si>
+    <t>Lab-Programing Fundamentals</t>
+  </si>
+  <si>
+    <t>Functional English</t>
+  </si>
+  <si>
+    <t>Islamic Studies</t>
+  </si>
+  <si>
+    <t>Ideology and Constitution of Pak</t>
+  </si>
+  <si>
+    <t>Lab-App. Info &amp; Com. Tech</t>
+  </si>
+  <si>
+    <t>Applied Physics</t>
+  </si>
+  <si>
+    <t>Lab-Applied Physics</t>
+  </si>
+  <si>
+    <t>App. Info &amp; Com.
+Tech</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248654</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248655</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248656</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248657</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248658</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248659</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248660</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248661</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248662</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248663</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248664</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248665</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248666</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248667</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248668</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248669</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248670</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248671</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248672</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248673</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248674</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248675</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248676</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248677</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248678</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248679</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248680</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248681</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248682</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248683</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248684</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248685</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248686</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248687</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248688</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248689</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248690</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248691</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248692</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248693</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248694</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248695</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248696</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248697</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248698</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248699</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248700</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>L-BSCS9248701</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Abu Hurairah</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ahmad Hassan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ajwa Shahzadi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ali Hussnain</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Alishba Kashif</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arsal Saeed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ayesha Arif</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ayisha</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Burhan Hussain</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Faizan Javed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Faria Zainab</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Faryad Ali</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fatima Rana</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hadi Hassan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hafiz Muhammad Bin Ilyas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hamad-Ur-Rehman Amer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hanzala Fareed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hasnat Ahmad</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Maheen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Malaika Tariq</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mariyam AbdulRazzaq</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mirha Awan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Momina Shahid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Muhammad Aadil Abbas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Muhammad Abu Bakar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Muhammad Awais</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Muhammad Durrab</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Muhammad Fahad Shahzad</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Muhammad Hamza Khursheed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Muhammad Ibrahim</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Muhammad Junaid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Muhammad Junaid Hassan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Muhammad Rehan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Muhammad Saqlain Amin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Muhammad Sarfraz Shahid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Muhammad Subhan Abrar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Muhammad Ubaid Raza Dar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Muhammad Yasir</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mujeeb Tariq</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mussa Iqbal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nameera Fatima</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sara Shafiq</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tehreem Ashraf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tehreem Fatima</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zahra Javed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zoha</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zoha Zubair</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zrtasha Kashif</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Minahil Zahra</t>
+    </r>
+  </si>
+  <si>
+    <t>L-BSCS924852</t>
+  </si>
+  <si>
+    <t>L-BSCS924853</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +1518,22 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial MT"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial MT"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -515,7 +1549,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -567,12 +1601,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -587,6 +1636,19 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -604,6 +1666,63 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>13334</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>188213</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1567180" cy="5080"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Shape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="889634" y="14085188"/>
+          <a:ext cx="1567180" cy="5080"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path w="1567180" h="5080">
+              <a:moveTo>
+                <a:pt x="1566672" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="4572"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1566672" y="4572"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1566672" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -871,11 +1990,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="G34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
@@ -896,7 +2015,7 @@
     <col min="17" max="17" width="52.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -949,7 +2068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="16.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -969,15 +2088,17 @@
       <c r="I2" s="10">
         <v>65</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2">
+        <v>75</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2">
         <f>SUM(D2:K2)</f>
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="M2" s="2">
         <f>(L2/700)*100</f>
-        <v>18.857142857142858</v>
+        <v>29.571428571428569</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -992,7 +2113,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="16.5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1012,15 +2133,17 @@
       <c r="I3" s="10">
         <v>50</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2">
+        <v>75</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2">
         <f t="shared" ref="L3:L41" si="0">SUM(D3:K3)</f>
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" ref="M3:M41" si="1">(L3/700)*100</f>
-        <v>16.142857142857142</v>
+        <v>26.857142857142858</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -1035,7 +2158,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="16.5">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1055,15 +2178,17 @@
       <c r="I4" s="10">
         <v>60</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2">
+        <v>85</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>213</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="1"/>
-        <v>18.285714285714285</v>
+        <v>30.428571428571427</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -1078,7 +2203,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="16.5">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1098,15 +2223,17 @@
       <c r="I5" s="10">
         <v>71</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2">
+        <v>95</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="1"/>
-        <v>20.714285714285715</v>
+        <v>34.285714285714285</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1121,7 +2248,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="16.5">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1141,15 +2268,17 @@
       <c r="I6" s="10">
         <v>89</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2">
+        <v>98</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2">
         <f t="shared" si="0"/>
-        <v>174</v>
+        <v>272</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="1"/>
-        <v>24.857142857142858</v>
+        <v>38.857142857142854</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -1164,7 +2293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="16.5">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1184,15 +2313,17 @@
       <c r="I7" s="10">
         <v>61</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2">
+        <v>89</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>207</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="1"/>
-        <v>16.857142857142858</v>
+        <v>29.571428571428569</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -1207,7 +2338,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="16.5">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1227,15 +2358,17 @@
       <c r="I8" s="10">
         <v>80</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2">
+        <v>95</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="1"/>
-        <v>23.571428571428569</v>
+        <v>37.142857142857146</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -1250,7 +2383,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="16.5">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1270,15 +2403,17 @@
       <c r="I9" s="10">
         <v>55</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2">
+        <v>88</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2">
         <f t="shared" si="0"/>
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="1"/>
-        <v>19.142857142857142</v>
+        <v>31.714285714285712</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -1293,7 +2428,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="16.5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1313,15 +2448,17 @@
       <c r="I10" s="10">
         <v>25</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="1"/>
-        <v>3.5714285714285712</v>
+        <v>3.8571428571428568</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -1336,7 +2473,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="16.5">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1356,15 +2493,17 @@
       <c r="I11" s="10">
         <v>65</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2">
+        <v>77</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="1"/>
-        <v>19.285714285714288</v>
+        <v>30.285714285714288</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -1379,7 +2518,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="16.5">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1399,15 +2538,17 @@
       <c r="I12" s="10">
         <v>58</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2">
+        <v>50</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2">
         <f t="shared" si="0"/>
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="1"/>
-        <v>19.571428571428569</v>
+        <v>26.714285714285712</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -1422,7 +2563,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="16.5">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1442,15 +2583,17 @@
       <c r="I13" s="10">
         <v>53</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2">
+        <v>66</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="1"/>
-        <v>17.714285714285712</v>
+        <v>27.142857142857142</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -1465,7 +2608,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="16.5">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1485,15 +2628,17 @@
       <c r="I14" s="10">
         <v>62</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2">
+        <v>65</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="1"/>
-        <v>20.285714285714285</v>
+        <v>29.571428571428569</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -1508,7 +2653,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="16.5">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1528,15 +2673,17 @@
       <c r="I15" s="10">
         <v>55</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2">
+        <v>65</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="1"/>
-        <v>18.857142857142858</v>
+        <v>28.142857142857142</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -1551,7 +2698,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="16.5">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1571,15 +2718,17 @@
       <c r="I16" s="10">
         <v>62</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2">
+        <v>80</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="1"/>
-        <v>18.857142857142858</v>
+        <v>30.285714285714288</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -1594,7 +2743,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="16.5">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1614,15 +2763,17 @@
       <c r="I17" s="10">
         <v>72</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2">
+        <v>73</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30.428571428571427</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -1637,7 +2788,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="16.5">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1657,15 +2808,17 @@
       <c r="I18" s="10">
         <v>70</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2">
+        <v>80</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>236</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="1"/>
-        <v>22.285714285714285</v>
+        <v>33.714285714285715</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
@@ -1680,7 +2833,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="16.5">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1700,15 +2853,17 @@
       <c r="I19" s="10">
         <v>60</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2">
+        <v>67</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="1"/>
-        <v>18.714285714285715</v>
+        <v>28.285714285714285</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
@@ -1723,7 +2878,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="16.5">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1743,15 +2898,17 @@
       <c r="I20" s="10">
         <v>45</v>
       </c>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2">
+        <v>63</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="1"/>
-        <v>15.142857142857144</v>
+        <v>24.142857142857142</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
@@ -1766,7 +2923,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="16.5">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1786,15 +2943,17 @@
       <c r="I21" s="10">
         <v>52</v>
       </c>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2">
+        <v>73</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="1"/>
-        <v>16.714285714285715</v>
+        <v>27.142857142857142</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -1809,7 +2968,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="16.5">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1829,15 +2988,17 @@
       <c r="I22" s="10">
         <v>54</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2">
+        <v>87</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="1"/>
-        <v>18.428571428571427</v>
+        <v>30.857142857142854</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -1852,7 +3013,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="16.5">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1872,15 +3033,17 @@
       <c r="I23" s="10">
         <v>53</v>
       </c>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2">
+        <v>63</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="1"/>
-        <v>18.571428571428573</v>
+        <v>27.571428571428569</v>
       </c>
       <c r="N23" s="2">
         <v>0</v>
@@ -1895,7 +3058,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="16.5">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1915,15 +3078,17 @@
       <c r="I24" s="10">
         <v>80</v>
       </c>
-      <c r="J24" s="2"/>
+      <c r="J24" s="2">
+        <v>89</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="1"/>
-        <v>22.857142857142858</v>
+        <v>35.571428571428569</v>
       </c>
       <c r="N24" s="2">
         <v>0</v>
@@ -1938,7 +3103,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="16.5">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1958,15 +3123,17 @@
       <c r="I25" s="10">
         <v>39</v>
       </c>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2">
+        <v>56</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="1"/>
-        <v>14.714285714285714</v>
+        <v>22.714285714285715</v>
       </c>
       <c r="N25" s="2">
         <v>0</v>
@@ -1981,7 +3148,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="16.5">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2001,15 +3168,17 @@
       <c r="I26" s="10">
         <v>52</v>
       </c>
-      <c r="J26" s="2"/>
+      <c r="J26" s="2">
+        <v>82</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>29.714285714285715</v>
       </c>
       <c r="N26" s="2">
         <v>0</v>
@@ -2024,7 +3193,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="16.5">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2044,15 +3213,17 @@
       <c r="I27" s="10">
         <v>50</v>
       </c>
-      <c r="J27" s="2"/>
+      <c r="J27" s="2">
+        <v>75</v>
+      </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="1"/>
-        <v>16.571428571428569</v>
+        <v>27.285714285714285</v>
       </c>
       <c r="N27" s="2">
         <v>0</v>
@@ -2067,7 +3238,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="16.5">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -2087,15 +3258,17 @@
       <c r="I28" s="10">
         <v>65</v>
       </c>
-      <c r="J28" s="2"/>
+      <c r="J28" s="2">
+        <v>84</v>
+      </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N28" s="2">
         <v>0</v>
@@ -2110,7 +3283,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="16.5">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2130,15 +3303,17 @@
       <c r="I29" s="10">
         <v>50</v>
       </c>
-      <c r="J29" s="2"/>
+      <c r="J29" s="2">
+        <v>60</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="1"/>
-        <v>16.428571428571427</v>
+        <v>25</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
@@ -2153,7 +3328,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="16.5">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -2173,15 +3348,17 @@
       <c r="I30" s="10">
         <v>66</v>
       </c>
-      <c r="J30" s="2"/>
+      <c r="J30" s="2">
+        <v>80</v>
+      </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="1"/>
-        <v>18.714285714285715</v>
+        <v>30.142857142857142</v>
       </c>
       <c r="N30" s="2">
         <v>0</v>
@@ -2196,7 +3373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="16.5">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2216,15 +3393,17 @@
       <c r="I31" s="10">
         <v>70</v>
       </c>
-      <c r="J31" s="2"/>
+      <c r="J31" s="2">
+        <v>80</v>
+      </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2">
         <f t="shared" si="0"/>
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="1"/>
-        <v>19.571428571428569</v>
+        <v>31</v>
       </c>
       <c r="N31" s="2">
         <v>0</v>
@@ -2239,7 +3418,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="16.5">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -2259,15 +3438,17 @@
       <c r="I32" s="10">
         <v>63</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32" s="2">
+        <v>80</v>
+      </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="1"/>
-        <v>20.285714285714285</v>
+        <v>31.714285714285712</v>
       </c>
       <c r="N32" s="2">
         <v>0</v>
@@ -2282,7 +3463,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="16.5">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2302,15 +3483,17 @@
       <c r="I33" s="10">
         <v>60</v>
       </c>
-      <c r="J33" s="2"/>
+      <c r="J33" s="2">
+        <v>89</v>
+      </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2">
         <f t="shared" si="0"/>
-        <v>143</v>
+        <v>232</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="1"/>
-        <v>20.428571428571431</v>
+        <v>33.142857142857139</v>
       </c>
       <c r="N33" s="2">
         <v>0</v>
@@ -2325,7 +3508,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="16.5">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2345,15 +3528,17 @@
       <c r="I34" s="10">
         <v>62</v>
       </c>
-      <c r="J34" s="2"/>
+      <c r="J34" s="2">
+        <v>73</v>
+      </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="1"/>
-        <v>18.571428571428573</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="N34" s="2">
         <v>0</v>
@@ -2368,7 +3553,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="16.5">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2388,15 +3573,17 @@
       <c r="I35" s="10">
         <v>66</v>
       </c>
-      <c r="J35" s="2"/>
+      <c r="J35" s="2">
+        <v>71</v>
+      </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2">
         <f t="shared" si="0"/>
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="1"/>
-        <v>20.428571428571431</v>
+        <v>30.571428571428573</v>
       </c>
       <c r="N35" s="2">
         <v>0</v>
@@ -2411,7 +3598,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="16.5">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -2431,15 +3618,17 @@
       <c r="I36" s="10">
         <v>56</v>
       </c>
-      <c r="J36" s="2"/>
+      <c r="J36" s="2">
+        <v>72</v>
+      </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="1"/>
-        <v>17.285714285714285</v>
+        <v>27.571428571428569</v>
       </c>
       <c r="N36" s="2">
         <v>0</v>
@@ -2454,7 +3643,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="16.5">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2474,15 +3663,17 @@
       <c r="I37" s="10">
         <v>60</v>
       </c>
-      <c r="J37" s="2"/>
+      <c r="J37" s="2">
+        <v>66</v>
+      </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="1"/>
-        <v>18.428571428571427</v>
+        <v>27.857142857142858</v>
       </c>
       <c r="N37" s="2">
         <v>0</v>
@@ -2497,7 +3688,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="16.5">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -2517,15 +3708,17 @@
       <c r="I38" s="10">
         <v>85</v>
       </c>
-      <c r="J38" s="2"/>
+      <c r="J38" s="2">
+        <v>96</v>
+      </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>265</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="1"/>
-        <v>24.142857142857142</v>
+        <v>37.857142857142854</v>
       </c>
       <c r="N38" s="2">
         <v>0</v>
@@ -2540,7 +3733,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="16.5">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2560,15 +3753,17 @@
       <c r="I39" s="10">
         <v>63</v>
       </c>
-      <c r="J39" s="2"/>
+      <c r="J39" s="2">
+        <v>90</v>
+      </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>32.857142857142854</v>
       </c>
       <c r="N39" s="2">
         <v>0</v>
@@ -2583,7 +3778,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="16.5">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -2603,15 +3798,17 @@
       <c r="I40" s="10">
         <v>57</v>
       </c>
-      <c r="J40" s="2"/>
+      <c r="J40" s="2">
+        <v>88</v>
+      </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="1"/>
-        <v>17.857142857142858</v>
+        <v>30.428571428571427</v>
       </c>
       <c r="N40" s="2">
         <v>0</v>
@@ -2626,7 +3823,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="16.5">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2646,15 +3843,17 @@
       <c r="I41" s="10">
         <v>43</v>
       </c>
-      <c r="J41" s="2"/>
+      <c r="J41" s="2">
+        <v>55</v>
+      </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="1"/>
-        <v>16.714285714285715</v>
+        <v>24.571428571428573</v>
       </c>
       <c r="N41" s="2">
         <v>0</v>
@@ -2669,7 +3868,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2688,7 +3887,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2707,7 +3906,7 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2726,7 +3925,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2745,7 +3944,7 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2764,7 +3963,7 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2790,13 +3989,3122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="17" max="17" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>100</v>
+      </c>
+      <c r="G2" s="2">
+        <v>80</v>
+      </c>
+      <c r="H2" s="9">
+        <v>67</v>
+      </c>
+      <c r="I2" s="10">
+        <v>65</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2">
+        <f>SUM(D2:K2)</f>
+        <v>312</v>
+      </c>
+      <c r="M2" s="2">
+        <f>(L2/700)*100</f>
+        <v>44.571428571428569</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="9">
+        <v>63</v>
+      </c>
+      <c r="I3" s="10">
+        <v>50</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L5" si="0">SUM(D3:K3)</f>
+        <v>113</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M5" si="1">(L3/700)*100</f>
+        <v>16.142857142857142</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="9">
+        <v>68</v>
+      </c>
+      <c r="I4" s="10">
+        <v>60</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="1"/>
+        <v>18.285714285714285</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="9">
+        <v>74</v>
+      </c>
+      <c r="I5" s="10">
+        <v>71</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="1"/>
+        <v>20.714285714285715</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S51"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:M51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="34.5703125" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" customHeight="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="18">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <f>SUM(D2:M2)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <f>(N2/700)*100</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="9"/>
+    </row>
+    <row r="3" spans="1:19" ht="18">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N41" si="0">SUM(D3:M3)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" ref="O3:O41" si="1">(N3/700)*100</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" ht="18">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" ht="18">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" ht="18">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="1:19" ht="18">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="9"/>
+    </row>
+    <row r="8" spans="1:19" ht="18">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="9"/>
+    </row>
+    <row r="9" spans="1:19" ht="18">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" spans="1:19" ht="18">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="9"/>
+    </row>
+    <row r="11" spans="1:19" ht="18">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="9"/>
+    </row>
+    <row r="12" spans="1:19" ht="18">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="9"/>
+    </row>
+    <row r="13" spans="1:19" ht="18">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" s="9"/>
+    </row>
+    <row r="14" spans="1:19" ht="18">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" s="9"/>
+    </row>
+    <row r="15" spans="1:19" ht="18">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="9"/>
+    </row>
+    <row r="16" spans="1:19" ht="36">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" s="9"/>
+    </row>
+    <row r="17" spans="1:19" ht="36">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" s="9"/>
+    </row>
+    <row r="18" spans="1:19" ht="18">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="9"/>
+    </row>
+    <row r="19" spans="1:19" ht="18">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="9"/>
+    </row>
+    <row r="20" spans="1:19" ht="18">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" s="9"/>
+    </row>
+    <row r="21" spans="1:19" ht="18">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" s="9"/>
+    </row>
+    <row r="22" spans="1:19" ht="36">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="9"/>
+    </row>
+    <row r="23" spans="1:19" ht="18">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" s="9"/>
+    </row>
+    <row r="24" spans="1:19" ht="18">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S24" s="9"/>
+    </row>
+    <row r="25" spans="1:19" ht="36">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="9"/>
+    </row>
+    <row r="26" spans="1:19" ht="36">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S26" s="9"/>
+    </row>
+    <row r="27" spans="1:19" ht="18">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" s="9"/>
+    </row>
+    <row r="28" spans="1:19" ht="18">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="9"/>
+    </row>
+    <row r="29" spans="1:19" ht="36">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S29" s="9"/>
+    </row>
+    <row r="30" spans="1:19" ht="36">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" s="9"/>
+    </row>
+    <row r="31" spans="1:19" ht="18">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" s="9"/>
+    </row>
+    <row r="32" spans="1:19" ht="18">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S32" s="9"/>
+    </row>
+    <row r="33" spans="1:19" ht="18">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S33" s="9"/>
+    </row>
+    <row r="34" spans="1:19" ht="36">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S34" s="9"/>
+    </row>
+    <row r="35" spans="1:19" ht="18">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S35" s="9"/>
+    </row>
+    <row r="36" spans="1:19" ht="36">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S36" s="9"/>
+    </row>
+    <row r="37" spans="1:19" ht="36">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S37" s="9"/>
+    </row>
+    <row r="38" spans="1:19" ht="36">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S38" s="9"/>
+    </row>
+    <row r="39" spans="1:19" ht="36">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S39" s="9"/>
+    </row>
+    <row r="40" spans="1:19" ht="18">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S40" s="9"/>
+    </row>
+    <row r="41" spans="1:19" ht="18">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S41" s="9"/>
+    </row>
+    <row r="42" spans="1:19" ht="18">
+      <c r="A42" s="2"/>
+      <c r="B42" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" ht="18">
+      <c r="A43" s="2"/>
+      <c r="B43" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="1:19" ht="18">
+      <c r="A44" s="2"/>
+      <c r="B44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="1:19" ht="18">
+      <c r="A45" s="2"/>
+      <c r="B45" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="1:19" ht="18">
+      <c r="A46" s="2"/>
+      <c r="B46" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="1:19" ht="18">
+      <c r="A47" s="2"/>
+      <c r="B47" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="1:19" ht="18">
+      <c r="B48" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" ht="18">
+      <c r="B49" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" ht="18">
+      <c r="B50" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="18">
+      <c r="B51" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/assets/results.xlsx
+++ b/assets/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2-B" sheetId="2" r:id="rId1"/>
@@ -867,16 +867,6 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>L-BSCS9248689</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>L-BSCS9248690</t>
     </r>
   </si>
@@ -1485,6 +1475,9 @@
   </si>
   <si>
     <t>L-BSCS924853</t>
+  </si>
+  <si>
+    <t>L-BSCS9248689</t>
   </si>
 </sst>
 </file>
@@ -1990,7 +1983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -4238,8 +4231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:M51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4324,10 +4317,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -4383,10 +4376,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -4445,7 +4438,7 @@
         <v>152</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -4504,7 +4497,7 @@
         <v>153</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -4563,7 +4556,7 @@
         <v>154</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -4622,7 +4615,7 @@
         <v>155</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -4681,7 +4674,7 @@
         <v>156</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -4740,7 +4733,7 @@
         <v>157</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -4799,7 +4792,7 @@
         <v>158</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -4858,7 +4851,7 @@
         <v>159</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -4917,7 +4910,7 @@
         <v>160</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -4976,7 +4969,7 @@
         <v>161</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -5035,7 +5028,7 @@
         <v>162</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -5094,7 +5087,7 @@
         <v>163</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -5153,7 +5146,7 @@
         <v>164</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -5212,7 +5205,7 @@
         <v>165</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -5271,7 +5264,7 @@
         <v>166</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -5330,7 +5323,7 @@
         <v>167</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -5389,7 +5382,7 @@
         <v>168</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
@@ -5448,7 +5441,7 @@
         <v>169</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -5507,7 +5500,7 @@
         <v>170</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -5566,7 +5559,7 @@
         <v>171</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -5625,7 +5618,7 @@
         <v>172</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -5684,7 +5677,7 @@
         <v>173</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -5743,7 +5736,7 @@
         <v>174</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -5802,7 +5795,7 @@
         <v>175</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -5861,7 +5854,7 @@
         <v>176</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -5920,7 +5913,7 @@
         <v>177</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
@@ -5979,7 +5972,7 @@
         <v>178</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -6038,7 +6031,7 @@
         <v>179</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -6097,7 +6090,7 @@
         <v>180</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
@@ -6156,7 +6149,7 @@
         <v>181</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -6215,7 +6208,7 @@
         <v>182</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
@@ -6274,7 +6267,7 @@
         <v>183</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -6333,7 +6326,7 @@
         <v>184</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
@@ -6392,7 +6385,7 @@
         <v>185</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -6451,7 +6444,7 @@
         <v>186</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -6506,11 +6499,11 @@
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>187</v>
+      <c r="B39" s="15" t="s">
+        <v>250</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -6566,10 +6559,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
@@ -6625,10 +6618,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
@@ -6682,10 +6675,10 @@
     <row r="42" spans="1:19" ht="18">
       <c r="A42" s="2"/>
       <c r="B42" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
@@ -6727,10 +6720,10 @@
     <row r="43" spans="1:19" ht="18">
       <c r="A43" s="2"/>
       <c r="B43" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
@@ -6772,10 +6765,10 @@
     <row r="44" spans="1:19" ht="18">
       <c r="A44" s="2"/>
       <c r="B44" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
@@ -6817,10 +6810,10 @@
     <row r="45" spans="1:19" ht="18">
       <c r="A45" s="2"/>
       <c r="B45" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D45" s="2">
         <v>0</v>
@@ -6862,10 +6855,10 @@
     <row r="46" spans="1:19" ht="18">
       <c r="A46" s="2"/>
       <c r="B46" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D46" s="2">
         <v>0</v>
@@ -6907,10 +6900,10 @@
     <row r="47" spans="1:19" ht="18">
       <c r="A47" s="2"/>
       <c r="B47" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D47" s="2">
         <v>0</v>
@@ -6951,10 +6944,10 @@
     </row>
     <row r="48" spans="1:19" ht="18">
       <c r="B48" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D48" s="2">
         <v>0</v>
@@ -6989,10 +6982,10 @@
     </row>
     <row r="49" spans="2:13" ht="18">
       <c r="B49" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D49" s="2">
         <v>0</v>
@@ -7027,10 +7020,10 @@
     </row>
     <row r="50" spans="2:13" ht="18">
       <c r="B50" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
@@ -7065,10 +7058,10 @@
     </row>
     <row r="51" spans="2:13" ht="18">
       <c r="B51" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D51" s="2">
         <v>0</v>

--- a/assets/results.xlsx
+++ b/assets/results.xlsx
@@ -17,7 +17,7 @@
     <sheet name="1-B" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'1-B'!$A$1:$S$48</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'1-B'!$A$1:$S$49</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'2-B'!$A$1:$Q$48</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="253">
   <si>
     <t>Sr.
 No.</t>
@@ -1478,13 +1478,19 @@
   </si>
   <si>
     <t>L-BSCS9248689</t>
+  </si>
+  <si>
+    <t>L-BSCS924851</t>
+  </si>
+  <si>
+    <t>Abdullah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1525,6 +1531,12 @@
     <font>
       <sz val="14"/>
       <name val="Arial MT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1614,7 +1626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1643,6 +1655,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1667,7 +1688,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>13334</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>188213</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1567180" cy="5080"/>
@@ -4229,10 +4250,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4312,252 +4333,218 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18">
-      <c r="A2" s="3">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11">
+        <v>70</v>
+      </c>
+      <c r="M2" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="18">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <f>SUM(D2:M2)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <f>(N2/700)*100</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="9"/>
-    </row>
-    <row r="3" spans="1:19" ht="18">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>76</v>
+      </c>
+      <c r="M3" s="17">
+        <v>85</v>
+      </c>
+      <c r="N3" s="2">
+        <f>SUM(D3:M3)</f>
+        <v>161</v>
+      </c>
+      <c r="O3" s="2">
+        <f>(N3/700)*100</f>
+        <v>23</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" ht="18">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C4" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <f t="shared" ref="N3:N41" si="0">SUM(D3:M3)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <f t="shared" ref="O3:O41" si="1">(N3/700)*100</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" s="9"/>
-    </row>
-    <row r="4" spans="1:19" ht="18">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>70</v>
+      </c>
+      <c r="M4" s="17">
+        <v>80</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" ref="N4:N52" si="0">SUM(D4:M4)</f>
+        <v>150</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" ref="O4:O52" si="1">(N4/700)*100</f>
+        <v>21.428571428571427</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" ht="18">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:19" ht="18">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>70</v>
+      </c>
+      <c r="M5" s="17">
+        <v>77</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" ht="18">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S5" s="9"/>
-    </row>
-    <row r="6" spans="1:19" ht="18">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>203</v>
-      </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
@@ -4583,18 +4570,18 @@
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="M6" s="17">
+        <v>70</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.857142857142858</v>
       </c>
       <c r="P6" s="2">
         <v>0</v>
@@ -4612,306 +4599,306 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>62</v>
+      </c>
+      <c r="M7" s="17">
+        <v>76</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="1"/>
+        <v>19.714285714285715</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="9"/>
+    </row>
+    <row r="8" spans="1:19" ht="18">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="1:19" ht="18">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>55</v>
+      </c>
+      <c r="M8" s="17">
+        <v>80</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="1"/>
+        <v>19.285714285714288</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="9"/>
+    </row>
+    <row r="9" spans="1:19" ht="18">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="9"/>
-    </row>
-    <row r="9" spans="1:19" ht="18">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>55</v>
+      </c>
+      <c r="M9" s="17">
+        <v>70</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="1"/>
+        <v>17.857142857142858</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" spans="1:19" ht="18">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" s="9"/>
-    </row>
-    <row r="10" spans="1:19" ht="18">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>60</v>
+      </c>
+      <c r="M10" s="17">
+        <v>75</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="1"/>
+        <v>19.285714285714288</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="9"/>
+    </row>
+    <row r="11" spans="1:19" ht="18">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S10" s="9"/>
-    </row>
-    <row r="11" spans="1:19" ht="18">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>62</v>
+      </c>
+      <c r="M11" s="17">
+        <v>85</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="9"/>
+    </row>
+    <row r="12" spans="1:19" ht="18">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S11" s="9"/>
-    </row>
-    <row r="12" spans="1:19" ht="18">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>209</v>
-      </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
@@ -4937,18 +4924,18 @@
         <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="M12" s="17">
+        <v>86</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.285714285714285</v>
       </c>
       <c r="P12" s="2">
         <v>0</v>
@@ -4966,247 +4953,247 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>71</v>
+      </c>
+      <c r="M13" s="17">
+        <v>80</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="1"/>
+        <v>21.571428571428573</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" s="9"/>
+    </row>
+    <row r="14" spans="1:19" ht="18">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C14" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S13" s="9"/>
-    </row>
-    <row r="14" spans="1:19" ht="18">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>72</v>
+      </c>
+      <c r="M14" s="17">
+        <v>80</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="1"/>
+        <v>21.714285714285715</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" s="9"/>
+    </row>
+    <row r="15" spans="1:19" ht="18">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C15" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S14" s="9"/>
-    </row>
-    <row r="15" spans="1:19" ht="18">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>51</v>
+      </c>
+      <c r="M15" s="17">
+        <v>75</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="9"/>
+    </row>
+    <row r="16" spans="1:19" ht="18">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C16" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S15" s="9"/>
-    </row>
-    <row r="16" spans="1:19" ht="36">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>55</v>
+      </c>
+      <c r="M16" s="17">
+        <v>76</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="1"/>
+        <v>18.714285714285715</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" s="9"/>
+    </row>
+    <row r="17" spans="1:19" ht="36">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S16" s="9"/>
-    </row>
-    <row r="17" spans="1:19" ht="36">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>214</v>
-      </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
@@ -5232,18 +5219,18 @@
         <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="M17" s="17">
+        <v>76</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20.428571428571431</v>
       </c>
       <c r="P17" s="2">
         <v>0</v>
@@ -5256,15 +5243,15 @@
       </c>
       <c r="S17" s="9"/>
     </row>
-    <row r="18" spans="1:19" ht="18">
+    <row r="18" spans="1:19" ht="36">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -5291,18 +5278,18 @@
         <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="M18" s="17">
+        <v>65</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.285714285714288</v>
       </c>
       <c r="P18" s="2">
         <v>0</v>
@@ -5320,306 +5307,306 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>61</v>
+      </c>
+      <c r="M19" s="17">
+        <v>75</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="1"/>
+        <v>19.428571428571427</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="9"/>
+    </row>
+    <row r="20" spans="1:19" ht="18">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S19" s="9"/>
-    </row>
-    <row r="20" spans="1:19" ht="18">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>55</v>
+      </c>
+      <c r="M20" s="17">
+        <v>80</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="1"/>
+        <v>19.285714285714288</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" s="9"/>
+    </row>
+    <row r="21" spans="1:19" ht="18">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S20" s="9"/>
-    </row>
-    <row r="21" spans="1:19" ht="18">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>76</v>
+      </c>
+      <c r="M21" s="17">
+        <v>83</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="1"/>
+        <v>22.714285714285715</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" s="9"/>
+    </row>
+    <row r="22" spans="1:19" ht="18">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C22" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S21" s="9"/>
-    </row>
-    <row r="22" spans="1:19" ht="36">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="13" t="s">
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>50</v>
+      </c>
+      <c r="M22" s="17">
+        <v>70</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="1"/>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="9"/>
+    </row>
+    <row r="23" spans="1:19" ht="36">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S22" s="9"/>
-    </row>
-    <row r="23" spans="1:19" ht="18">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="13" t="s">
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>37</v>
+      </c>
+      <c r="M23" s="17">
+        <v>50</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="1"/>
+        <v>12.428571428571429</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" s="9"/>
+    </row>
+    <row r="24" spans="1:19" ht="18">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S23" s="9"/>
-    </row>
-    <row r="24" spans="1:19" ht="18">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>221</v>
-      </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
@@ -5645,18 +5632,18 @@
         <v>0</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="M24" s="17">
+        <v>80</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20.142857142857142</v>
       </c>
       <c r="P24" s="2">
         <v>0</v>
@@ -5665,488 +5652,488 @@
         <v>0</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S24" s="9"/>
     </row>
-    <row r="25" spans="1:19" ht="36">
+    <row r="25" spans="1:19" ht="18">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>56</v>
+      </c>
+      <c r="M25" s="17">
+        <v>70</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="9"/>
+    </row>
+    <row r="26" spans="1:19" ht="36">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C26" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>0</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" s="9"/>
-    </row>
-    <row r="26" spans="1:19" ht="36">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="13" t="s">
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>23</v>
+      </c>
+      <c r="M26" s="17">
+        <v>35</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="1"/>
+        <v>8.2857142857142847</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" s="9"/>
+    </row>
+    <row r="27" spans="1:19" ht="36">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C27" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0</v>
-      </c>
-      <c r="N26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>0</v>
-      </c>
-      <c r="R26" s="2" t="s">
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>51</v>
+      </c>
+      <c r="M27" s="17">
+        <v>73</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="1"/>
+        <v>17.714285714285712</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S26" s="9"/>
-    </row>
-    <row r="27" spans="1:19" ht="18">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="13" t="s">
+      <c r="S27" s="9"/>
+    </row>
+    <row r="28" spans="1:19" ht="18">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C28" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0</v>
-      </c>
-      <c r="N27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>0</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S27" s="9"/>
-    </row>
-    <row r="28" spans="1:19" ht="18">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="13" t="s">
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>55</v>
+      </c>
+      <c r="M28" s="17">
+        <v>66</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" si="1"/>
+        <v>17.285714285714285</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="9"/>
+    </row>
+    <row r="29" spans="1:19" ht="18">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0</v>
-      </c>
-      <c r="N28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>0</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S28" s="9"/>
-    </row>
-    <row r="29" spans="1:19" ht="36">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="13" t="s">
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>81</v>
+      </c>
+      <c r="M29" s="17">
+        <v>88</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" si="1"/>
+        <v>24.142857142857142</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" s="9"/>
+    </row>
+    <row r="30" spans="1:19" ht="36">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-      <c r="M29" s="2">
-        <v>0</v>
-      </c>
-      <c r="N29" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>0</v>
-      </c>
-      <c r="R29" s="2" t="s">
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9">
+        <v>55</v>
+      </c>
+      <c r="M30" s="17">
+        <v>70</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="O30" s="2">
+        <f t="shared" si="1"/>
+        <v>17.857142857142858</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S29" s="9"/>
-    </row>
-    <row r="30" spans="1:19" ht="36">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>0</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="S30" s="9"/>
     </row>
-    <row r="31" spans="1:19" ht="18">
+    <row r="31" spans="1:19" ht="36">
       <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9">
+        <v>61</v>
+      </c>
+      <c r="M31" s="17">
+        <v>82</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="O31" s="2">
+        <f t="shared" si="1"/>
+        <v>20.428571428571431</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" s="9"/>
+    </row>
+    <row r="32" spans="1:19" ht="18">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C32" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0</v>
-      </c>
-      <c r="N31" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>0</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S31" s="9"/>
-    </row>
-    <row r="32" spans="1:19" ht="18">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="13" t="s">
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9">
+        <v>52</v>
+      </c>
+      <c r="M32" s="17">
+        <v>75</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="O32" s="2">
+        <f t="shared" si="1"/>
+        <v>18.142857142857142</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S32" s="9"/>
+    </row>
+    <row r="33" spans="1:19" ht="18">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0</v>
-      </c>
-      <c r="N32" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>0</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S32" s="9"/>
-    </row>
-    <row r="33" spans="1:19" ht="18">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>181</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>229</v>
@@ -6175,19 +6162,19 @@
       <c r="K33" s="2">
         <v>0</v>
       </c>
-      <c r="L33" s="2">
-        <v>0</v>
-      </c>
-      <c r="M33" s="2">
-        <v>0</v>
+      <c r="L33" s="9">
+        <v>62</v>
+      </c>
+      <c r="M33" s="17">
+        <v>75</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.571428571428569</v>
       </c>
       <c r="P33" s="2">
         <v>0</v>
@@ -6200,134 +6187,134 @@
       </c>
       <c r="S33" s="9"/>
     </row>
-    <row r="34" spans="1:19" ht="36">
-      <c r="A34" s="3">
+    <row r="34" spans="1:19" ht="18">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="9">
+        <v>55</v>
+      </c>
+      <c r="M34" s="17">
+        <v>75</v>
+      </c>
+      <c r="N34" s="2">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="O34" s="2">
+        <f t="shared" si="1"/>
+        <v>18.571428571428573</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S34" s="9"/>
+    </row>
+    <row r="35" spans="1:19" ht="36">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C35" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2">
-        <v>0</v>
-      </c>
-      <c r="M34" s="2">
-        <v>0</v>
-      </c>
-      <c r="N34" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>0</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S34" s="9"/>
-    </row>
-    <row r="35" spans="1:19" ht="18">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="B35" s="13" t="s">
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9">
+        <v>66</v>
+      </c>
+      <c r="M35" s="17">
+        <v>75</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="O35" s="2">
+        <f t="shared" si="1"/>
+        <v>20.142857142857142</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S35" s="9"/>
+    </row>
+    <row r="36" spans="1:19" ht="18">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2">
-        <v>0</v>
-      </c>
-      <c r="M35" s="2">
-        <v>0</v>
-      </c>
-      <c r="N35" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>0</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S35" s="9"/>
-    </row>
-    <row r="36" spans="1:19" ht="36">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>232</v>
-      </c>
       <c r="D36" s="2">
         <v>0</v>
       </c>
@@ -6352,19 +6339,19 @@
       <c r="K36" s="2">
         <v>0</v>
       </c>
-      <c r="L36" s="2">
-        <v>0</v>
-      </c>
-      <c r="M36" s="2">
-        <v>0</v>
+      <c r="L36" s="9">
+        <v>70</v>
+      </c>
+      <c r="M36" s="17">
+        <v>80</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="P36" s="2">
         <v>0</v>
@@ -6382,717 +6369,943 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
+        <v>73</v>
+      </c>
+      <c r="M37" s="17">
+        <v>77</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="1"/>
+        <v>21.428571428571427</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S37" s="9"/>
+    </row>
+    <row r="38" spans="1:19" ht="36">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C38" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2">
-        <v>0</v>
-      </c>
-      <c r="M37" s="2">
-        <v>0</v>
-      </c>
-      <c r="N37" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>0</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S37" s="9"/>
-    </row>
-    <row r="38" spans="1:19" ht="36">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="13" t="s">
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="9">
+        <v>61</v>
+      </c>
+      <c r="M38" s="17">
+        <v>75</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="1"/>
+        <v>19.428571428571427</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S38" s="9"/>
+    </row>
+    <row r="39" spans="1:19" ht="36">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C39" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2">
-        <v>0</v>
-      </c>
-      <c r="M38" s="2">
-        <v>0</v>
-      </c>
-      <c r="N38" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>0</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S38" s="9"/>
-    </row>
-    <row r="39" spans="1:19" ht="36">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
-      <c r="B39" s="15" t="s">
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="9">
+        <v>56</v>
+      </c>
+      <c r="M39" s="17">
+        <v>73</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="1"/>
+        <v>18.428571428571427</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S39" s="9"/>
+    </row>
+    <row r="40" spans="1:19" ht="36">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C40" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="D39" s="2">
-        <v>0</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2">
-        <v>0</v>
-      </c>
-      <c r="K39" s="2">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2">
-        <v>0</v>
-      </c>
-      <c r="M39" s="2">
-        <v>0</v>
-      </c>
-      <c r="N39" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>0</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S39" s="9"/>
-    </row>
-    <row r="40" spans="1:19" ht="18">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
-      <c r="B40" s="13" t="s">
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="9">
+        <v>60</v>
+      </c>
+      <c r="M40" s="17">
+        <v>73</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="O40" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S40" s="9"/>
+    </row>
+    <row r="41" spans="1:19" ht="18">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C41" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="D40" s="2">
-        <v>0</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2">
-        <v>0</v>
-      </c>
-      <c r="K40" s="2">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2">
-        <v>0</v>
-      </c>
-      <c r="M40" s="2">
-        <v>0</v>
-      </c>
-      <c r="N40" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>0</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S40" s="9"/>
-    </row>
-    <row r="41" spans="1:19" ht="18">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
-      <c r="B41" s="13" t="s">
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="9">
+        <v>65</v>
+      </c>
+      <c r="M41" s="17">
+        <v>71</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="O41" s="2">
+        <f t="shared" si="1"/>
+        <v>19.428571428571427</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S41" s="9"/>
+    </row>
+    <row r="42" spans="1:19" ht="18">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="D41" s="2">
-        <v>0</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2">
-        <v>0</v>
-      </c>
-      <c r="K41" s="2">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2">
-        <v>0</v>
-      </c>
-      <c r="M41" s="2">
-        <v>0</v>
-      </c>
-      <c r="N41" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>0</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S41" s="9"/>
-    </row>
-    <row r="42" spans="1:19" ht="18">
-      <c r="A42" s="2"/>
-      <c r="B42" s="13" t="s">
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="9">
+        <v>61</v>
+      </c>
+      <c r="M42" s="17">
+        <v>85</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="O42" s="2">
+        <f t="shared" si="1"/>
+        <v>20.857142857142858</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S42" s="9"/>
+    </row>
+    <row r="43" spans="1:19" ht="18">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="D42" s="2">
-        <v>0</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2">
-        <v>0</v>
-      </c>
-      <c r="M42" s="2">
-        <v>0</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="1"/>
-    </row>
-    <row r="43" spans="1:19" ht="18">
-      <c r="A43" s="2"/>
-      <c r="B43" s="13" t="s">
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="9">
+        <v>65</v>
+      </c>
+      <c r="M43" s="17">
+        <v>80</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="O43" s="2">
+        <f t="shared" si="1"/>
+        <v>20.714285714285715</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="1:19" ht="18">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C44" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2">
-        <v>0</v>
-      </c>
-      <c r="M43" s="2">
-        <v>0</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="1"/>
-    </row>
-    <row r="44" spans="1:19" ht="18">
-      <c r="A44" s="2"/>
-      <c r="B44" s="13" t="s">
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="9">
+        <v>51</v>
+      </c>
+      <c r="M44" s="17">
+        <v>70</v>
+      </c>
+      <c r="N44" s="2">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="O44" s="2">
+        <f t="shared" si="1"/>
+        <v>17.285714285714285</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>0</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="1:19" ht="18">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C45" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="D44" s="2">
-        <v>0</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0</v>
-      </c>
-      <c r="G44" s="2">
-        <v>0</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2">
-        <v>0</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2">
-        <v>0</v>
-      </c>
-      <c r="M44" s="2">
-        <v>0</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="1"/>
-    </row>
-    <row r="45" spans="1:19" ht="18">
-      <c r="A45" s="2"/>
-      <c r="B45" s="13" t="s">
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="9">
+        <v>58</v>
+      </c>
+      <c r="M45" s="18">
+        <v>75</v>
+      </c>
+      <c r="N45" s="2">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="O45" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>0</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="1:19" ht="18">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C46" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="D45" s="2">
-        <v>0</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2">
-        <v>0</v>
-      </c>
-      <c r="K45" s="2">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2">
-        <v>0</v>
-      </c>
-      <c r="M45" s="2">
-        <v>0</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="1"/>
-    </row>
-    <row r="46" spans="1:19" ht="18">
-      <c r="A46" s="2"/>
-      <c r="B46" s="13" t="s">
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="9">
+        <v>81</v>
+      </c>
+      <c r="M46" s="18">
+        <v>88</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="O46" s="2">
+        <f t="shared" si="1"/>
+        <v>24.142857142857142</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>0</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="1:19" ht="18">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="D46" s="2">
-        <v>0</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0</v>
-      </c>
-      <c r="G46" s="2">
-        <v>0</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2">
-        <v>0</v>
-      </c>
-      <c r="M46" s="2">
-        <v>0</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="1"/>
-    </row>
-    <row r="47" spans="1:19" ht="18">
-      <c r="A47" s="2"/>
-      <c r="B47" s="13" t="s">
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="9">
+        <v>58</v>
+      </c>
+      <c r="M47" s="18">
+        <v>73</v>
+      </c>
+      <c r="N47" s="2">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="O47" s="2">
+        <f t="shared" si="1"/>
+        <v>18.714285714285715</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>0</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="1:19" ht="18">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="D47" s="2">
-        <v>0</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0</v>
-      </c>
-      <c r="G47" s="2">
-        <v>0</v>
-      </c>
-      <c r="H47" s="2">
-        <v>0</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0</v>
-      </c>
-      <c r="J47" s="2">
-        <v>0</v>
-      </c>
-      <c r="K47" s="2">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
-        <v>0</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="1"/>
-    </row>
-    <row r="48" spans="1:19" ht="18">
-      <c r="B48" s="13" t="s">
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="9">
+        <v>65</v>
+      </c>
+      <c r="M48" s="18">
+        <v>80</v>
+      </c>
+      <c r="N48" s="2">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="O48" s="2">
+        <f t="shared" si="1"/>
+        <v>20.714285714285715</v>
+      </c>
+      <c r="P48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>0</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="1:18" ht="18">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="D48" s="2">
-        <v>0</v>
-      </c>
-      <c r="E48" s="2">
-        <v>0</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0</v>
-      </c>
-      <c r="G48" s="2">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2">
-        <v>0</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2">
-        <v>0</v>
-      </c>
-      <c r="K48" s="2">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2">
-        <v>0</v>
-      </c>
-      <c r="M48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" ht="18">
-      <c r="B49" s="13" t="s">
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="9">
+        <v>60</v>
+      </c>
+      <c r="M49" s="18">
+        <v>65</v>
+      </c>
+      <c r="N49" s="2">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="O49" s="2">
+        <f t="shared" si="1"/>
+        <v>17.857142857142858</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>0</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="18">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C50" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="D49" s="2">
-        <v>0</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0</v>
-      </c>
-      <c r="G49" s="2">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2">
-        <v>0</v>
-      </c>
-      <c r="K49" s="2">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2">
-        <v>0</v>
-      </c>
-      <c r="M49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" ht="18">
-      <c r="B50" s="13" t="s">
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="9">
+        <v>65</v>
+      </c>
+      <c r="M50" s="18">
+        <v>81</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="O50" s="2">
+        <f t="shared" si="1"/>
+        <v>20.857142857142858</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="18">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="D50" s="2">
-        <v>0</v>
-      </c>
-      <c r="E50" s="2">
-        <v>0</v>
-      </c>
-      <c r="F50" s="2">
-        <v>0</v>
-      </c>
-      <c r="G50" s="2">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2">
-        <v>0</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0</v>
-      </c>
-      <c r="K50" s="2">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2">
-        <v>0</v>
-      </c>
-      <c r="M50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" ht="18">
-      <c r="B51" s="13" t="s">
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="9">
+        <v>60</v>
+      </c>
+      <c r="M51" s="18">
+        <v>70</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="O51" s="2">
+        <f t="shared" si="1"/>
+        <v>18.571428571428573</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>0</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="18">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C52" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="D51" s="2">
-        <v>0</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0</v>
-      </c>
-      <c r="G51" s="2">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
-        <v>0</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2">
-        <v>0</v>
-      </c>
-      <c r="K51" s="2">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2">
-        <v>0</v>
-      </c>
-      <c r="M51" s="2">
-        <v>0</v>
-      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="9">
+        <v>65</v>
+      </c>
+      <c r="M52" s="18">
+        <v>80</v>
+      </c>
+      <c r="N52" s="2">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="O52" s="2">
+        <f t="shared" si="1"/>
+        <v>20.714285714285715</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>0</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="M53" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/results.xlsx
+++ b/assets/results.xlsx
@@ -527,16 +527,6 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>L-BSCS9248655</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>L-BSCS9248656</t>
     </r>
   </si>
@@ -887,16 +877,6 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>L-BSCS9248692</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>L-BSCS9248693</t>
     </r>
   </si>
@@ -1484,6 +1464,12 @@
   </si>
   <si>
     <t>Abdullah</t>
+  </si>
+  <si>
+    <t>L-BSCS9248655</t>
+  </si>
+  <si>
+    <t>L-BSCS9248692</t>
   </si>
 </sst>
 </file>
@@ -4252,8 +4238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4338,10 +4324,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -4363,10 +4349,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -4422,10 +4408,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -4484,7 +4470,7 @@
         <v>152</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -4539,11 +4525,11 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>153</v>
+      <c r="B6" s="15" t="s">
+        <v>251</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -4561,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -4577,11 +4563,11 @@
       </c>
       <c r="N6" s="2">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="1"/>
-        <v>17.857142857142858</v>
+        <v>29.285714285714288</v>
       </c>
       <c r="P6" s="2">
         <v>0</v>
@@ -4599,10 +4585,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -4658,10 +4644,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -4679,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -4695,11 +4681,11 @@
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="1"/>
-        <v>19.285714285714288</v>
+        <v>30.714285714285715</v>
       </c>
       <c r="P8" s="2">
         <v>0</v>
@@ -4717,10 +4703,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -4776,10 +4762,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -4835,10 +4821,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -4894,10 +4880,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -4953,10 +4939,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -5012,10 +4998,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -5071,10 +5057,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -5130,10 +5116,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -5189,10 +5175,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -5248,10 +5234,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -5269,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -5285,11 +5271,11 @@
       </c>
       <c r="N18" s="2">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="1"/>
-        <v>19.285714285714288</v>
+        <v>29.571428571428569</v>
       </c>
       <c r="P18" s="2">
         <v>0</v>
@@ -5307,10 +5293,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -5366,10 +5352,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
@@ -5425,10 +5411,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -5484,10 +5470,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -5543,10 +5529,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -5602,10 +5588,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -5661,10 +5647,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -5720,10 +5706,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -5779,10 +5765,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -5838,10 +5824,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -5897,10 +5883,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
@@ -5956,10 +5942,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -6015,10 +6001,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -6074,10 +6060,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
@@ -6133,10 +6119,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -6192,10 +6178,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
@@ -6251,10 +6237,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -6310,10 +6296,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
@@ -6369,10 +6355,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -6428,10 +6414,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -6487,10 +6473,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -6546,10 +6532,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
@@ -6605,10 +6591,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
@@ -6664,10 +6650,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
@@ -6722,11 +6708,11 @@
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>189</v>
+      <c r="B43" s="15" t="s">
+        <v>252</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
@@ -6744,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J43" s="2">
         <v>0</v>
@@ -6760,11 +6746,11 @@
       </c>
       <c r="N43" s="2">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="1"/>
-        <v>20.714285714285715</v>
+        <v>32.142857142857146</v>
       </c>
       <c r="P43" s="2">
         <v>0</v>
@@ -6782,10 +6768,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
@@ -6841,10 +6827,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D45" s="2">
         <v>0</v>
@@ -6900,10 +6886,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D46" s="2">
         <v>0</v>
@@ -6959,10 +6945,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D47" s="2">
         <v>0</v>
@@ -7018,10 +7004,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D48" s="2">
         <v>0</v>
@@ -7077,10 +7063,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D49" s="2">
         <v>0</v>
@@ -7135,10 +7121,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
@@ -7193,10 +7179,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D51" s="2">
         <v>0</v>
@@ -7251,10 +7237,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D52" s="2">
         <v>0</v>

--- a/assets/results.xlsx
+++ b/assets/results.xlsx
@@ -9,16 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
-    <sheet name="2-B" sheetId="2" r:id="rId1"/>
-    <sheet name="2-A" sheetId="1" r:id="rId2"/>
-    <sheet name="1-B" sheetId="4" r:id="rId3"/>
+    <sheet name="1-A" sheetId="5" r:id="rId1"/>
+    <sheet name="2-B" sheetId="2" r:id="rId2"/>
+    <sheet name="2-A" sheetId="1" r:id="rId3"/>
+    <sheet name="1-B" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'1-B'!$A$1:$S$49</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'2-B'!$A$1:$Q$48</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'1-A'!$A$1:$S$49</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'1-B'!$A$1:$S$49</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'2-B'!$A$1:$Q$48</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="353">
   <si>
     <t>Sr.
 No.</t>
@@ -1470,6 +1472,306 @@
   </si>
   <si>
     <t>L-BSCS9248692</t>
+  </si>
+  <si>
+    <t>Roll#</t>
+  </si>
+  <si>
+    <t>L-BSCS9248601</t>
+  </si>
+  <si>
+    <t>L-BSCS9248602</t>
+  </si>
+  <si>
+    <t>L-BSCS9248603</t>
+  </si>
+  <si>
+    <t>L-BSCS9248604</t>
+  </si>
+  <si>
+    <t>L-BSCS9248605</t>
+  </si>
+  <si>
+    <t>L-BSCS9248606</t>
+  </si>
+  <si>
+    <t>L-BSCS9248607</t>
+  </si>
+  <si>
+    <t>L-BSCS9248608</t>
+  </si>
+  <si>
+    <t>L-BSCS9248609</t>
+  </si>
+  <si>
+    <t>L-BSCS9248610</t>
+  </si>
+  <si>
+    <t>L-BSCS9248611</t>
+  </si>
+  <si>
+    <t>L-BSCS9248612</t>
+  </si>
+  <si>
+    <t>L-BSCS9248613</t>
+  </si>
+  <si>
+    <t>L-BSCS9248614</t>
+  </si>
+  <si>
+    <t>L-BSCS9248615</t>
+  </si>
+  <si>
+    <t>L-BSCS9248616</t>
+  </si>
+  <si>
+    <t>L-BSCS9248617</t>
+  </si>
+  <si>
+    <t>L-BSCS9248618</t>
+  </si>
+  <si>
+    <t>L-BSCS9248619</t>
+  </si>
+  <si>
+    <t>L-BSCS9248620</t>
+  </si>
+  <si>
+    <t>L-BSCS9248621</t>
+  </si>
+  <si>
+    <t>L-BSCS9248622</t>
+  </si>
+  <si>
+    <t>L-BSCS9248623</t>
+  </si>
+  <si>
+    <t>L-BSCS9248624</t>
+  </si>
+  <si>
+    <t>L-BSCS9248625</t>
+  </si>
+  <si>
+    <t>L-BSCS9248626</t>
+  </si>
+  <si>
+    <t>L-BSCS9248627</t>
+  </si>
+  <si>
+    <t>L-BSCS9248628</t>
+  </si>
+  <si>
+    <t>L-BSCS9248629</t>
+  </si>
+  <si>
+    <t>L-BSCS9248630</t>
+  </si>
+  <si>
+    <t>Abdullah Atiq</t>
+  </si>
+  <si>
+    <t>Ahsan Abdullah</t>
+  </si>
+  <si>
+    <t>Ayesha</t>
+  </si>
+  <si>
+    <t>Faiza Batool</t>
+  </si>
+  <si>
+    <t>Hamza Hafeez Bhatti</t>
+  </si>
+  <si>
+    <t>Hamza Khubaib</t>
+  </si>
+  <si>
+    <t>Jawaria Matloob</t>
+  </si>
+  <si>
+    <t>Khuwaja MuhammadMahdi</t>
+  </si>
+  <si>
+    <t>Laraib Iffat</t>
+  </si>
+  <si>
+    <t>Muhammad Arslan</t>
+  </si>
+  <si>
+    <t>Mahnoor</t>
+  </si>
+  <si>
+    <t>Malaika</t>
+  </si>
+  <si>
+    <t>Manahil Saeed</t>
+  </si>
+  <si>
+    <t>Maryam Shafique</t>
+  </si>
+  <si>
+    <t>Mehboob Ul Hassan</t>
+  </si>
+  <si>
+    <t>Minal Fatima</t>
+  </si>
+  <si>
+    <t>Momina Binte Abad</t>
+  </si>
+  <si>
+    <t>Momina Javaid</t>
+  </si>
+  <si>
+    <t>Mudasir Arshad</t>
+  </si>
+  <si>
+    <t>Muhammad Abdullah</t>
+  </si>
+  <si>
+    <t>Muhammad Ahmad</t>
+  </si>
+  <si>
+    <t>Muhammad Ahmad Janjua</t>
+  </si>
+  <si>
+    <t>Muhammad Ahmer Nadeem Choudhry</t>
+  </si>
+  <si>
+    <t>Muhammad Arqam Ayub</t>
+  </si>
+  <si>
+    <t>Muhammad Danish</t>
+  </si>
+  <si>
+    <t>Muhammad Dawar Shaheer</t>
+  </si>
+  <si>
+    <t>Muhammad Faizan</t>
+  </si>
+  <si>
+    <t>Muhammad Hamza</t>
+  </si>
+  <si>
+    <t>Muhammad Jawad</t>
+  </si>
+  <si>
+    <t>L-BSCS9248631</t>
+  </si>
+  <si>
+    <t>Muhammad Junaid Rafiq</t>
+  </si>
+  <si>
+    <t>L-BSCS9248632</t>
+  </si>
+  <si>
+    <t>Muhammad Moaz Altaf Bajwa</t>
+  </si>
+  <si>
+    <t>L-BSCS9248633</t>
+  </si>
+  <si>
+    <t>Muhammad Umer</t>
+  </si>
+  <si>
+    <t>L-BSCS9248634</t>
+  </si>
+  <si>
+    <t>Muhammad Usman Ali</t>
+  </si>
+  <si>
+    <t>L-BSCS9248635</t>
+  </si>
+  <si>
+    <t>Muhammad Zohaib Shaukat</t>
+  </si>
+  <si>
+    <t>L-BSCS9248636</t>
+  </si>
+  <si>
+    <t>Rida  Fatima</t>
+  </si>
+  <si>
+    <t>L-BSCS9248637</t>
+  </si>
+  <si>
+    <t>Rubab Naz</t>
+  </si>
+  <si>
+    <t>L-BSCS9248638</t>
+  </si>
+  <si>
+    <t>Sabika Abbas</t>
+  </si>
+  <si>
+    <t>L-BSCS9248639</t>
+  </si>
+  <si>
+    <t>Sana Ullah Asmi</t>
+  </si>
+  <si>
+    <t>L-BSCS9248640</t>
+  </si>
+  <si>
+    <t>Shaher Bano Qazi</t>
+  </si>
+  <si>
+    <t>L-BSCS9248641</t>
+  </si>
+  <si>
+    <t>Siraj Munir</t>
+  </si>
+  <si>
+    <t>L-BSCS9248642</t>
+  </si>
+  <si>
+    <t>Syed Abdul Raheem Shah</t>
+  </si>
+  <si>
+    <t>L-BSCS9248643</t>
+  </si>
+  <si>
+    <t>Syed Muhammad Kaif</t>
+  </si>
+  <si>
+    <t>L-BSCS9248644</t>
+  </si>
+  <si>
+    <t>Syeda Rabiya Imran</t>
+  </si>
+  <si>
+    <t>L-BSCS9248645</t>
+  </si>
+  <si>
+    <t>Talha Khan</t>
+  </si>
+  <si>
+    <t>L-BSCS9248646</t>
+  </si>
+  <si>
+    <t>Tayyaba Liaqat</t>
+  </si>
+  <si>
+    <t>L-BSCS9248647</t>
+  </si>
+  <si>
+    <t>Umer Sajjad</t>
+  </si>
+  <si>
+    <t>L-BSCS9248648</t>
+  </si>
+  <si>
+    <t>Zainab</t>
+  </si>
+  <si>
+    <t>L-BSCS9248649</t>
+  </si>
+  <si>
+    <t>Zumar Saeed</t>
+  </si>
+  <si>
+    <t>L-BSCS9248650</t>
+  </si>
+  <si>
+    <t>Zymal Kashif</t>
   </si>
 </sst>
 </file>
@@ -1669,6 +1971,63 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>13334</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>188213</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1567180" cy="5080"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Shape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2518409" y="14513813"/>
+          <a:ext cx="1567180" cy="5080"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path w="1567180" h="5080">
+              <a:moveTo>
+                <a:pt x="1566672" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="4572"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1566672" y="4572"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1566672" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1988,6 +2347,3050 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="34.5703125" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" customHeight="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="18">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <f>SUM(D3:M3)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <f>(N3/700)*100</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" ht="18">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" ref="N4:N52" si="0">SUM(D4:M4)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" ref="O4:O52" si="1">(N4/700)*100</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" ht="18">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" ht="18">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="1:19" ht="18">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="9"/>
+    </row>
+    <row r="8" spans="1:19" ht="18">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="9"/>
+    </row>
+    <row r="9" spans="1:19" ht="18">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" spans="1:19" ht="36">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="9"/>
+    </row>
+    <row r="11" spans="1:19" ht="18">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="9"/>
+    </row>
+    <row r="12" spans="1:19" ht="18">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="9"/>
+    </row>
+    <row r="13" spans="1:19" ht="18">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" s="9"/>
+    </row>
+    <row r="14" spans="1:19" ht="18">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" s="9"/>
+    </row>
+    <row r="15" spans="1:19" ht="18">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="9"/>
+    </row>
+    <row r="16" spans="1:19" ht="18">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" s="9"/>
+    </row>
+    <row r="17" spans="1:19" ht="18">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" s="9"/>
+    </row>
+    <row r="18" spans="1:19" ht="18">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="9"/>
+    </row>
+    <row r="19" spans="1:19" ht="18">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="9"/>
+    </row>
+    <row r="20" spans="1:19" ht="18">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" s="9"/>
+    </row>
+    <row r="21" spans="1:19" ht="18">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" s="9"/>
+    </row>
+    <row r="22" spans="1:19" ht="18">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="9"/>
+    </row>
+    <row r="23" spans="1:19" ht="18">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" s="9"/>
+    </row>
+    <row r="24" spans="1:19" ht="36">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24" s="9"/>
+    </row>
+    <row r="25" spans="1:19" ht="36">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="9"/>
+    </row>
+    <row r="26" spans="1:19" ht="36">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" s="9"/>
+    </row>
+    <row r="27" spans="1:19" ht="18">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S27" s="9"/>
+    </row>
+    <row r="28" spans="1:19" ht="36">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="9"/>
+    </row>
+    <row r="29" spans="1:19" ht="18">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" s="9"/>
+    </row>
+    <row r="30" spans="1:19" ht="18">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S30" s="9"/>
+    </row>
+    <row r="31" spans="1:19" ht="18">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" s="9"/>
+    </row>
+    <row r="32" spans="1:19" ht="36">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S32" s="9"/>
+    </row>
+    <row r="33" spans="1:19" ht="36">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S33" s="9"/>
+    </row>
+    <row r="34" spans="1:19" ht="18">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S34" s="9"/>
+    </row>
+    <row r="35" spans="1:19" ht="36">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S35" s="9"/>
+    </row>
+    <row r="36" spans="1:19" ht="36">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S36" s="9"/>
+    </row>
+    <row r="37" spans="1:19" ht="18">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S37" s="9"/>
+    </row>
+    <row r="38" spans="1:19" ht="18">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S38" s="9"/>
+    </row>
+    <row r="39" spans="1:19" ht="18">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S39" s="9"/>
+    </row>
+    <row r="40" spans="1:19" ht="18">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S40" s="9"/>
+    </row>
+    <row r="41" spans="1:19" ht="18">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S41" s="9"/>
+    </row>
+    <row r="42" spans="1:19" ht="18">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S42" s="9"/>
+    </row>
+    <row r="43" spans="1:19" ht="36">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="1:19" ht="36">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>0</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="1:19" ht="18">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>0</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="1:19" ht="18">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>0</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="1:19" ht="18">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>0</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="1:19" ht="18">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>0</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="1:18" ht="18">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>0</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="18">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="18">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>0</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="18">
+      <c r="A52" s="5"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="M53" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView topLeftCell="G34" zoomScaleNormal="100" workbookViewId="0">
@@ -3987,7 +7390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
@@ -4234,11 +7637,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>

--- a/assets/results.xlsx
+++ b/assets/results.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1-A" sheetId="5" r:id="rId1"/>
-    <sheet name="2-B" sheetId="2" r:id="rId2"/>
-    <sheet name="2-A" sheetId="1" r:id="rId3"/>
-    <sheet name="1-B" sheetId="4" r:id="rId4"/>
+    <sheet name="1-B" sheetId="4" r:id="rId2"/>
+    <sheet name="2-B" sheetId="2" r:id="rId3"/>
+    <sheet name="2-A" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'1-A'!$A$1:$S$49</definedName>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'1-B'!$A$1:$S$49</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'2-B'!$A$1:$Q$48</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'1-B'!$A$1:$S$49</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'2-A'!$A$1:$Q$48</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'2-B'!$A$1:$Q$48</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="419">
   <si>
     <t>Sr.
 No.</t>
@@ -473,13 +474,7 @@
     <t>45207-7949809-5</t>
   </si>
   <si>
-    <t>Umer</t>
-  </si>
-  <si>
     <t>CS-301</t>
-  </si>
-  <si>
-    <t>12345-1234567-1</t>
   </si>
   <si>
     <t>Pre Math-I</t>
@@ -1772,6 +1767,210 @@
   </si>
   <si>
     <t>Zymal Kashif</t>
+  </si>
+  <si>
+    <t>Adil Hussain</t>
+  </si>
+  <si>
+    <t>CS-302</t>
+  </si>
+  <si>
+    <t>CS-303</t>
+  </si>
+  <si>
+    <t>Abdul Raheem</t>
+  </si>
+  <si>
+    <t>CS-304</t>
+  </si>
+  <si>
+    <t>Ali Jaan</t>
+  </si>
+  <si>
+    <t>CS-305</t>
+  </si>
+  <si>
+    <t>Alisha Tanveer</t>
+  </si>
+  <si>
+    <t>CS-306</t>
+  </si>
+  <si>
+    <t>Azka Malik</t>
+  </si>
+  <si>
+    <t>CS-307</t>
+  </si>
+  <si>
+    <t>Bilal Ehsan</t>
+  </si>
+  <si>
+    <t>CS-309</t>
+  </si>
+  <si>
+    <t>Hafiza Kainat</t>
+  </si>
+  <si>
+    <t>CS-310</t>
+  </si>
+  <si>
+    <t>Hamna Aslam</t>
+  </si>
+  <si>
+    <t>CS-311</t>
+  </si>
+  <si>
+    <t>Hinza</t>
+  </si>
+  <si>
+    <t>CS-312</t>
+  </si>
+  <si>
+    <t>Hafiz Musa HassanKaleem</t>
+  </si>
+  <si>
+    <t>CS-313</t>
+  </si>
+  <si>
+    <t>Luqman</t>
+  </si>
+  <si>
+    <t>CS-314</t>
+  </si>
+  <si>
+    <t>CS-315</t>
+  </si>
+  <si>
+    <t>Muhammad Touqeer Akhtar</t>
+  </si>
+  <si>
+    <t>CS-316</t>
+  </si>
+  <si>
+    <t>Mahnoor Fatima</t>
+  </si>
+  <si>
+    <t>CS-317</t>
+  </si>
+  <si>
+    <t>Mahrukh</t>
+  </si>
+  <si>
+    <t>CS-318</t>
+  </si>
+  <si>
+    <t>Maria Siddiqa</t>
+  </si>
+  <si>
+    <t>CS-320</t>
+  </si>
+  <si>
+    <t>Meer Alam</t>
+  </si>
+  <si>
+    <t>CS-321</t>
+  </si>
+  <si>
+    <t>Meer Omer Khalid</t>
+  </si>
+  <si>
+    <t>CS-322</t>
+  </si>
+  <si>
+    <t>Mohid Hassan</t>
+  </si>
+  <si>
+    <t>CS-324</t>
+  </si>
+  <si>
+    <t>Muhammad Asim</t>
+  </si>
+  <si>
+    <t>CS-325</t>
+  </si>
+  <si>
+    <t>Muhammad Dawood</t>
+  </si>
+  <si>
+    <t>CS-326</t>
+  </si>
+  <si>
+    <t>Muhammad Masil Farooq</t>
+  </si>
+  <si>
+    <t>CS-327</t>
+  </si>
+  <si>
+    <t>Muhammad Saad</t>
+  </si>
+  <si>
+    <t>CS-328</t>
+  </si>
+  <si>
+    <t>Muhammad Umar Nasrullah</t>
+  </si>
+  <si>
+    <t>CS-329</t>
+  </si>
+  <si>
+    <t>Muhammad Zikria Ehsan</t>
+  </si>
+  <si>
+    <t>CS-330</t>
+  </si>
+  <si>
+    <t>CS-331</t>
+  </si>
+  <si>
+    <t>Muhammad Wasif Nisar</t>
+  </si>
+  <si>
+    <t>CS-332</t>
+  </si>
+  <si>
+    <t>Muhammad Umair Ishaq</t>
+  </si>
+  <si>
+    <t>CS-333</t>
+  </si>
+  <si>
+    <t>Muhammad Faheem Butt</t>
+  </si>
+  <si>
+    <t>CS-334</t>
+  </si>
+  <si>
+    <t>Nalain Abbas</t>
+  </si>
+  <si>
+    <t>CS-335</t>
+  </si>
+  <si>
+    <t>Qadeer Hussain</t>
+  </si>
+  <si>
+    <t>CS-336</t>
+  </si>
+  <si>
+    <t>Rabia Sultan</t>
+  </si>
+  <si>
+    <t>CS-337</t>
+  </si>
+  <si>
+    <t>Roha Umar</t>
+  </si>
+  <si>
+    <t>CS-339</t>
+  </si>
+  <si>
+    <t>Savaira Ishfaq</t>
+  </si>
+  <si>
+    <t>CS-340</t>
+  </si>
+  <si>
+    <t>Sayyam Ali Murtaza</t>
   </si>
 </sst>
 </file>
@@ -2349,7 +2548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2379,40 +2578,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J1" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="K1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>150</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
@@ -2435,10 +2634,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
@@ -2476,10 +2675,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -2535,10 +2734,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -2571,11 +2770,11 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" ref="N4:N52" si="0">SUM(D4:M4)</f>
+        <f t="shared" ref="N4:N51" si="0">SUM(D4:M4)</f>
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" ref="O4:O52" si="1">(N4/700)*100</f>
+        <f t="shared" ref="O4:O51" si="1">(N4/700)*100</f>
         <v>0</v>
       </c>
       <c r="P4" s="2">
@@ -2594,10 +2793,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -2653,10 +2852,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -2712,10 +2911,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -2771,10 +2970,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -2830,10 +3029,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -2889,10 +3088,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -2948,10 +3147,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -3007,10 +3206,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -3066,10 +3265,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -3125,10 +3324,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -3184,10 +3383,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -3243,10 +3442,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -3302,10 +3501,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -3361,10 +3560,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -3420,10 +3619,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -3479,10 +3678,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
@@ -3538,10 +3737,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -3597,10 +3796,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -3656,10 +3855,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -3715,10 +3914,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -3774,10 +3973,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -3833,10 +4032,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -3892,10 +4091,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -3951,10 +4150,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -4010,10 +4209,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
@@ -4069,10 +4268,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -4128,10 +4327,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -4187,10 +4386,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
@@ -4246,10 +4445,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -4305,10 +4504,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
@@ -4364,10 +4563,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -4423,10 +4622,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
@@ -4482,10 +4681,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -4541,10 +4740,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -4600,10 +4799,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -4659,10 +4858,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
@@ -4718,10 +4917,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
@@ -4777,10 +4976,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
@@ -4836,10 +5035,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
@@ -4895,10 +5094,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
@@ -4954,10 +5153,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D45" s="2">
         <v>0</v>
@@ -5013,10 +5212,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D46" s="2">
         <v>0</v>
@@ -5072,10 +5271,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D47" s="2">
         <v>0</v>
@@ -5131,10 +5330,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D48" s="2">
         <v>0</v>
@@ -5190,10 +5389,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D49" s="2">
         <v>0</v>
@@ -5248,10 +5447,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
@@ -5306,10 +5505,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D51" s="2">
         <v>0</v>
@@ -5390,2254 +5589,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q47"/>
-  <sheetViews>
-    <sheetView topLeftCell="G34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="16.5">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="9">
-        <v>67</v>
-      </c>
-      <c r="I2" s="10">
-        <v>65</v>
-      </c>
-      <c r="J2" s="2">
-        <v>75</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2">
-        <f>SUM(D2:K2)</f>
-        <v>207</v>
-      </c>
-      <c r="M2" s="2">
-        <f>(L2/700)*100</f>
-        <v>29.571428571428569</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="9">
-        <v>63</v>
-      </c>
-      <c r="I3" s="10">
-        <v>50</v>
-      </c>
-      <c r="J3" s="2">
-        <v>75</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2">
-        <f t="shared" ref="L3:L41" si="0">SUM(D3:K3)</f>
-        <v>188</v>
-      </c>
-      <c r="M3" s="2">
-        <f t="shared" ref="M3:M41" si="1">(L3/700)*100</f>
-        <v>26.857142857142858</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="9">
-        <v>68</v>
-      </c>
-      <c r="I4" s="10">
-        <v>60</v>
-      </c>
-      <c r="J4" s="2">
-        <v>85</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2">
-        <f t="shared" si="0"/>
-        <v>213</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" si="1"/>
-        <v>30.428571428571427</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="9">
-        <v>74</v>
-      </c>
-      <c r="I5" s="10">
-        <v>71</v>
-      </c>
-      <c r="J5" s="2">
-        <v>95</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" si="1"/>
-        <v>34.285714285714285</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="9">
-        <v>85</v>
-      </c>
-      <c r="I6" s="10">
-        <v>89</v>
-      </c>
-      <c r="J6" s="2">
-        <v>98</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2">
-        <f t="shared" si="0"/>
-        <v>272</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="1"/>
-        <v>38.857142857142854</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="9">
-        <v>57</v>
-      </c>
-      <c r="I7" s="10">
-        <v>61</v>
-      </c>
-      <c r="J7" s="2">
-        <v>89</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2">
-        <f t="shared" si="0"/>
-        <v>207</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="1"/>
-        <v>29.571428571428569</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="9">
-        <v>85</v>
-      </c>
-      <c r="I8" s="10">
-        <v>80</v>
-      </c>
-      <c r="J8" s="2">
-        <v>95</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="1"/>
-        <v>37.142857142857146</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="9">
-        <v>79</v>
-      </c>
-      <c r="I9" s="10">
-        <v>55</v>
-      </c>
-      <c r="J9" s="2">
-        <v>88</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2">
-        <f t="shared" si="0"/>
-        <v>222</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="1"/>
-        <v>31.714285714285712</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10">
-        <v>25</v>
-      </c>
-      <c r="J10" s="2">
-        <v>2</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="1"/>
-        <v>3.8571428571428568</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="9">
-        <v>70</v>
-      </c>
-      <c r="I11" s="10">
-        <v>65</v>
-      </c>
-      <c r="J11" s="2">
-        <v>77</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2">
-        <f t="shared" si="0"/>
-        <v>212</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="1"/>
-        <v>30.285714285714288</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="9">
-        <v>79</v>
-      </c>
-      <c r="I12" s="10">
-        <v>58</v>
-      </c>
-      <c r="J12" s="2">
-        <v>50</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2">
-        <f t="shared" si="0"/>
-        <v>187</v>
-      </c>
-      <c r="M12" s="2">
-        <f t="shared" si="1"/>
-        <v>26.714285714285712</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.5">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="9">
-        <v>71</v>
-      </c>
-      <c r="I13" s="10">
-        <v>53</v>
-      </c>
-      <c r="J13" s="2">
-        <v>66</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2">
-        <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="1"/>
-        <v>27.142857142857142</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="16.5">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="9">
-        <v>80</v>
-      </c>
-      <c r="I14" s="10">
-        <v>62</v>
-      </c>
-      <c r="J14" s="2">
-        <v>65</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2">
-        <f t="shared" si="0"/>
-        <v>207</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="1"/>
-        <v>29.571428571428569</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="16.5">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="9">
-        <v>77</v>
-      </c>
-      <c r="I15" s="10">
-        <v>55</v>
-      </c>
-      <c r="J15" s="2">
-        <v>65</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2">
-        <f t="shared" si="0"/>
-        <v>197</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="1"/>
-        <v>28.142857142857142</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="16.5">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="9">
-        <v>70</v>
-      </c>
-      <c r="I16" s="10">
-        <v>62</v>
-      </c>
-      <c r="J16" s="2">
-        <v>80</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2">
-        <f t="shared" si="0"/>
-        <v>212</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="1"/>
-        <v>30.285714285714288</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="16.5">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="9">
-        <v>68</v>
-      </c>
-      <c r="I17" s="10">
-        <v>72</v>
-      </c>
-      <c r="J17" s="2">
-        <v>73</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2">
-        <f t="shared" si="0"/>
-        <v>213</v>
-      </c>
-      <c r="M17" s="2">
-        <f t="shared" si="1"/>
-        <v>30.428571428571427</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="16.5">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="9">
-        <v>86</v>
-      </c>
-      <c r="I18" s="10">
-        <v>70</v>
-      </c>
-      <c r="J18" s="2">
-        <v>80</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2">
-        <f t="shared" si="0"/>
-        <v>236</v>
-      </c>
-      <c r="M18" s="2">
-        <f t="shared" si="1"/>
-        <v>33.714285714285715</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="16.5">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="9">
-        <v>71</v>
-      </c>
-      <c r="I19" s="10">
-        <v>60</v>
-      </c>
-      <c r="J19" s="2">
-        <v>67</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2">
-        <f t="shared" si="0"/>
-        <v>198</v>
-      </c>
-      <c r="M19" s="2">
-        <f t="shared" si="1"/>
-        <v>28.285714285714285</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="16.5">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="9">
-        <v>61</v>
-      </c>
-      <c r="I20" s="10">
-        <v>45</v>
-      </c>
-      <c r="J20" s="2">
-        <v>63</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2">
-        <f t="shared" si="0"/>
-        <v>169</v>
-      </c>
-      <c r="M20" s="2">
-        <f t="shared" si="1"/>
-        <v>24.142857142857142</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q20" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="16.5">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="9">
-        <v>65</v>
-      </c>
-      <c r="I21" s="10">
-        <v>52</v>
-      </c>
-      <c r="J21" s="2">
-        <v>73</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2">
-        <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
-      <c r="M21" s="2">
-        <f t="shared" si="1"/>
-        <v>27.142857142857142</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="16.5">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="9">
-        <v>75</v>
-      </c>
-      <c r="I22" s="10">
-        <v>54</v>
-      </c>
-      <c r="J22" s="2">
-        <v>87</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2">
-        <f t="shared" si="0"/>
-        <v>216</v>
-      </c>
-      <c r="M22" s="2">
-        <f t="shared" si="1"/>
-        <v>30.857142857142854</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="16.5">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="9">
-        <v>77</v>
-      </c>
-      <c r="I23" s="10">
-        <v>53</v>
-      </c>
-      <c r="J23" s="2">
-        <v>63</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2">
-        <f t="shared" si="0"/>
-        <v>193</v>
-      </c>
-      <c r="M23" s="2">
-        <f t="shared" si="1"/>
-        <v>27.571428571428569</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q23" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="16.5">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="9">
-        <v>80</v>
-      </c>
-      <c r="I24" s="10">
-        <v>80</v>
-      </c>
-      <c r="J24" s="2">
-        <v>89</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2">
-        <f t="shared" si="0"/>
-        <v>249</v>
-      </c>
-      <c r="M24" s="2">
-        <f t="shared" si="1"/>
-        <v>35.571428571428569</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2">
-        <v>0</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="16.5">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="9">
-        <v>64</v>
-      </c>
-      <c r="I25" s="10">
-        <v>39</v>
-      </c>
-      <c r="J25" s="2">
-        <v>56</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2">
-        <f t="shared" si="0"/>
-        <v>159</v>
-      </c>
-      <c r="M25" s="2">
-        <f t="shared" si="1"/>
-        <v>22.714285714285715</v>
-      </c>
-      <c r="N25" s="2">
-        <v>0</v>
-      </c>
-      <c r="O25" s="2">
-        <v>0</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="16.5">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="9">
-        <v>74</v>
-      </c>
-      <c r="I26" s="10">
-        <v>52</v>
-      </c>
-      <c r="J26" s="2">
-        <v>82</v>
-      </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2">
-        <f t="shared" si="0"/>
-        <v>208</v>
-      </c>
-      <c r="M26" s="2">
-        <f t="shared" si="1"/>
-        <v>29.714285714285715</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0</v>
-      </c>
-      <c r="O26" s="2">
-        <v>0</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q26" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="16.5">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="9">
-        <v>66</v>
-      </c>
-      <c r="I27" s="10">
-        <v>50</v>
-      </c>
-      <c r="J27" s="2">
-        <v>75</v>
-      </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2">
-        <f t="shared" si="0"/>
-        <v>191</v>
-      </c>
-      <c r="M27" s="2">
-        <f t="shared" si="1"/>
-        <v>27.285714285714285</v>
-      </c>
-      <c r="N27" s="2">
-        <v>0</v>
-      </c>
-      <c r="O27" s="2">
-        <v>0</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q27" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="16.5">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="9">
-        <v>75</v>
-      </c>
-      <c r="I28" s="10">
-        <v>65</v>
-      </c>
-      <c r="J28" s="2">
-        <v>84</v>
-      </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2">
-        <f t="shared" si="0"/>
-        <v>224</v>
-      </c>
-      <c r="M28" s="2">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0</v>
-      </c>
-      <c r="O28" s="2">
-        <v>0</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q28" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="16.5">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="9">
-        <v>65</v>
-      </c>
-      <c r="I29" s="10">
-        <v>50</v>
-      </c>
-      <c r="J29" s="2">
-        <v>60</v>
-      </c>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2">
-        <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-      <c r="M29" s="2">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0</v>
-      </c>
-      <c r="O29" s="2">
-        <v>0</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q29" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="16.5">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="9">
-        <v>65</v>
-      </c>
-      <c r="I30" s="10">
-        <v>66</v>
-      </c>
-      <c r="J30" s="2">
-        <v>80</v>
-      </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2">
-        <f t="shared" si="0"/>
-        <v>211</v>
-      </c>
-      <c r="M30" s="2">
-        <f t="shared" si="1"/>
-        <v>30.142857142857142</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0</v>
-      </c>
-      <c r="O30" s="2">
-        <v>0</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q30" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="16.5">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="9">
-        <v>67</v>
-      </c>
-      <c r="I31" s="10">
-        <v>70</v>
-      </c>
-      <c r="J31" s="2">
-        <v>80</v>
-      </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2">
-        <f t="shared" si="0"/>
-        <v>217</v>
-      </c>
-      <c r="M31" s="2">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="N31" s="2">
-        <v>0</v>
-      </c>
-      <c r="O31" s="2">
-        <v>0</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q31" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="16.5">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="9">
-        <v>79</v>
-      </c>
-      <c r="I32" s="10">
-        <v>63</v>
-      </c>
-      <c r="J32" s="2">
-        <v>80</v>
-      </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2">
-        <f t="shared" si="0"/>
-        <v>222</v>
-      </c>
-      <c r="M32" s="2">
-        <f t="shared" si="1"/>
-        <v>31.714285714285712</v>
-      </c>
-      <c r="N32" s="2">
-        <v>0</v>
-      </c>
-      <c r="O32" s="2">
-        <v>0</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q32" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="16.5">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="9">
-        <v>83</v>
-      </c>
-      <c r="I33" s="10">
-        <v>60</v>
-      </c>
-      <c r="J33" s="2">
-        <v>89</v>
-      </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2">
-        <f t="shared" si="0"/>
-        <v>232</v>
-      </c>
-      <c r="M33" s="2">
-        <f t="shared" si="1"/>
-        <v>33.142857142857139</v>
-      </c>
-      <c r="N33" s="2">
-        <v>0</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q33" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="16.5">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="9">
-        <v>68</v>
-      </c>
-      <c r="I34" s="10">
-        <v>62</v>
-      </c>
-      <c r="J34" s="2">
-        <v>73</v>
-      </c>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2">
-        <f t="shared" si="0"/>
-        <v>203</v>
-      </c>
-      <c r="M34" s="2">
-        <f t="shared" si="1"/>
-        <v>28.999999999999996</v>
-      </c>
-      <c r="N34" s="2">
-        <v>0</v>
-      </c>
-      <c r="O34" s="2">
-        <v>0</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q34" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="16.5">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="9">
-        <v>77</v>
-      </c>
-      <c r="I35" s="10">
-        <v>66</v>
-      </c>
-      <c r="J35" s="2">
-        <v>71</v>
-      </c>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2">
-        <f t="shared" si="0"/>
-        <v>214</v>
-      </c>
-      <c r="M35" s="2">
-        <f t="shared" si="1"/>
-        <v>30.571428571428573</v>
-      </c>
-      <c r="N35" s="2">
-        <v>0</v>
-      </c>
-      <c r="O35" s="2">
-        <v>0</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q35" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="16.5">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="9">
-        <v>65</v>
-      </c>
-      <c r="I36" s="10">
-        <v>56</v>
-      </c>
-      <c r="J36" s="2">
-        <v>72</v>
-      </c>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2">
-        <f t="shared" si="0"/>
-        <v>193</v>
-      </c>
-      <c r="M36" s="2">
-        <f t="shared" si="1"/>
-        <v>27.571428571428569</v>
-      </c>
-      <c r="N36" s="2">
-        <v>0</v>
-      </c>
-      <c r="O36" s="2">
-        <v>0</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q36" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="16.5">
-      <c r="A37" s="5">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="9">
-        <v>69</v>
-      </c>
-      <c r="I37" s="10">
-        <v>60</v>
-      </c>
-      <c r="J37" s="2">
-        <v>66</v>
-      </c>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="M37" s="2">
-        <f t="shared" si="1"/>
-        <v>27.857142857142858</v>
-      </c>
-      <c r="N37" s="2">
-        <v>0</v>
-      </c>
-      <c r="O37" s="2">
-        <v>0</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q37" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="16.5">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="9">
-        <v>84</v>
-      </c>
-      <c r="I38" s="10">
-        <v>85</v>
-      </c>
-      <c r="J38" s="2">
-        <v>96</v>
-      </c>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2">
-        <f t="shared" si="0"/>
-        <v>265</v>
-      </c>
-      <c r="M38" s="2">
-        <f t="shared" si="1"/>
-        <v>37.857142857142854</v>
-      </c>
-      <c r="N38" s="2">
-        <v>0</v>
-      </c>
-      <c r="O38" s="2">
-        <v>0</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q38" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="16.5">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="9">
-        <v>77</v>
-      </c>
-      <c r="I39" s="10">
-        <v>63</v>
-      </c>
-      <c r="J39" s="2">
-        <v>90</v>
-      </c>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2">
-        <f t="shared" si="0"/>
-        <v>230</v>
-      </c>
-      <c r="M39" s="2">
-        <f t="shared" si="1"/>
-        <v>32.857142857142854</v>
-      </c>
-      <c r="N39" s="2">
-        <v>0</v>
-      </c>
-      <c r="O39" s="2">
-        <v>0</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q39" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="16.5">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="9">
-        <v>68</v>
-      </c>
-      <c r="I40" s="10">
-        <v>57</v>
-      </c>
-      <c r="J40" s="2">
-        <v>88</v>
-      </c>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2">
-        <f t="shared" si="0"/>
-        <v>213</v>
-      </c>
-      <c r="M40" s="2">
-        <f t="shared" si="1"/>
-        <v>30.428571428571427</v>
-      </c>
-      <c r="N40" s="2">
-        <v>0</v>
-      </c>
-      <c r="O40" s="2">
-        <v>0</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q40" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="16.5">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="9">
-        <v>74</v>
-      </c>
-      <c r="I41" s="10">
-        <v>43</v>
-      </c>
-      <c r="J41" s="2">
-        <v>55</v>
-      </c>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2">
-        <f t="shared" si="0"/>
-        <v>172</v>
-      </c>
-      <c r="M41" s="2">
-        <f t="shared" si="1"/>
-        <v>24.571428571428573</v>
-      </c>
-      <c r="N41" s="2">
-        <v>0</v>
-      </c>
-      <c r="O41" s="2">
-        <v>0</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q41" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="1"/>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="1"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="1"/>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="1"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="1"/>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="17" max="17" width="19.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="16.5">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2">
-        <v>100</v>
-      </c>
-      <c r="G2" s="2">
-        <v>80</v>
-      </c>
-      <c r="H2" s="9">
-        <v>67</v>
-      </c>
-      <c r="I2" s="10">
-        <v>65</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2">
-        <f>SUM(D2:K2)</f>
-        <v>312</v>
-      </c>
-      <c r="M2" s="2">
-        <f>(L2/700)*100</f>
-        <v>44.571428571428569</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="9">
-        <v>63</v>
-      </c>
-      <c r="I3" s="10">
-        <v>50</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2">
-        <f t="shared" ref="L3:L5" si="0">SUM(D3:K3)</f>
-        <v>113</v>
-      </c>
-      <c r="M3" s="2">
-        <f t="shared" ref="M3:M5" si="1">(L3/700)*100</f>
-        <v>16.142857142857142</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="9">
-        <v>68</v>
-      </c>
-      <c r="I4" s="10">
-        <v>60</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" si="1"/>
-        <v>18.285714285714285</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="9">
-        <v>74</v>
-      </c>
-      <c r="I5" s="10">
-        <v>71</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" si="1"/>
-        <v>20.714285714285715</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S53"/>
   <sheetViews>
@@ -7677,34 +5628,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J1" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="K1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>150</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
@@ -7727,10 +5678,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -7752,10 +5703,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -7811,10 +5762,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -7870,10 +5821,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -7929,10 +5880,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -7988,10 +5939,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -8047,10 +5998,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -8106,10 +6057,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -8165,10 +6116,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -8224,10 +6175,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -8283,10 +6234,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -8342,10 +6293,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -8401,10 +6352,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -8460,10 +6411,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -8519,10 +6470,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -8578,10 +6529,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -8637,10 +6588,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -8696,10 +6647,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -8755,10 +6706,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
@@ -8814,10 +6765,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -8873,10 +6824,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -8932,10 +6883,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -8991,10 +6942,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -9050,10 +7001,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -9109,10 +7060,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -9168,10 +7119,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -9227,10 +7178,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -9286,10 +7237,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
@@ -9345,10 +7296,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -9404,10 +7355,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -9463,10 +7414,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
@@ -9522,10 +7473,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -9581,10 +7532,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
@@ -9640,10 +7591,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -9699,10 +7650,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
@@ -9758,10 +7709,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -9817,10 +7768,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -9876,10 +7827,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -9935,10 +7886,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
@@ -9994,10 +7945,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
@@ -10053,10 +8004,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
@@ -10112,10 +8063,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
@@ -10171,10 +8122,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
@@ -10230,10 +8181,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D45" s="2">
         <v>0</v>
@@ -10289,10 +8240,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D46" s="2">
         <v>0</v>
@@ -10348,10 +8299,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D47" s="2">
         <v>0</v>
@@ -10407,10 +8358,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D48" s="2">
         <v>0</v>
@@ -10466,10 +8417,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D49" s="2">
         <v>0</v>
@@ -10524,10 +8475,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
@@ -10582,10 +8533,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D51" s="2">
         <v>0</v>
@@ -10640,10 +8591,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D52" s="2">
         <v>0</v>
@@ -10700,6 +8651,3752 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q47"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="52.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="9">
+        <v>67</v>
+      </c>
+      <c r="I2" s="10">
+        <v>65</v>
+      </c>
+      <c r="J2" s="2">
+        <v>75</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2">
+        <f>SUM(D2:K2)</f>
+        <v>207</v>
+      </c>
+      <c r="M2" s="2">
+        <f>(L2/700)*100</f>
+        <v>29.571428571428569</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="9">
+        <v>63</v>
+      </c>
+      <c r="I3" s="10">
+        <v>50</v>
+      </c>
+      <c r="J3" s="2">
+        <v>75</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L41" si="0">SUM(D3:K3)</f>
+        <v>188</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M41" si="1">(L3/700)*100</f>
+        <v>26.857142857142858</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="9">
+        <v>68</v>
+      </c>
+      <c r="I4" s="10">
+        <v>60</v>
+      </c>
+      <c r="J4" s="2">
+        <v>85</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="1"/>
+        <v>30.428571428571427</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="9">
+        <v>74</v>
+      </c>
+      <c r="I5" s="10">
+        <v>71</v>
+      </c>
+      <c r="J5" s="2">
+        <v>95</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="1"/>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="9">
+        <v>85</v>
+      </c>
+      <c r="I6" s="10">
+        <v>89</v>
+      </c>
+      <c r="J6" s="2">
+        <v>98</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>272</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="1"/>
+        <v>38.857142857142854</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="9">
+        <v>57</v>
+      </c>
+      <c r="I7" s="10">
+        <v>61</v>
+      </c>
+      <c r="J7" s="2">
+        <v>89</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="1"/>
+        <v>29.571428571428569</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="9">
+        <v>85</v>
+      </c>
+      <c r="I8" s="10">
+        <v>80</v>
+      </c>
+      <c r="J8" s="2">
+        <v>95</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="1"/>
+        <v>37.142857142857146</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="9">
+        <v>79</v>
+      </c>
+      <c r="I9" s="10">
+        <v>55</v>
+      </c>
+      <c r="J9" s="2">
+        <v>88</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="1"/>
+        <v>31.714285714285712</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8571428571428568</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="9">
+        <v>70</v>
+      </c>
+      <c r="I11" s="10">
+        <v>65</v>
+      </c>
+      <c r="J11" s="2">
+        <v>77</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="1"/>
+        <v>30.285714285714288</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="9">
+        <v>79</v>
+      </c>
+      <c r="I12" s="10">
+        <v>58</v>
+      </c>
+      <c r="J12" s="2">
+        <v>50</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2">
+        <f t="shared" si="0"/>
+        <v>187</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="1"/>
+        <v>26.714285714285712</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="9">
+        <v>71</v>
+      </c>
+      <c r="I13" s="10">
+        <v>53</v>
+      </c>
+      <c r="J13" s="2">
+        <v>66</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="1"/>
+        <v>27.142857142857142</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="9">
+        <v>80</v>
+      </c>
+      <c r="I14" s="10">
+        <v>62</v>
+      </c>
+      <c r="J14" s="2">
+        <v>65</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="1"/>
+        <v>29.571428571428569</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.5">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="9">
+        <v>77</v>
+      </c>
+      <c r="I15" s="10">
+        <v>55</v>
+      </c>
+      <c r="J15" s="2">
+        <v>65</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="1"/>
+        <v>28.142857142857142</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.5">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="9">
+        <v>70</v>
+      </c>
+      <c r="I16" s="10">
+        <v>62</v>
+      </c>
+      <c r="J16" s="2">
+        <v>80</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="1"/>
+        <v>30.285714285714288</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="16.5">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="9">
+        <v>68</v>
+      </c>
+      <c r="I17" s="10">
+        <v>72</v>
+      </c>
+      <c r="J17" s="2">
+        <v>73</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="1"/>
+        <v>30.428571428571427</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="16.5">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="9">
+        <v>86</v>
+      </c>
+      <c r="I18" s="10">
+        <v>70</v>
+      </c>
+      <c r="J18" s="2">
+        <v>80</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2">
+        <f t="shared" si="0"/>
+        <v>236</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="1"/>
+        <v>33.714285714285715</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="16.5">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="9">
+        <v>71</v>
+      </c>
+      <c r="I19" s="10">
+        <v>60</v>
+      </c>
+      <c r="J19" s="2">
+        <v>67</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="1"/>
+        <v>28.285714285714285</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="16.5">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="9">
+        <v>61</v>
+      </c>
+      <c r="I20" s="10">
+        <v>45</v>
+      </c>
+      <c r="J20" s="2">
+        <v>63</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="1"/>
+        <v>24.142857142857142</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="16.5">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="9">
+        <v>65</v>
+      </c>
+      <c r="I21" s="10">
+        <v>52</v>
+      </c>
+      <c r="J21" s="2">
+        <v>73</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="1"/>
+        <v>27.142857142857142</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="16.5">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="9">
+        <v>75</v>
+      </c>
+      <c r="I22" s="10">
+        <v>54</v>
+      </c>
+      <c r="J22" s="2">
+        <v>87</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="1"/>
+        <v>30.857142857142854</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="16.5">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="9">
+        <v>77</v>
+      </c>
+      <c r="I23" s="10">
+        <v>53</v>
+      </c>
+      <c r="J23" s="2">
+        <v>63</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="1"/>
+        <v>27.571428571428569</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="16.5">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="9">
+        <v>80</v>
+      </c>
+      <c r="I24" s="10">
+        <v>80</v>
+      </c>
+      <c r="J24" s="2">
+        <v>89</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="1"/>
+        <v>35.571428571428569</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="16.5">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="9">
+        <v>64</v>
+      </c>
+      <c r="I25" s="10">
+        <v>39</v>
+      </c>
+      <c r="J25" s="2">
+        <v>56</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="1"/>
+        <v>22.714285714285715</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="16.5">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="9">
+        <v>74</v>
+      </c>
+      <c r="I26" s="10">
+        <v>52</v>
+      </c>
+      <c r="J26" s="2">
+        <v>82</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="1"/>
+        <v>29.714285714285715</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="16.5">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="9">
+        <v>66</v>
+      </c>
+      <c r="I27" s="10">
+        <v>50</v>
+      </c>
+      <c r="J27" s="2">
+        <v>75</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="1"/>
+        <v>27.285714285714285</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="16.5">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="9">
+        <v>75</v>
+      </c>
+      <c r="I28" s="10">
+        <v>65</v>
+      </c>
+      <c r="J28" s="2">
+        <v>84</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="16.5">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="9">
+        <v>65</v>
+      </c>
+      <c r="I29" s="10">
+        <v>50</v>
+      </c>
+      <c r="J29" s="2">
+        <v>60</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="16.5">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="9">
+        <v>65</v>
+      </c>
+      <c r="I30" s="10">
+        <v>66</v>
+      </c>
+      <c r="J30" s="2">
+        <v>80</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2">
+        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="1"/>
+        <v>30.142857142857142</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="16.5">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="9">
+        <v>67</v>
+      </c>
+      <c r="I31" s="10">
+        <v>70</v>
+      </c>
+      <c r="J31" s="2">
+        <v>80</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2">
+        <f t="shared" si="0"/>
+        <v>217</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="16.5">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="9">
+        <v>79</v>
+      </c>
+      <c r="I32" s="10">
+        <v>63</v>
+      </c>
+      <c r="J32" s="2">
+        <v>80</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="1"/>
+        <v>31.714285714285712</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="16.5">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="9">
+        <v>83</v>
+      </c>
+      <c r="I33" s="10">
+        <v>60</v>
+      </c>
+      <c r="J33" s="2">
+        <v>89</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="1"/>
+        <v>33.142857142857139</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="16.5">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="9">
+        <v>68</v>
+      </c>
+      <c r="I34" s="10">
+        <v>62</v>
+      </c>
+      <c r="J34" s="2">
+        <v>73</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="1"/>
+        <v>28.999999999999996</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="16.5">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="9">
+        <v>77</v>
+      </c>
+      <c r="I35" s="10">
+        <v>66</v>
+      </c>
+      <c r="J35" s="2">
+        <v>71</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="1"/>
+        <v>30.571428571428573</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="16.5">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="9">
+        <v>65</v>
+      </c>
+      <c r="I36" s="10">
+        <v>56</v>
+      </c>
+      <c r="J36" s="2">
+        <v>72</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="1"/>
+        <v>27.571428571428569</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="16.5">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="9">
+        <v>69</v>
+      </c>
+      <c r="I37" s="10">
+        <v>60</v>
+      </c>
+      <c r="J37" s="2">
+        <v>66</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="1"/>
+        <v>27.857142857142858</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="16.5">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="9">
+        <v>84</v>
+      </c>
+      <c r="I38" s="10">
+        <v>85</v>
+      </c>
+      <c r="J38" s="2">
+        <v>96</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="1"/>
+        <v>37.857142857142854</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q38" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="16.5">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="9">
+        <v>77</v>
+      </c>
+      <c r="I39" s="10">
+        <v>63</v>
+      </c>
+      <c r="J39" s="2">
+        <v>90</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="1"/>
+        <v>32.857142857142854</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="16.5">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="9">
+        <v>68</v>
+      </c>
+      <c r="I40" s="10">
+        <v>57</v>
+      </c>
+      <c r="J40" s="2">
+        <v>88</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="1"/>
+        <v>30.428571428571427</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q40" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="16.5">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="9">
+        <v>74</v>
+      </c>
+      <c r="I41" s="10">
+        <v>43</v>
+      </c>
+      <c r="J41" s="2">
+        <v>55</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="1"/>
+        <v>24.571428571428573</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q41" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:J41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="52.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2">
+        <f>SUM(D2:K2)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <f>(L2/700)*100</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L41" si="0">SUM(D3:K3)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M41" si="1">(L3/700)*100</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.5">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.5">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="16.5">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="16.5">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="16.5">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="16.5">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="16.5">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="16.5">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="16.5">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="16.5">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="16.5">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="16.5">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="16.5">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="16.5">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="16.5">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="16.5">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="16.5">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="16.5">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="16.5">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="16.5">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="16.5">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="16.5">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="16.5">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="16.5">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q38" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="16.5">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="16.5">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q40" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="16.5">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q41" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/assets/results.xlsx
+++ b/assets/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shani\Documents\GitHub\marks\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ED9F83-2150-4268-96B6-4FC900188478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E954AC-D1A5-4471-B706-29554F1A5171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-A" sheetId="5" r:id="rId1"/>
@@ -4361,7 +4361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -10459,8 +10459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10560,14 +10560,16 @@
       <c r="J2" s="1">
         <v>75</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="1">
+        <v>66</v>
+      </c>
       <c r="L2" s="1">
         <f>SUM(D2:K2)</f>
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="M2" s="1">
         <f>(L2/700)*100</f>
-        <v>29.571428571428569</v>
+        <v>39</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
@@ -10605,14 +10607,16 @@
       <c r="J3" s="1">
         <v>75</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1">
+        <v>60</v>
+      </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L41" si="0">SUM(D3:K3)</f>
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M41" si="1">(L3/700)*100</f>
-        <v>26.857142857142858</v>
+        <v>35.428571428571423</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -10650,14 +10654,16 @@
       <c r="J4" s="1">
         <v>85</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1">
+        <v>72</v>
+      </c>
       <c r="L4" s="1">
         <f t="shared" si="0"/>
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="1"/>
-        <v>30.428571428571427</v>
+        <v>40.714285714285715</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -10695,14 +10701,16 @@
       <c r="J5" s="1">
         <v>95</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1">
+        <v>76</v>
+      </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="1"/>
-        <v>34.285714285714285</v>
+        <v>45.142857142857139</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -10740,14 +10748,16 @@
       <c r="J6" s="1">
         <v>98</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1">
+        <v>97</v>
+      </c>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
-        <v>272</v>
+        <v>369</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="1"/>
-        <v>38.857142857142854</v>
+        <v>52.714285714285715</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
@@ -10785,14 +10795,16 @@
       <c r="J7" s="1">
         <v>89</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>54</v>
+      </c>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="1"/>
-        <v>29.571428571428569</v>
+        <v>37.285714285714285</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
@@ -10830,14 +10842,16 @@
       <c r="J8" s="1">
         <v>95</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1">
+        <v>89</v>
+      </c>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>349</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="1"/>
-        <v>37.142857142857146</v>
+        <v>49.857142857142854</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
@@ -10875,14 +10889,16 @@
       <c r="J9" s="1">
         <v>88</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1">
+        <v>73</v>
+      </c>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
-        <v>222</v>
+        <v>295</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="1"/>
-        <v>31.714285714285712</v>
+        <v>42.142857142857146</v>
       </c>
       <c r="N9" s="1">
         <v>0</v>
@@ -10920,7 +10936,9 @@
       <c r="J10" s="1">
         <v>2</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -10965,14 +10983,16 @@
       <c r="J11" s="1">
         <v>77</v>
       </c>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1">
+        <v>82</v>
+      </c>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>294</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="1"/>
-        <v>30.285714285714288</v>
+        <v>42</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
@@ -11010,14 +11030,16 @@
       <c r="J12" s="1">
         <v>50</v>
       </c>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1">
+        <v>80</v>
+      </c>
       <c r="L12" s="1">
         <f t="shared" si="0"/>
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="1"/>
-        <v>26.714285714285712</v>
+        <v>38.142857142857146</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
@@ -11055,14 +11077,16 @@
       <c r="J13" s="1">
         <v>66</v>
       </c>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1">
+        <v>71</v>
+      </c>
       <c r="L13" s="1">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>261</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="1"/>
-        <v>27.142857142857142</v>
+        <v>37.285714285714285</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
@@ -11100,14 +11124,16 @@
       <c r="J14" s="1">
         <v>65</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1">
+        <v>77</v>
+      </c>
       <c r="L14" s="1">
         <f t="shared" si="0"/>
-        <v>207</v>
+        <v>284</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="1"/>
-        <v>29.571428571428569</v>
+        <v>40.571428571428569</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
@@ -11145,14 +11171,16 @@
       <c r="J15" s="1">
         <v>65</v>
       </c>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1">
+        <v>77</v>
+      </c>
       <c r="L15" s="1">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>274</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="1"/>
-        <v>28.142857142857142</v>
+        <v>39.142857142857139</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
@@ -11190,14 +11218,16 @@
       <c r="J16" s="1">
         <v>80</v>
       </c>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1">
+        <v>80</v>
+      </c>
       <c r="L16" s="1">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="1"/>
-        <v>30.285714285714288</v>
+        <v>41.714285714285715</v>
       </c>
       <c r="N16" s="1">
         <v>0</v>
@@ -11235,14 +11265,16 @@
       <c r="J17" s="1">
         <v>73</v>
       </c>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1">
+        <v>85</v>
+      </c>
       <c r="L17" s="1">
         <f t="shared" si="0"/>
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" si="1"/>
-        <v>30.428571428571427</v>
+        <v>42.571428571428569</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
@@ -11280,14 +11312,16 @@
       <c r="J18" s="1">
         <v>80</v>
       </c>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1">
+        <v>87</v>
+      </c>
       <c r="L18" s="1">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>323</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" si="1"/>
-        <v>33.714285714285715</v>
+        <v>46.142857142857139</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
@@ -11325,14 +11359,16 @@
       <c r="J19" s="1">
         <v>67</v>
       </c>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1">
+        <v>82</v>
+      </c>
       <c r="L19" s="1">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>280</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="1"/>
-        <v>28.285714285714285</v>
+        <v>40</v>
       </c>
       <c r="N19" s="1">
         <v>0</v>
@@ -11370,14 +11406,16 @@
       <c r="J20" s="1">
         <v>63</v>
       </c>
-      <c r="K20" s="1"/>
+      <c r="K20" s="1">
+        <v>68</v>
+      </c>
       <c r="L20" s="1">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="1"/>
-        <v>24.142857142857142</v>
+        <v>33.857142857142861</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -11415,14 +11453,16 @@
       <c r="J21" s="1">
         <v>73</v>
       </c>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1">
+        <v>64</v>
+      </c>
       <c r="L21" s="1">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="1"/>
-        <v>27.142857142857142</v>
+        <v>36.285714285714285</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -11460,14 +11500,16 @@
       <c r="J22" s="1">
         <v>87</v>
       </c>
-      <c r="K22" s="1"/>
+      <c r="K22" s="1">
+        <v>88</v>
+      </c>
       <c r="L22" s="1">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>304</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="1"/>
-        <v>30.857142857142854</v>
+        <v>43.428571428571431</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>
@@ -11505,14 +11547,16 @@
       <c r="J23" s="1">
         <v>63</v>
       </c>
-      <c r="K23" s="1"/>
+      <c r="K23" s="1">
+        <v>82</v>
+      </c>
       <c r="L23" s="1">
         <f t="shared" si="0"/>
-        <v>193</v>
+        <v>275</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" si="1"/>
-        <v>27.571428571428569</v>
+        <v>39.285714285714285</v>
       </c>
       <c r="N23" s="1">
         <v>0</v>
@@ -11550,14 +11594,16 @@
       <c r="J24" s="1">
         <v>89</v>
       </c>
-      <c r="K24" s="1"/>
+      <c r="K24" s="1">
+        <v>87</v>
+      </c>
       <c r="L24" s="1">
         <f t="shared" si="0"/>
-        <v>249</v>
+        <v>336</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="1"/>
-        <v>35.571428571428569</v>
+        <v>48</v>
       </c>
       <c r="N24" s="1">
         <v>0</v>
@@ -11595,14 +11641,16 @@
       <c r="J25" s="1">
         <v>56</v>
       </c>
-      <c r="K25" s="1"/>
+      <c r="K25" s="1">
+        <v>77</v>
+      </c>
       <c r="L25" s="1">
         <f t="shared" si="0"/>
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="1"/>
-        <v>22.714285714285715</v>
+        <v>33.714285714285715</v>
       </c>
       <c r="N25" s="1">
         <v>0</v>
@@ -11640,14 +11688,16 @@
       <c r="J26" s="1">
         <v>82</v>
       </c>
-      <c r="K26" s="1"/>
+      <c r="K26" s="1">
+        <v>78</v>
+      </c>
       <c r="L26" s="1">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="1"/>
-        <v>29.714285714285715</v>
+        <v>40.857142857142861</v>
       </c>
       <c r="N26" s="1">
         <v>0</v>
@@ -11685,14 +11735,16 @@
       <c r="J27" s="1">
         <v>75</v>
       </c>
-      <c r="K27" s="1"/>
+      <c r="K27" s="1">
+        <v>68</v>
+      </c>
       <c r="L27" s="1">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="1"/>
-        <v>27.285714285714285</v>
+        <v>37</v>
       </c>
       <c r="N27" s="1">
         <v>0</v>
@@ -11730,14 +11782,16 @@
       <c r="J28" s="1">
         <v>84</v>
       </c>
-      <c r="K28" s="1"/>
+      <c r="K28" s="1">
+        <v>90</v>
+      </c>
       <c r="L28" s="1">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>44.857142857142854</v>
       </c>
       <c r="N28" s="1">
         <v>0</v>
@@ -11775,14 +11829,16 @@
       <c r="J29" s="1">
         <v>60</v>
       </c>
-      <c r="K29" s="1"/>
+      <c r="K29" s="1">
+        <v>70</v>
+      </c>
       <c r="L29" s="1">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N29" s="1">
         <v>0</v>
@@ -11820,14 +11876,16 @@
       <c r="J30" s="1">
         <v>80</v>
       </c>
-      <c r="K30" s="1"/>
+      <c r="K30" s="1">
+        <v>68</v>
+      </c>
       <c r="L30" s="1">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>279</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="1"/>
-        <v>30.142857142857142</v>
+        <v>39.857142857142861</v>
       </c>
       <c r="N30" s="1">
         <v>0</v>
@@ -11865,14 +11923,16 @@
       <c r="J31" s="1">
         <v>80</v>
       </c>
-      <c r="K31" s="1"/>
+      <c r="K31" s="1">
+        <v>83</v>
+      </c>
       <c r="L31" s="1">
         <f t="shared" si="0"/>
-        <v>217</v>
+        <v>300</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="N31" s="1">
         <v>0</v>
@@ -11910,14 +11970,16 @@
       <c r="J32" s="1">
         <v>80</v>
       </c>
-      <c r="K32" s="1"/>
+      <c r="K32" s="1">
+        <v>86</v>
+      </c>
       <c r="L32" s="1">
         <f t="shared" si="0"/>
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="1"/>
-        <v>31.714285714285712</v>
+        <v>44</v>
       </c>
       <c r="N32" s="1">
         <v>0</v>
@@ -11955,14 +12017,16 @@
       <c r="J33" s="1">
         <v>89</v>
       </c>
-      <c r="K33" s="1"/>
+      <c r="K33" s="1">
+        <v>94</v>
+      </c>
       <c r="L33" s="1">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>326</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="1"/>
-        <v>33.142857142857139</v>
+        <v>46.571428571428569</v>
       </c>
       <c r="N33" s="1">
         <v>0</v>
@@ -12000,14 +12064,16 @@
       <c r="J34" s="1">
         <v>73</v>
       </c>
-      <c r="K34" s="1"/>
+      <c r="K34" s="1">
+        <v>77</v>
+      </c>
       <c r="L34" s="1">
         <f t="shared" si="0"/>
-        <v>203</v>
+        <v>280</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" si="1"/>
-        <v>28.999999999999996</v>
+        <v>40</v>
       </c>
       <c r="N34" s="1">
         <v>0</v>
@@ -12045,14 +12111,16 @@
       <c r="J35" s="1">
         <v>71</v>
       </c>
-      <c r="K35" s="1"/>
+      <c r="K35" s="1">
+        <v>87</v>
+      </c>
       <c r="L35" s="1">
         <f t="shared" si="0"/>
-        <v>214</v>
+        <v>301</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" si="1"/>
-        <v>30.571428571428573</v>
+        <v>43</v>
       </c>
       <c r="N35" s="1">
         <v>0</v>
@@ -12090,14 +12158,16 @@
       <c r="J36" s="1">
         <v>72</v>
       </c>
-      <c r="K36" s="1"/>
+      <c r="K36" s="1">
+        <v>80</v>
+      </c>
       <c r="L36" s="1">
         <f t="shared" si="0"/>
-        <v>193</v>
+        <v>273</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" si="1"/>
-        <v>27.571428571428569</v>
+        <v>39</v>
       </c>
       <c r="N36" s="1">
         <v>0</v>
@@ -12135,14 +12205,16 @@
       <c r="J37" s="1">
         <v>66</v>
       </c>
-      <c r="K37" s="1"/>
+      <c r="K37" s="1">
+        <v>73</v>
+      </c>
       <c r="L37" s="1">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>268</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" si="1"/>
-        <v>27.857142857142858</v>
+        <v>38.285714285714285</v>
       </c>
       <c r="N37" s="1">
         <v>0</v>
@@ -12180,14 +12252,16 @@
       <c r="J38" s="1">
         <v>96</v>
       </c>
-      <c r="K38" s="1"/>
+      <c r="K38" s="1">
+        <v>85</v>
+      </c>
       <c r="L38" s="1">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>350</v>
       </c>
       <c r="M38" s="1">
         <f t="shared" si="1"/>
-        <v>37.857142857142854</v>
+        <v>50</v>
       </c>
       <c r="N38" s="1">
         <v>0</v>
@@ -12225,14 +12299,16 @@
       <c r="J39" s="1">
         <v>90</v>
       </c>
-      <c r="K39" s="1"/>
+      <c r="K39" s="1">
+        <v>94</v>
+      </c>
       <c r="L39" s="1">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="M39" s="1">
         <f t="shared" si="1"/>
-        <v>32.857142857142854</v>
+        <v>46.285714285714285</v>
       </c>
       <c r="N39" s="1">
         <v>0</v>
@@ -12270,14 +12346,16 @@
       <c r="J40" s="1">
         <v>88</v>
       </c>
-      <c r="K40" s="1"/>
+      <c r="K40" s="1">
+        <v>83</v>
+      </c>
       <c r="L40" s="1">
         <f t="shared" si="0"/>
-        <v>213</v>
+        <v>296</v>
       </c>
       <c r="M40" s="1">
         <f t="shared" si="1"/>
-        <v>30.428571428571427</v>
+        <v>42.285714285714285</v>
       </c>
       <c r="N40" s="1">
         <v>0</v>
@@ -12315,14 +12393,16 @@
       <c r="J41" s="1">
         <v>55</v>
       </c>
-      <c r="K41" s="1"/>
+      <c r="K41" s="1">
+        <v>77</v>
+      </c>
       <c r="L41" s="1">
         <f t="shared" si="0"/>
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="M41" s="1">
         <f t="shared" si="1"/>
-        <v>24.571428571428573</v>
+        <v>35.571428571428569</v>
       </c>
       <c r="N41" s="1">
         <v>0</v>
@@ -17065,7 +17145,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <f>SUM(D3:K3)</f>
+        <f t="shared" ref="L3:L34" si="0">SUM(D3:K3)</f>
         <v>0</v>
       </c>
       <c r="M3" s="1">
@@ -17115,11 +17195,11 @@
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <f>SUM(D4:K4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" ref="M4:M52" si="0">(L4/700)*100</f>
+        <f t="shared" ref="M4:M52" si="1">(L4/700)*100</f>
         <v>0</v>
       </c>
       <c r="N4" s="1">
@@ -17165,11 +17245,11 @@
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <f>SUM(D5:K5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N5" s="1">
@@ -17215,11 +17295,11 @@
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <f>SUM(D6:K6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N6" s="1">
@@ -17265,11 +17345,11 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <f>SUM(D7:K7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N7" s="1">
@@ -17315,11 +17395,11 @@
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <f>SUM(D8:K8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N8" s="1">
@@ -17365,11 +17445,11 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <f>SUM(D9:K9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N9" s="1">
@@ -17415,11 +17495,11 @@
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <f>SUM(D10:K10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N10" s="1">
@@ -17465,11 +17545,11 @@
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <f>SUM(D11:K11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="1">
@@ -17515,11 +17595,11 @@
         <v>0</v>
       </c>
       <c r="L12" s="1">
-        <f>SUM(D12:K12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N12" s="1">
@@ -17565,11 +17645,11 @@
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <f>SUM(D13:K13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N13" s="1">
@@ -17615,11 +17695,11 @@
         <v>0</v>
       </c>
       <c r="L14" s="1">
-        <f>SUM(D14:K14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N14" s="1">
@@ -17665,11 +17745,11 @@
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <f>SUM(D15:K15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N15" s="1">
@@ -17715,11 +17795,11 @@
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <f>SUM(D16:K16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N16" s="1">
@@ -17765,11 +17845,11 @@
         <v>0</v>
       </c>
       <c r="L17" s="1">
-        <f>SUM(D17:K17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N17" s="1">
@@ -17815,11 +17895,11 @@
         <v>0</v>
       </c>
       <c r="L18" s="1">
-        <f>SUM(D18:K18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N18" s="1">
@@ -17865,11 +17945,11 @@
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <f>SUM(D19:K19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N19" s="1">
@@ -17915,11 +17995,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="1">
-        <f>SUM(D20:K20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N20" s="1">
@@ -17965,11 +18045,11 @@
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <f>SUM(D21:K21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N21" s="1">
@@ -18015,11 +18095,11 @@
         <v>0</v>
       </c>
       <c r="L22" s="1">
-        <f>SUM(D22:K22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N22" s="1">
@@ -18065,11 +18145,11 @@
         <v>0</v>
       </c>
       <c r="L23" s="1">
-        <f>SUM(D23:K23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N23" s="1">
@@ -18115,11 +18195,11 @@
         <v>0</v>
       </c>
       <c r="L24" s="1">
-        <f>SUM(D24:K24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N24" s="1">
@@ -18165,11 +18245,11 @@
         <v>0</v>
       </c>
       <c r="L25" s="1">
-        <f>SUM(D25:K25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N25" s="1">
@@ -18215,11 +18295,11 @@
         <v>0</v>
       </c>
       <c r="L26" s="1">
-        <f>SUM(D26:K26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N26" s="1">
@@ -18265,11 +18345,11 @@
         <v>0</v>
       </c>
       <c r="L27" s="1">
-        <f>SUM(D27:K27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N27" s="1">
@@ -18315,11 +18395,11 @@
         <v>0</v>
       </c>
       <c r="L28" s="1">
-        <f>SUM(D28:K28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N28" s="1">
@@ -18365,11 +18445,11 @@
         <v>0</v>
       </c>
       <c r="L29" s="1">
-        <f>SUM(D29:K29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N29" s="1">
@@ -18415,11 +18495,11 @@
         <v>0</v>
       </c>
       <c r="L30" s="1">
-        <f>SUM(D30:K30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N30" s="1">
@@ -18465,11 +18545,11 @@
         <v>0</v>
       </c>
       <c r="L31" s="1">
-        <f>SUM(D31:K31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N31" s="1">
@@ -18515,11 +18595,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="1">
-        <f>SUM(D32:K32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N32" s="1">
@@ -18565,11 +18645,11 @@
         <v>0</v>
       </c>
       <c r="L33" s="1">
-        <f>SUM(D33:K33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N33" s="1">
@@ -18615,11 +18695,11 @@
         <v>0</v>
       </c>
       <c r="L34" s="1">
-        <f>SUM(D34:K34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N34" s="1">
@@ -18665,11 +18745,11 @@
         <v>0</v>
       </c>
       <c r="L35" s="1">
-        <f>SUM(D35:K35)</f>
+        <f t="shared" ref="L35:L66" si="2">SUM(D35:K35)</f>
         <v>0</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N35" s="1">
@@ -18715,11 +18795,11 @@
         <v>0</v>
       </c>
       <c r="L36" s="1">
-        <f>SUM(D36:K36)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N36" s="1">
@@ -18765,11 +18845,11 @@
         <v>0</v>
       </c>
       <c r="L37" s="1">
-        <f>SUM(D37:K37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N37" s="1">
@@ -18815,11 +18895,11 @@
         <v>0</v>
       </c>
       <c r="L38" s="1">
-        <f>SUM(D38:K38)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N38" s="1">
@@ -18865,11 +18945,11 @@
         <v>0</v>
       </c>
       <c r="L39" s="1">
-        <f>SUM(D39:K39)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N39" s="1">
@@ -18915,11 +18995,11 @@
         <v>0</v>
       </c>
       <c r="L40" s="1">
-        <f>SUM(D40:K40)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N40" s="1">
@@ -18965,11 +19045,11 @@
         <v>0</v>
       </c>
       <c r="L41" s="1">
-        <f>SUM(D41:K41)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N41" s="1">
@@ -19015,11 +19095,11 @@
         <v>0</v>
       </c>
       <c r="L42" s="1">
-        <f>SUM(D42:K42)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N42" s="1">
@@ -19065,11 +19145,11 @@
         <v>0</v>
       </c>
       <c r="L43" s="1">
-        <f>SUM(D43:K43)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N43" s="1">
@@ -19114,11 +19194,11 @@
         <v>0</v>
       </c>
       <c r="L44" s="1">
-        <f>SUM(D44:K44)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N44" s="1">
@@ -19163,11 +19243,11 @@
         <v>0</v>
       </c>
       <c r="L45" s="1">
-        <f>SUM(D45:K45)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N45" s="1">
@@ -19212,11 +19292,11 @@
         <v>0</v>
       </c>
       <c r="L46" s="1">
-        <f>SUM(D46:K46)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N46" s="1">
@@ -19261,11 +19341,11 @@
         <v>0</v>
       </c>
       <c r="L47" s="1">
-        <f>SUM(D47:K47)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N47" s="1">
@@ -19310,11 +19390,11 @@
         <v>0</v>
       </c>
       <c r="L48" s="1">
-        <f>SUM(D48:K48)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N48" s="1">
@@ -19359,11 +19439,11 @@
         <v>0</v>
       </c>
       <c r="L49" s="1">
-        <f>SUM(D49:K49)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N49" s="1">
@@ -19404,11 +19484,11 @@
         <v>0</v>
       </c>
       <c r="L50" s="1">
-        <f>SUM(D50:K50)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N50" s="1">
@@ -19449,11 +19529,11 @@
         <v>0</v>
       </c>
       <c r="L51" s="1">
-        <f>SUM(D51:K51)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N51" s="1">
@@ -19494,11 +19574,11 @@
         <v>0</v>
       </c>
       <c r="L52" s="1">
-        <f>SUM(D52:K52)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N52" s="1">
@@ -19623,7 +19703,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <f>SUM(D3:H3)</f>
+        <f t="shared" ref="I3:I34" si="0">SUM(D3:H3)</f>
         <v>0</v>
       </c>
       <c r="J3" s="1">
@@ -19664,11 +19744,11 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>SUM(D4:H4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J52" si="0">(I4/700)*100</f>
+        <f t="shared" ref="J4:J52" si="1">(I4/700)*100</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
@@ -19705,11 +19785,11 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f>SUM(D5:H5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
@@ -19746,11 +19826,11 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f>SUM(D6:H6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
@@ -19787,11 +19867,11 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f>SUM(D7:H7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
@@ -19828,11 +19908,11 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f>SUM(D8:H8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
@@ -19869,11 +19949,11 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f>SUM(D9:H9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
@@ -19910,11 +19990,11 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f>SUM(D10:H10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
@@ -19951,11 +20031,11 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f>SUM(D11:H11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
@@ -19992,11 +20072,11 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f>SUM(D12:H12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K12" s="1">
@@ -20033,11 +20113,11 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <f>SUM(D13:H13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K13" s="1">
@@ -20074,11 +20154,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <f>SUM(D14:H14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K14" s="1">
@@ -20115,11 +20195,11 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <f>SUM(D15:H15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" s="1">
@@ -20156,11 +20236,11 @@
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <f>SUM(D16:H16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16" s="1">
@@ -20197,11 +20277,11 @@
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <f>SUM(D17:H17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K17" s="1">
@@ -20238,11 +20318,11 @@
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <f>SUM(D18:H18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="1">
@@ -20279,11 +20359,11 @@
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f>SUM(D19:H19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K19" s="1">
@@ -20320,11 +20400,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <f>SUM(D20:H20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K20" s="1">
@@ -20361,11 +20441,11 @@
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <f>SUM(D21:H21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K21" s="1">
@@ -20402,11 +20482,11 @@
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <f>SUM(D22:H22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K22" s="1">
@@ -20443,11 +20523,11 @@
         <v>0</v>
       </c>
       <c r="I23" s="1">
-        <f>SUM(D23:H23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" s="1">
@@ -20484,11 +20564,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <f>SUM(D24:H24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24" s="1">
@@ -20525,11 +20605,11 @@
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <f>SUM(D25:H25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K25" s="1">
@@ -20566,11 +20646,11 @@
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <f>SUM(D26:H26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K26" s="1">
@@ -20607,11 +20687,11 @@
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <f>SUM(D27:H27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="1">
@@ -20648,11 +20728,11 @@
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <f>SUM(D28:H28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28" s="1">
@@ -20689,11 +20769,11 @@
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <f>SUM(D29:H29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29" s="1">
@@ -20730,11 +20810,11 @@
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <f>SUM(D30:H30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K30" s="1">
@@ -20771,11 +20851,11 @@
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <f>SUM(D31:H31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K31" s="1">
@@ -20812,11 +20892,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <f>SUM(D32:H32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K32" s="1">
@@ -20853,11 +20933,11 @@
         <v>0</v>
       </c>
       <c r="I33" s="1">
-        <f>SUM(D33:H33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K33" s="1">
@@ -20894,11 +20974,11 @@
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <f>SUM(D34:H34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K34" s="1">
@@ -20935,11 +21015,11 @@
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <f>SUM(D35:H35)</f>
+        <f t="shared" ref="I35:I66" si="2">SUM(D35:H35)</f>
         <v>0</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K35" s="1">
@@ -20976,11 +21056,11 @@
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <f>SUM(D36:H36)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K36" s="1">
@@ -21017,11 +21097,11 @@
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <f>SUM(D37:H37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K37" s="1">
@@ -21056,11 +21136,11 @@
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <f>SUM(D38:H38)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K38" s="1">
@@ -21097,11 +21177,11 @@
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <f>SUM(D39:H39)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K39" s="1">
@@ -21138,11 +21218,11 @@
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <f>SUM(D40:H40)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K40" s="1">
@@ -21175,11 +21255,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <f>SUM(D41:H41)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K41" s="1">
@@ -21212,11 +21292,11 @@
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <f>SUM(D42:H42)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K42" s="1">
@@ -21249,11 +21329,11 @@
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <f>SUM(D43:H43)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K43" s="1">
@@ -21285,11 +21365,11 @@
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <f>SUM(D44:H44)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K44" s="1">
@@ -21321,11 +21401,11 @@
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <f>SUM(D45:H45)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K45" s="1">
@@ -21357,11 +21437,11 @@
         <v>0</v>
       </c>
       <c r="I46" s="1">
-        <f>SUM(D46:H46)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K46" s="1">
@@ -21393,11 +21473,11 @@
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <f>SUM(D47:H47)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K47" s="1">
@@ -21429,11 +21509,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <f>SUM(D48:H48)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K48" s="1">
@@ -21465,11 +21545,11 @@
         <v>0</v>
       </c>
       <c r="I49" s="1">
-        <f>SUM(D49:H49)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K49" s="1">
@@ -21501,11 +21581,11 @@
         <v>0</v>
       </c>
       <c r="I50" s="1">
-        <f>SUM(D50:H50)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K50" s="1">
@@ -21537,11 +21617,11 @@
         <v>0</v>
       </c>
       <c r="I51" s="1">
-        <f>SUM(D51:H51)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K51" s="1">
@@ -21573,11 +21653,11 @@
         <v>0</v>
       </c>
       <c r="I52" s="1">
-        <f>SUM(D52:H52)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K52" s="1">

--- a/assets/results.xlsx
+++ b/assets/results.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shani\Documents\GitHub\marks\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E954AC-D1A5-4471-B706-29554F1A5171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC576CB9-A7D1-4137-BBC5-421E20CD69B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1-A" sheetId="5" r:id="rId1"/>
-    <sheet name="1-B" sheetId="4" r:id="rId2"/>
-    <sheet name="2-B" sheetId="2" r:id="rId3"/>
-    <sheet name="2-A" sheetId="6" r:id="rId4"/>
-    <sheet name="3-A" sheetId="8" r:id="rId5"/>
-    <sheet name="4-A" sheetId="10" r:id="rId6"/>
-    <sheet name="5-A" sheetId="11" r:id="rId7"/>
+    <sheet name="Tasks" sheetId="12" r:id="rId1"/>
+    <sheet name="1-A" sheetId="5" r:id="rId2"/>
+    <sheet name="1-B" sheetId="4" r:id="rId3"/>
+    <sheet name="2-B" sheetId="2" r:id="rId4"/>
+    <sheet name="2-A" sheetId="6" r:id="rId5"/>
+    <sheet name="3-A" sheetId="8" r:id="rId6"/>
+    <sheet name="4-A" sheetId="10" r:id="rId7"/>
+    <sheet name="5-A" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'1-A'!$A$1:$S$49</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'1-B'!$A$1:$S$49</definedName>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'2-A'!$A$1:$Q$48</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'2-B'!$A$1:$Q$48</definedName>
-    <definedName name="ExternalData_1" localSheetId="4" hidden="1">'3-A'!$A$1:$R$49</definedName>
-    <definedName name="ExternalData_1" localSheetId="5" hidden="1">'4-A'!$A$1:$Q$49</definedName>
-    <definedName name="ExternalData_1" localSheetId="6" hidden="1">'5-A'!$A$1:$N$49</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'1-A'!$A$1:$S$49</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'1-B'!$A$1:$S$49</definedName>
+    <definedName name="ExternalData_1" localSheetId="4" hidden="1">'2-A'!$A$1:$Q$48</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'2-B'!$A$1:$Q$48</definedName>
+    <definedName name="ExternalData_1" localSheetId="5" hidden="1">'3-A'!$A$1:$R$49</definedName>
+    <definedName name="ExternalData_1" localSheetId="6" hidden="1">'4-A'!$A$1:$Q$49</definedName>
+    <definedName name="ExternalData_1" localSheetId="7" hidden="1">'5-A'!$A$1:$N$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="716">
   <si>
     <t>Sr.
 No.</t>
@@ -3474,12 +3475,66 @@
   <si>
     <t>NC</t>
   </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>DueTime</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>DLD Assignment</t>
+  </si>
+  <si>
+    <t>10:00 AM</t>
+  </si>
+  <si>
+    <t>DSA Quiz</t>
+  </si>
+  <si>
+    <t>3:00 PM</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Moj</t>
+  </si>
+  <si>
+    <t>5:00 PM</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>6:00 PM</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>DBMS</t>
+  </si>
+  <si>
+    <t>11:00 AM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3567,6 +3622,14 @@
       <name val="Calibri"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3587,7 +3650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -3667,12 +3730,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3762,6 +3840,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4358,6 +4439,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB064459-7FDF-49DE-B1B0-3412F3559817}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="36" t="s">
+        <v>698</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>699</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>700</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C2" t="s">
+        <v>704</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B3" t="s">
+        <v>705</v>
+      </c>
+      <c r="C3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>707</v>
+      </c>
+      <c r="B4" t="s">
+        <v>708</v>
+      </c>
+      <c r="C4" t="s">
+        <v>709</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>710</v>
+      </c>
+      <c r="B5" t="s">
+        <v>711</v>
+      </c>
+      <c r="C5" t="s">
+        <v>712</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>713</v>
+      </c>
+      <c r="B6" t="s">
+        <v>714</v>
+      </c>
+      <c r="C6" t="s">
+        <v>715</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S53"/>
   <sheetViews>
@@ -7395,7 +7575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S53"/>
   <sheetViews>
@@ -10455,11 +10635,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
@@ -12530,7 +12710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
@@ -14269,7 +14449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5834A66E-334C-449D-AABB-C0C415CA0205}">
   <dimension ref="A1:R53"/>
   <sheetViews>
@@ -17012,7 +17192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803F4826-4A19-4F62-A95E-4C338E150906}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
@@ -18745,7 +18925,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" ref="L35:L66" si="2">SUM(D35:K35)</f>
+        <f t="shared" ref="L35:L52" si="2">SUM(D35:K35)</f>
         <v>0</v>
       </c>
       <c r="M35" s="1">
@@ -19595,7 +19775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966D0E07-A926-4F79-8F5C-8B146AB38A9D}">
   <dimension ref="A1:N52"/>
   <sheetViews>
@@ -21015,7 +21195,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" ref="I35:I66" si="2">SUM(D35:H35)</f>
+        <f t="shared" ref="I35:I52" si="2">SUM(D35:H35)</f>
         <v>0</v>
       </c>
       <c r="J35" s="1">

--- a/assets/results.xlsx
+++ b/assets/results.xlsx
@@ -8,28 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shani\Documents\GitHub\marks\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC576CB9-A7D1-4137-BBC5-421E20CD69B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E954AC-D1A5-4471-B706-29554F1A5171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tasks" sheetId="12" r:id="rId1"/>
-    <sheet name="1-A" sheetId="5" r:id="rId2"/>
-    <sheet name="1-B" sheetId="4" r:id="rId3"/>
-    <sheet name="2-B" sheetId="2" r:id="rId4"/>
-    <sheet name="2-A" sheetId="6" r:id="rId5"/>
-    <sheet name="3-A" sheetId="8" r:id="rId6"/>
-    <sheet name="4-A" sheetId="10" r:id="rId7"/>
-    <sheet name="5-A" sheetId="11" r:id="rId8"/>
+    <sheet name="1-A" sheetId="5" r:id="rId1"/>
+    <sheet name="1-B" sheetId="4" r:id="rId2"/>
+    <sheet name="2-B" sheetId="2" r:id="rId3"/>
+    <sheet name="2-A" sheetId="6" r:id="rId4"/>
+    <sheet name="3-A" sheetId="8" r:id="rId5"/>
+    <sheet name="4-A" sheetId="10" r:id="rId6"/>
+    <sheet name="5-A" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'1-A'!$A$1:$S$49</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'1-B'!$A$1:$S$49</definedName>
-    <definedName name="ExternalData_1" localSheetId="4" hidden="1">'2-A'!$A$1:$Q$48</definedName>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'2-B'!$A$1:$Q$48</definedName>
-    <definedName name="ExternalData_1" localSheetId="5" hidden="1">'3-A'!$A$1:$R$49</definedName>
-    <definedName name="ExternalData_1" localSheetId="6" hidden="1">'4-A'!$A$1:$Q$49</definedName>
-    <definedName name="ExternalData_1" localSheetId="7" hidden="1">'5-A'!$A$1:$N$49</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'1-A'!$A$1:$S$49</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'1-B'!$A$1:$S$49</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'2-A'!$A$1:$Q$48</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'2-B'!$A$1:$Q$48</definedName>
+    <definedName name="ExternalData_1" localSheetId="4" hidden="1">'3-A'!$A$1:$R$49</definedName>
+    <definedName name="ExternalData_1" localSheetId="5" hidden="1">'4-A'!$A$1:$Q$49</definedName>
+    <definedName name="ExternalData_1" localSheetId="6" hidden="1">'5-A'!$A$1:$N$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="698">
   <si>
     <t>Sr.
 No.</t>
@@ -3475,66 +3474,12 @@
   <si>
     <t>NC</t>
   </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>DueTime</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>DLD Assignment</t>
-  </si>
-  <si>
-    <t>10:00 AM</t>
-  </si>
-  <si>
-    <t>DSA Quiz</t>
-  </si>
-  <si>
-    <t>3:00 PM</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Moj</t>
-  </si>
-  <si>
-    <t>5:00 PM</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Free</t>
-  </si>
-  <si>
-    <t>6:00 PM</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>DBMS</t>
-  </si>
-  <si>
-    <t>11:00 AM</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3622,14 +3567,6 @@
       <name val="Calibri"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3650,7 +3587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3730,27 +3667,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3840,9 +3762,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4439,105 +4358,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB064459-7FDF-49DE-B1B0-3412F3559817}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="36" t="s">
-        <v>698</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>699</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>700</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>702</v>
-      </c>
-      <c r="B2" t="s">
-        <v>703</v>
-      </c>
-      <c r="C2" t="s">
-        <v>704</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>702</v>
-      </c>
-      <c r="B3" t="s">
-        <v>705</v>
-      </c>
-      <c r="C3" t="s">
-        <v>706</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>707</v>
-      </c>
-      <c r="B4" t="s">
-        <v>708</v>
-      </c>
-      <c r="C4" t="s">
-        <v>709</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>710</v>
-      </c>
-      <c r="B5" t="s">
-        <v>711</v>
-      </c>
-      <c r="C5" t="s">
-        <v>712</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>713</v>
-      </c>
-      <c r="B6" t="s">
-        <v>714</v>
-      </c>
-      <c r="C6" t="s">
-        <v>715</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S53"/>
   <sheetViews>
@@ -7575,7 +7395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S53"/>
   <sheetViews>
@@ -10635,11 +10455,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
@@ -12710,7 +12530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
@@ -14449,7 +14269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5834A66E-334C-449D-AABB-C0C415CA0205}">
   <dimension ref="A1:R53"/>
   <sheetViews>
@@ -17192,7 +17012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803F4826-4A19-4F62-A95E-4C338E150906}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
@@ -18925,7 +18745,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" ref="L35:L52" si="2">SUM(D35:K35)</f>
+        <f t="shared" ref="L35:L66" si="2">SUM(D35:K35)</f>
         <v>0</v>
       </c>
       <c r="M35" s="1">
@@ -19775,7 +19595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966D0E07-A926-4F79-8F5C-8B146AB38A9D}">
   <dimension ref="A1:N52"/>
   <sheetViews>
@@ -21195,7 +21015,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" ref="I35:I52" si="2">SUM(D35:H35)</f>
+        <f t="shared" ref="I35:I66" si="2">SUM(D35:H35)</f>
         <v>0</v>
       </c>
       <c r="J35" s="1">

--- a/assets/results.xlsx
+++ b/assets/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shani\Documents\GitHub\marks\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E954AC-D1A5-4471-B706-29554F1A5171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D144FBC4-061F-4756-8EFD-F388BFA4B732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="699">
   <si>
     <t>Sr.
 No.</t>
@@ -3473,6 +3473,9 @@
   </si>
   <si>
     <t>NC</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -10459,8 +10462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11020,7 +11023,9 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>698</v>
+      </c>
       <c r="H12" s="8">
         <v>79</v>
       </c>
@@ -11067,7 +11072,9 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>698</v>
+      </c>
       <c r="H13" s="8">
         <v>71</v>
       </c>
@@ -11161,7 +11168,9 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>698</v>
+      </c>
       <c r="H15" s="8">
         <v>77</v>
       </c>
@@ -11255,7 +11264,9 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>698</v>
+      </c>
       <c r="H17" s="8">
         <v>68</v>
       </c>
@@ -11349,7 +11360,9 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>698</v>
+      </c>
       <c r="H19" s="8">
         <v>71</v>
       </c>
@@ -18745,7 +18758,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" ref="L35:L66" si="2">SUM(D35:K35)</f>
+        <f t="shared" ref="L35:L52" si="2">SUM(D35:K35)</f>
         <v>0</v>
       </c>
       <c r="M35" s="1">
@@ -21015,7 +21028,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" ref="I35:I66" si="2">SUM(D35:H35)</f>
+        <f t="shared" ref="I35:I52" si="2">SUM(D35:H35)</f>
         <v>0</v>
       </c>
       <c r="J35" s="1">

--- a/assets/results.xlsx
+++ b/assets/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shani\Documents\GitHub\marks\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D144FBC4-061F-4756-8EFD-F388BFA4B732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3C89BB-D42A-4966-BA8A-FBA1CE29C436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="700">
   <si>
     <t>Sr.
 No.</t>
@@ -3476,6 +3476,9 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -10462,8 +10465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10553,7 +10556,9 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H2" s="8">
         <v>67</v>
       </c>
@@ -10600,7 +10605,9 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H3" s="8">
         <v>63</v>
       </c>
@@ -10647,7 +10654,9 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H4" s="8">
         <v>68</v>
       </c>
@@ -10694,7 +10703,9 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H5" s="8">
         <v>74</v>
       </c>
@@ -10741,7 +10752,9 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H6" s="8">
         <v>85</v>
       </c>
@@ -10788,7 +10801,9 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H7" s="8">
         <v>57</v>
       </c>
@@ -10835,7 +10850,9 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H8" s="8">
         <v>85</v>
       </c>
@@ -10882,7 +10899,9 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H9" s="8">
         <v>79</v>
       </c>
@@ -10929,7 +10948,9 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H10" s="8">
         <v>0</v>
       </c>
@@ -10976,7 +10997,9 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H11" s="8">
         <v>70</v>
       </c>
@@ -11121,7 +11144,9 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H14" s="8">
         <v>80</v>
       </c>
@@ -11217,7 +11242,9 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H16" s="8">
         <v>70</v>
       </c>
@@ -11313,7 +11340,9 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H18" s="8">
         <v>86</v>
       </c>
@@ -11409,7 +11438,9 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H20" s="8">
         <v>61</v>
       </c>
@@ -11456,7 +11487,9 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H21" s="8">
         <v>65</v>
       </c>
@@ -11503,7 +11536,9 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H22" s="8">
         <v>75</v>
       </c>
@@ -11550,7 +11585,9 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H23" s="8">
         <v>77</v>
       </c>
@@ -11597,7 +11634,9 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H24" s="8">
         <v>80</v>
       </c>
@@ -11644,7 +11683,9 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H25" s="8">
         <v>64</v>
       </c>
@@ -11691,7 +11732,9 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H26" s="8">
         <v>74</v>
       </c>
@@ -11738,7 +11781,9 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H27" s="8">
         <v>66</v>
       </c>
@@ -11785,7 +11830,9 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H28" s="8">
         <v>75</v>
       </c>
@@ -11832,7 +11879,9 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H29" s="8">
         <v>65</v>
       </c>
@@ -11879,7 +11928,9 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H30" s="8">
         <v>65</v>
       </c>
@@ -11926,7 +11977,9 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H31" s="8">
         <v>67</v>
       </c>
@@ -11973,7 +12026,9 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H32" s="8">
         <v>79</v>
       </c>
@@ -12020,7 +12075,9 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H33" s="8">
         <v>83</v>
       </c>
@@ -12067,7 +12124,9 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H34" s="8">
         <v>68</v>
       </c>
@@ -12114,7 +12173,9 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H35" s="8">
         <v>77</v>
       </c>
@@ -12161,7 +12222,9 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H36" s="8">
         <v>65</v>
       </c>
@@ -12208,7 +12271,9 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H37" s="8">
         <v>69</v>
       </c>
@@ -12255,7 +12320,9 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H38" s="8">
         <v>84</v>
       </c>
@@ -12302,7 +12369,9 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H39" s="8">
         <v>77</v>
       </c>
@@ -12349,7 +12418,9 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H40" s="8">
         <v>68</v>
       </c>
@@ -12396,7 +12467,9 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H41" s="8">
         <v>74</v>
       </c>

--- a/assets/results.xlsx
+++ b/assets/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shani\Documents\GitHub\marks\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3C89BB-D42A-4966-BA8A-FBA1CE29C436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEA7075-58C8-4A3C-8D07-C0CA38300A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="700">
   <si>
     <t>Sr.
 No.</t>
@@ -10465,8 +10465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:G41"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10585,9 +10585,7 @@
       <c r="O2" s="1">
         <v>0</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P2" s="1"/>
       <c r="Q2" s="8" t="s">
         <v>101</v>
       </c>
@@ -10634,9 +10632,7 @@
       <c r="O3" s="1">
         <v>0</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P3" s="1"/>
       <c r="Q3" s="8" t="s">
         <v>102</v>
       </c>
@@ -10683,9 +10679,7 @@
       <c r="O4" s="1">
         <v>0</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P4" s="1"/>
       <c r="Q4" s="8" t="s">
         <v>103</v>
       </c>
@@ -10732,9 +10726,7 @@
       <c r="O5" s="1">
         <v>0</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P5" s="1"/>
       <c r="Q5" s="8" t="s">
         <v>104</v>
       </c>
@@ -10781,9 +10773,7 @@
       <c r="O6" s="1">
         <v>0</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P6" s="1"/>
       <c r="Q6" s="8" t="s">
         <v>20</v>
       </c>
@@ -10830,9 +10820,7 @@
       <c r="O7" s="1">
         <v>0</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P7" s="1"/>
       <c r="Q7" s="8" t="s">
         <v>105</v>
       </c>
@@ -10879,9 +10867,7 @@
       <c r="O8" s="1">
         <v>0</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P8" s="1"/>
       <c r="Q8" s="8" t="s">
         <v>106</v>
       </c>
@@ -10928,9 +10914,7 @@
       <c r="O9" s="1">
         <v>0</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P9" s="1"/>
       <c r="Q9" s="8" t="s">
         <v>107</v>
       </c>
@@ -10977,9 +10961,7 @@
       <c r="O10" s="1">
         <v>0</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P10" s="1"/>
       <c r="Q10" s="8" t="s">
         <v>108</v>
       </c>
@@ -11026,9 +11008,7 @@
       <c r="O11" s="1">
         <v>0</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P11" s="1"/>
       <c r="Q11" s="8" t="s">
         <v>109</v>
       </c>
@@ -11075,9 +11055,7 @@
       <c r="O12" s="1">
         <v>0</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P12" s="1"/>
       <c r="Q12" s="8" t="s">
         <v>110</v>
       </c>
@@ -11124,9 +11102,7 @@
       <c r="O13" s="1">
         <v>0</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P13" s="1"/>
       <c r="Q13" s="8" t="s">
         <v>111</v>
       </c>
@@ -11173,9 +11149,7 @@
       <c r="O14" s="1">
         <v>0</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P14" s="1"/>
       <c r="Q14" s="8" t="s">
         <v>112</v>
       </c>
@@ -11222,9 +11196,7 @@
       <c r="O15" s="1">
         <v>0</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P15" s="1"/>
       <c r="Q15" s="8" t="s">
         <v>113</v>
       </c>
@@ -11271,9 +11243,7 @@
       <c r="O16" s="1">
         <v>0</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P16" s="1"/>
       <c r="Q16" s="8" t="s">
         <v>114</v>
       </c>
@@ -11320,9 +11290,7 @@
       <c r="O17" s="1">
         <v>0</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P17" s="1"/>
       <c r="Q17" s="8" t="s">
         <v>115</v>
       </c>
@@ -11369,9 +11337,7 @@
       <c r="O18" s="1">
         <v>0</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P18" s="1"/>
       <c r="Q18" s="8" t="s">
         <v>116</v>
       </c>
@@ -11418,9 +11384,7 @@
       <c r="O19" s="1">
         <v>0</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P19" s="1"/>
       <c r="Q19" s="8" t="s">
         <v>117</v>
       </c>
@@ -11467,9 +11431,7 @@
       <c r="O20" s="1">
         <v>0</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P20" s="1"/>
       <c r="Q20" s="8" t="s">
         <v>118</v>
       </c>
@@ -11516,9 +11478,7 @@
       <c r="O21" s="1">
         <v>0</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P21" s="1"/>
       <c r="Q21" s="8" t="s">
         <v>119</v>
       </c>
@@ -11565,9 +11525,7 @@
       <c r="O22" s="1">
         <v>0</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P22" s="1"/>
       <c r="Q22" s="8" t="s">
         <v>120</v>
       </c>
@@ -11614,9 +11572,7 @@
       <c r="O23" s="1">
         <v>0</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P23" s="1"/>
       <c r="Q23" s="8" t="s">
         <v>121</v>
       </c>
@@ -11663,9 +11619,7 @@
       <c r="O24" s="1">
         <v>0</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="P24" s="1"/>
       <c r="Q24" s="8" t="s">
         <v>122</v>
       </c>
@@ -11712,9 +11666,7 @@
       <c r="O25" s="1">
         <v>0</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P25" s="1"/>
       <c r="Q25" s="8" t="s">
         <v>123</v>
       </c>
@@ -11761,9 +11713,7 @@
       <c r="O26" s="1">
         <v>0</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="P26" s="1"/>
       <c r="Q26" s="8" t="s">
         <v>124</v>
       </c>
@@ -11810,9 +11760,7 @@
       <c r="O27" s="1">
         <v>0</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P27" s="1"/>
       <c r="Q27" s="8" t="s">
         <v>125</v>
       </c>
@@ -11859,9 +11807,7 @@
       <c r="O28" s="1">
         <v>0</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P28" s="1"/>
       <c r="Q28" s="8" t="s">
         <v>126</v>
       </c>
@@ -11908,9 +11854,7 @@
       <c r="O29" s="1">
         <v>0</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="P29" s="1"/>
       <c r="Q29" s="8" t="s">
         <v>127</v>
       </c>
@@ -11957,9 +11901,7 @@
       <c r="O30" s="1">
         <v>0</v>
       </c>
-      <c r="P30" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P30" s="1"/>
       <c r="Q30" s="8" t="s">
         <v>100</v>
       </c>
@@ -12006,9 +11948,7 @@
       <c r="O31" s="1">
         <v>0</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P31" s="1"/>
       <c r="Q31" s="8" t="s">
         <v>128</v>
       </c>
@@ -12055,9 +11995,7 @@
       <c r="O32" s="1">
         <v>0</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P32" s="1"/>
       <c r="Q32" s="8" t="s">
         <v>129</v>
       </c>
@@ -12104,9 +12042,7 @@
       <c r="O33" s="1">
         <v>0</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P33" s="1"/>
       <c r="Q33" s="8" t="s">
         <v>130</v>
       </c>
@@ -12153,9 +12089,7 @@
       <c r="O34" s="1">
         <v>0</v>
       </c>
-      <c r="P34" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P34" s="1"/>
       <c r="Q34" s="8" t="s">
         <v>131</v>
       </c>
@@ -12202,9 +12136,7 @@
       <c r="O35" s="1">
         <v>0</v>
       </c>
-      <c r="P35" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P35" s="1"/>
       <c r="Q35" s="8" t="s">
         <v>132</v>
       </c>
@@ -12251,9 +12183,7 @@
       <c r="O36" s="1">
         <v>0</v>
       </c>
-      <c r="P36" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P36" s="1"/>
       <c r="Q36" s="8" t="s">
         <v>133</v>
       </c>
@@ -12300,9 +12230,7 @@
       <c r="O37" s="1">
         <v>0</v>
       </c>
-      <c r="P37" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P37" s="1"/>
       <c r="Q37" s="8" t="s">
         <v>134</v>
       </c>
@@ -12349,9 +12277,7 @@
       <c r="O38" s="1">
         <v>0</v>
       </c>
-      <c r="P38" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P38" s="1"/>
       <c r="Q38" s="8" t="s">
         <v>135</v>
       </c>
@@ -12398,9 +12324,7 @@
       <c r="O39" s="1">
         <v>0</v>
       </c>
-      <c r="P39" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P39" s="1"/>
       <c r="Q39" s="8" t="s">
         <v>136</v>
       </c>
@@ -12447,9 +12371,7 @@
       <c r="O40" s="1">
         <v>0</v>
       </c>
-      <c r="P40" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P40" s="1"/>
       <c r="Q40" s="8" t="s">
         <v>137</v>
       </c>
@@ -12496,9 +12418,7 @@
       <c r="O41" s="1">
         <v>0</v>
       </c>
-      <c r="P41" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P41" s="1"/>
       <c r="Q41" s="8" t="s">
         <v>138</v>
       </c>

--- a/assets/results.xlsx
+++ b/assets/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shani\Documents\GitHub\marks\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEA7075-58C8-4A3C-8D07-C0CA38300A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2633FD1E-819E-4C7F-8B5F-578B0EE2F0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="699">
   <si>
     <t>Sr.
 No.</t>
@@ -3475,17 +3475,17 @@
     <t>NC</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>nil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3573,8 +3573,36 @@
       <name val="Calibri"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3590,6 +3618,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -3678,7 +3711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3768,6 +3801,27 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10465,8 +10519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P47"/>
+    <sheetView tabSelected="1" topLeftCell="H29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10543,7 +10597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5">
+    <row r="2" spans="1:17" ht="15.75">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -10553,44 +10607,47 @@
       <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H2" s="8">
+      <c r="D2" s="36"/>
+      <c r="E2" s="39">
+        <v>50</v>
+      </c>
+      <c r="F2" s="39">
+        <v>57</v>
+      </c>
+      <c r="G2" s="42">
+        <v>53</v>
+      </c>
+      <c r="H2" s="39">
         <v>67</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="39">
         <v>65</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="39">
         <v>75</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="39">
         <v>66</v>
       </c>
       <c r="L2" s="1">
         <f>SUM(D2:K2)</f>
-        <v>273</v>
+        <v>433</v>
       </c>
       <c r="M2" s="1">
-        <f>(L2/700)*100</f>
-        <v>39</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5">
+    <row r="3" spans="1:17" ht="15.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -10600,44 +10657,49 @@
       <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="D3" s="37">
+        <v>70</v>
+      </c>
+      <c r="E3" s="40">
+        <v>40</v>
+      </c>
+      <c r="F3" s="41">
+        <v>65</v>
+      </c>
+      <c r="G3" s="37">
+        <v>60</v>
+      </c>
+      <c r="H3" s="41">
         <v>63</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="41">
         <v>50</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="41">
         <v>75</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="41">
         <v>60</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L41" si="0">SUM(D3:K3)</f>
-        <v>248</v>
+        <v>483</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M41" si="1">(L3/700)*100</f>
-        <v>35.428571428571423</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5">
+    <row r="4" spans="1:17" ht="15.75">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -10647,44 +10709,47 @@
       <c r="C4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="D4" s="25"/>
+      <c r="E4" s="41">
+        <v>51</v>
+      </c>
+      <c r="F4" s="41">
+        <v>60</v>
+      </c>
+      <c r="G4" s="37">
+        <v>58</v>
+      </c>
+      <c r="H4" s="41">
         <v>68</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="41">
         <v>60</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="41">
         <v>85</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="41">
         <v>72</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="0"/>
-        <v>285</v>
+        <v>454</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="1"/>
-        <v>40.714285714285715</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5">
+    <row r="5" spans="1:17" ht="15.75">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -10694,44 +10759,47 @@
       <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="D5" s="25"/>
+      <c r="E5" s="41">
+        <v>62</v>
+      </c>
+      <c r="F5" s="41">
+        <v>67</v>
+      </c>
+      <c r="G5" s="37">
+        <v>62</v>
+      </c>
+      <c r="H5" s="41">
         <v>74</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="41">
         <v>71</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="41">
         <v>95</v>
       </c>
-      <c r="K5" s="1">
-        <v>76</v>
+      <c r="K5" s="41">
+        <v>78</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>316</v>
+        <v>509</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="1"/>
-        <v>45.142857142857139</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5">
+    <row r="6" spans="1:17" ht="15.75">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -10741,44 +10809,47 @@
       <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="D6" s="25"/>
+      <c r="E6" s="41">
+        <v>80</v>
+      </c>
+      <c r="F6" s="41">
+        <v>96</v>
+      </c>
+      <c r="G6" s="37">
+        <v>86</v>
+      </c>
+      <c r="H6" s="41">
         <v>85</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="41">
         <v>89</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="41">
         <v>98</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="41">
         <v>97</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
-        <v>369</v>
+        <v>631</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="1"/>
-        <v>52.714285714285715</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5">
+    <row r="7" spans="1:17" ht="15.75">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -10788,44 +10859,47 @@
       <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="D7" s="25"/>
+      <c r="E7" s="41">
+        <v>55</v>
+      </c>
+      <c r="F7" s="41">
+        <v>70</v>
+      </c>
+      <c r="G7" s="37">
+        <v>60</v>
+      </c>
+      <c r="H7" s="41">
         <v>57</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="41">
         <v>61</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="41">
         <v>89</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="41">
         <v>54</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
-        <v>261</v>
+        <v>446</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="1"/>
-        <v>37.285714285714285</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5">
+    <row r="8" spans="1:17" ht="15.75">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -10835,44 +10909,49 @@
       <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="D8" s="37">
+        <v>63</v>
+      </c>
+      <c r="E8" s="41">
+        <v>65</v>
+      </c>
+      <c r="F8" s="41">
+        <v>81</v>
+      </c>
+      <c r="G8" s="37">
+        <v>60</v>
+      </c>
+      <c r="H8" s="41">
         <v>85</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="41">
         <v>80</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="41">
         <v>95</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="41">
         <v>89</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>618</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="1"/>
-        <v>49.857142857142854</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5">
+    <row r="9" spans="1:17" ht="15.75">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -10882,44 +10961,47 @@
       <c r="C9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="D9" s="25"/>
+      <c r="E9" s="41">
+        <v>50</v>
+      </c>
+      <c r="F9" s="41">
+        <v>70</v>
+      </c>
+      <c r="G9" s="37">
+        <v>57</v>
+      </c>
+      <c r="H9" s="41">
         <v>79</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="41">
         <v>55</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="41">
         <v>88</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="41">
         <v>73</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
-        <v>295</v>
+        <v>472</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="1"/>
-        <v>42.142857142857146</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5">
+    <row r="10" spans="1:17" ht="15.75">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -10929,44 +11011,49 @@
       <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
+      <c r="D10" s="38">
+        <v>34</v>
+      </c>
+      <c r="E10" s="40">
+        <v>18</v>
+      </c>
+      <c r="F10" s="40">
+        <v>12</v>
+      </c>
+      <c r="G10" s="38">
+        <v>8</v>
+      </c>
+      <c r="H10" s="40">
+        <v>21</v>
+      </c>
+      <c r="I10" s="40">
         <v>25</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="40">
         <v>2</v>
       </c>
-      <c r="K10" s="1">
-        <v>0</v>
+      <c r="K10" s="40">
+        <v>18</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="1"/>
-        <v>3.8571428571428568</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5">
+    <row r="11" spans="1:17" ht="15.75">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -10976,44 +11063,49 @@
       <c r="C11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="D11" s="37">
+        <v>73</v>
+      </c>
+      <c r="E11" s="41">
+        <v>53</v>
+      </c>
+      <c r="F11" s="41">
+        <v>66</v>
+      </c>
+      <c r="G11" s="37">
+        <v>53</v>
+      </c>
+      <c r="H11" s="41">
         <v>70</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="41">
         <v>65</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="41">
         <v>77</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="41">
         <v>82</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>294</v>
+        <v>539</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5">
+    <row r="12" spans="1:17" ht="15.75">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -11023,44 +11115,49 @@
       <c r="C12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
+      <c r="D12" s="37">
+        <v>52</v>
+      </c>
+      <c r="E12" s="40">
+        <v>42</v>
+      </c>
+      <c r="F12" s="41">
+        <v>60</v>
+      </c>
+      <c r="G12" s="38">
+        <v>41</v>
+      </c>
+      <c r="H12" s="41">
+        <v>79</v>
+      </c>
+      <c r="I12" s="41">
+        <v>58</v>
+      </c>
+      <c r="J12" s="41">
+        <v>50</v>
+      </c>
+      <c r="K12" s="41">
+        <v>80</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>462</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="H12" s="8">
-        <v>79</v>
-      </c>
-      <c r="I12" s="9">
-        <v>58</v>
-      </c>
-      <c r="J12" s="1">
-        <v>50</v>
-      </c>
-      <c r="K12" s="1">
-        <v>80</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" si="0"/>
-        <v>267</v>
-      </c>
-      <c r="M12" s="1">
-        <f t="shared" si="1"/>
-        <v>38.142857142857146</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
+      <c r="O12" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5">
+    <row r="13" spans="1:17" ht="15.75">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -11070,44 +11167,47 @@
       <c r="C13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="40">
+        <v>29</v>
+      </c>
+      <c r="F13" s="41">
+        <v>60</v>
+      </c>
+      <c r="G13" s="38">
+        <v>35</v>
+      </c>
+      <c r="H13" s="41">
+        <v>71</v>
+      </c>
+      <c r="I13" s="41">
+        <v>53</v>
+      </c>
+      <c r="J13" s="41">
+        <v>66</v>
+      </c>
+      <c r="K13" s="41">
+        <v>71</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>385</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="H13" s="8">
-        <v>71</v>
-      </c>
-      <c r="I13" s="9">
-        <v>53</v>
-      </c>
-      <c r="J13" s="1">
-        <v>66</v>
-      </c>
-      <c r="K13" s="1">
-        <v>71</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" si="0"/>
-        <v>261</v>
-      </c>
-      <c r="M13" s="1">
-        <f t="shared" si="1"/>
-        <v>37.285714285714285</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
+      <c r="O13" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5">
+    <row r="14" spans="1:17" ht="15.75">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -11117,44 +11217,49 @@
       <c r="C14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="D14" s="37">
+        <v>70</v>
+      </c>
+      <c r="E14" s="40">
+        <v>35</v>
+      </c>
+      <c r="F14" s="41">
+        <v>66</v>
+      </c>
+      <c r="G14" s="37">
+        <v>65</v>
+      </c>
+      <c r="H14" s="41">
         <v>80</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="41">
         <v>62</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="41">
         <v>65</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="41">
         <v>77</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="0"/>
-        <v>284</v>
+        <v>520</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="1"/>
-        <v>40.571428571428569</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16.5">
+    <row r="15" spans="1:17" ht="15.75">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -11164,44 +11269,49 @@
       <c r="C15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
+      <c r="D15" s="37">
+        <v>62</v>
+      </c>
+      <c r="E15" s="40">
+        <v>32</v>
+      </c>
+      <c r="F15" s="41">
+        <v>65</v>
+      </c>
+      <c r="G15" s="38">
+        <v>41</v>
+      </c>
+      <c r="H15" s="41">
+        <v>77</v>
+      </c>
+      <c r="I15" s="41">
+        <v>55</v>
+      </c>
+      <c r="J15" s="41">
+        <v>65</v>
+      </c>
+      <c r="K15" s="41">
+        <v>77</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>474</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="H15" s="8">
-        <v>77</v>
-      </c>
-      <c r="I15" s="9">
-        <v>55</v>
-      </c>
-      <c r="J15" s="1">
-        <v>65</v>
-      </c>
-      <c r="K15" s="1">
-        <v>77</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="0"/>
-        <v>274</v>
-      </c>
-      <c r="M15" s="1">
-        <f t="shared" si="1"/>
-        <v>39.142857142857139</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
+      <c r="O15" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16.5">
+    <row r="16" spans="1:17" ht="15.75">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -11211,44 +11321,47 @@
       <c r="C16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H16" s="8">
+      <c r="D16" s="25"/>
+      <c r="E16" s="41">
+        <v>53</v>
+      </c>
+      <c r="F16" s="41">
+        <v>60</v>
+      </c>
+      <c r="G16" s="37">
+        <v>53</v>
+      </c>
+      <c r="H16" s="41">
         <v>70</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="41">
         <v>62</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="41">
         <v>80</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="41">
         <v>80</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>458</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="1"/>
-        <v>41.714285714285715</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="16.5">
+    <row r="17" spans="1:17" ht="15.75">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -11258,44 +11371,49 @@
       <c r="C17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
+      <c r="D17" s="37">
+        <v>80</v>
+      </c>
+      <c r="E17" s="41">
+        <v>53</v>
+      </c>
+      <c r="F17" s="41">
+        <v>58</v>
+      </c>
+      <c r="G17" s="38">
+        <v>44</v>
+      </c>
+      <c r="H17" s="41">
+        <v>68</v>
+      </c>
+      <c r="I17" s="41">
+        <v>72</v>
+      </c>
+      <c r="J17" s="41">
+        <v>73</v>
+      </c>
+      <c r="K17" s="41">
+        <v>85</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="0"/>
+        <v>533</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="H17" s="8">
-        <v>68</v>
-      </c>
-      <c r="I17" s="9">
-        <v>72</v>
-      </c>
-      <c r="J17" s="1">
-        <v>73</v>
-      </c>
-      <c r="K17" s="1">
-        <v>85</v>
-      </c>
-      <c r="L17" s="1">
-        <f t="shared" si="0"/>
-        <v>298</v>
-      </c>
-      <c r="M17" s="1">
-        <f t="shared" si="1"/>
-        <v>42.571428571428569</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
+      <c r="O17" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="16.5">
+    <row r="18" spans="1:17" ht="15.75">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -11305,44 +11423,47 @@
       <c r="C18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H18" s="8">
-        <v>86</v>
-      </c>
-      <c r="I18" s="9">
+      <c r="D18" s="25"/>
+      <c r="E18" s="41">
+        <v>50</v>
+      </c>
+      <c r="F18" s="41">
+        <v>72</v>
+      </c>
+      <c r="G18" s="37">
         <v>70</v>
       </c>
-      <c r="J18" s="1">
+      <c r="H18" s="41">
+        <v>85</v>
+      </c>
+      <c r="I18" s="41">
+        <v>70</v>
+      </c>
+      <c r="J18" s="41">
         <v>80</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="41">
         <v>87</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="0"/>
-        <v>323</v>
+        <v>514</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="1"/>
-        <v>46.142857142857139</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="16.5">
+    <row r="19" spans="1:17" ht="15.75">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -11352,44 +11473,47 @@
       <c r="C19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="41">
+        <v>51</v>
+      </c>
+      <c r="F19" s="41">
+        <v>70</v>
+      </c>
+      <c r="G19" s="37">
+        <v>55</v>
+      </c>
+      <c r="H19" s="41">
+        <v>71</v>
+      </c>
+      <c r="I19" s="41">
+        <v>60</v>
+      </c>
+      <c r="J19" s="41">
+        <v>67</v>
+      </c>
+      <c r="K19" s="41">
+        <v>82</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>456</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="H19" s="8">
-        <v>71</v>
-      </c>
-      <c r="I19" s="9">
-        <v>60</v>
-      </c>
-      <c r="J19" s="1">
-        <v>67</v>
-      </c>
-      <c r="K19" s="1">
-        <v>82</v>
-      </c>
-      <c r="L19" s="1">
-        <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-      <c r="M19" s="1">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0</v>
+      <c r="O19" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="16.5">
+    <row r="20" spans="1:17" ht="15.75">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -11399,44 +11523,47 @@
       <c r="C20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H20" s="8">
+      <c r="D20" s="25"/>
+      <c r="E20" s="41">
+        <v>50</v>
+      </c>
+      <c r="F20" s="41">
+        <v>65</v>
+      </c>
+      <c r="G20" s="38">
+        <v>41</v>
+      </c>
+      <c r="H20" s="41">
         <v>61</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="40">
         <v>45</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="41">
         <v>63</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="41">
         <v>68</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>393</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="1"/>
-        <v>33.857142857142861</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="16.5">
+    <row r="21" spans="1:17" ht="15.75">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -11446,44 +11573,47 @@
       <c r="C21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H21" s="8">
+      <c r="D21" s="25"/>
+      <c r="E21" s="41">
+        <v>50</v>
+      </c>
+      <c r="F21" s="41">
+        <v>60</v>
+      </c>
+      <c r="G21" s="37">
+        <v>52</v>
+      </c>
+      <c r="H21" s="41">
         <v>65</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="41">
         <v>52</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="41">
         <v>73</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="41">
         <v>64</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>416</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="1"/>
-        <v>36.285714285714285</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="16.5">
+    <row r="22" spans="1:17" ht="15.75">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -11493,44 +11623,47 @@
       <c r="C22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H22" s="8">
+      <c r="D22" s="25"/>
+      <c r="E22" s="41">
+        <v>60</v>
+      </c>
+      <c r="F22" s="41">
+        <v>67</v>
+      </c>
+      <c r="G22" s="37">
+        <v>72</v>
+      </c>
+      <c r="H22" s="41">
         <v>75</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="41">
         <v>54</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="41">
         <v>87</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="41">
         <v>88</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="0"/>
-        <v>304</v>
+        <v>503</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="1"/>
-        <v>43.428571428571431</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="16.5">
+    <row r="23" spans="1:17" ht="15.75">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -11540,44 +11673,47 @@
       <c r="C23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H23" s="8">
+      <c r="D23" s="25"/>
+      <c r="E23" s="40">
+        <v>42</v>
+      </c>
+      <c r="F23" s="41">
+        <v>60</v>
+      </c>
+      <c r="G23" s="37">
+        <v>50</v>
+      </c>
+      <c r="H23" s="41">
         <v>77</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="41">
         <v>53</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="41">
         <v>63</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="41">
         <v>82</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>427</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="1"/>
-        <v>39.285714285714285</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="16.5">
+    <row r="24" spans="1:17" ht="15.75">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -11587,44 +11723,49 @@
       <c r="C24" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H24" s="8">
+      <c r="D24" s="37">
+        <v>68</v>
+      </c>
+      <c r="E24" s="41">
+        <v>61</v>
+      </c>
+      <c r="F24" s="41">
+        <v>85</v>
+      </c>
+      <c r="G24" s="37">
+        <v>72</v>
+      </c>
+      <c r="H24" s="41">
         <v>80</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="41">
         <v>80</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="41">
         <v>89</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="41">
         <v>87</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="0"/>
-        <v>336</v>
+        <v>622</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0</v>
-      </c>
-      <c r="O24" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="16.5">
+    <row r="25" spans="1:17" ht="15.75">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -11634,44 +11775,49 @@
       <c r="C25" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H25" s="8">
+      <c r="D25" s="37">
         <v>64</v>
       </c>
-      <c r="I25" s="9">
+      <c r="E25" s="41">
+        <v>51</v>
+      </c>
+      <c r="F25" s="41">
+        <v>60</v>
+      </c>
+      <c r="G25" s="37">
+        <v>51</v>
+      </c>
+      <c r="H25" s="41">
+        <v>64</v>
+      </c>
+      <c r="I25" s="40">
         <v>39</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="41">
         <v>56</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="41">
         <v>77</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>462</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="1"/>
-        <v>33.714285714285715</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
-      <c r="O25" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="16.5">
+    <row r="26" spans="1:17" ht="15.75">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -11681,44 +11827,47 @@
       <c r="C26" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H26" s="8">
+      <c r="D26" s="25"/>
+      <c r="E26" s="41">
+        <v>56</v>
+      </c>
+      <c r="F26" s="41">
+        <v>60</v>
+      </c>
+      <c r="G26" s="37">
+        <v>62</v>
+      </c>
+      <c r="H26" s="41">
         <v>74</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="41">
         <v>52</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="41">
         <v>82</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="41">
         <v>78</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="0"/>
-        <v>286</v>
+        <v>464</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="1"/>
-        <v>40.857142857142861</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0</v>
-      </c>
-      <c r="O26" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="16.5">
+    <row r="27" spans="1:17" ht="15.75">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -11728,44 +11877,49 @@
       <c r="C27" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H27" s="8">
+      <c r="D27" s="37">
+        <v>72</v>
+      </c>
+      <c r="E27" s="41">
+        <v>50</v>
+      </c>
+      <c r="F27" s="41">
+        <v>60</v>
+      </c>
+      <c r="G27" s="37">
+        <v>52</v>
+      </c>
+      <c r="H27" s="41">
         <v>66</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="41">
         <v>50</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="41">
         <v>75</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="41">
         <v>68</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="0"/>
-        <v>259</v>
+        <v>493</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="16.5">
+    <row r="28" spans="1:17" ht="15.75">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -11775,44 +11929,49 @@
       <c r="C28" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H28" s="8">
+      <c r="D28" s="37">
+        <v>70</v>
+      </c>
+      <c r="E28" s="41">
+        <v>65</v>
+      </c>
+      <c r="F28" s="41">
+        <v>65</v>
+      </c>
+      <c r="G28" s="37">
+        <v>70</v>
+      </c>
+      <c r="H28" s="41">
         <v>75</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="41">
         <v>65</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="41">
         <v>84</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="41">
         <v>90</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="0"/>
-        <v>314</v>
+        <v>584</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="1"/>
-        <v>44.857142857142854</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="16.5">
+    <row r="29" spans="1:17" ht="15.75">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -11822,44 +11981,47 @@
       <c r="C29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H29" s="8">
+      <c r="D29" s="25"/>
+      <c r="E29" s="41">
+        <v>52</v>
+      </c>
+      <c r="F29" s="41">
+        <v>60</v>
+      </c>
+      <c r="G29" s="37">
+        <v>60</v>
+      </c>
+      <c r="H29" s="41">
         <v>65</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="41">
         <v>50</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="41">
         <v>60</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="41">
         <v>70</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>417</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0</v>
-      </c>
-      <c r="O29" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="16.5">
+    <row r="30" spans="1:17" ht="15.75">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -11869,44 +12031,47 @@
       <c r="C30" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H30" s="8">
-        <v>65</v>
-      </c>
-      <c r="I30" s="9">
+      <c r="D30" s="25"/>
+      <c r="E30" s="41">
+        <v>51</v>
+      </c>
+      <c r="F30" s="41">
+        <v>99</v>
+      </c>
+      <c r="G30" s="37">
+        <v>88</v>
+      </c>
+      <c r="H30" s="41">
+        <v>61</v>
+      </c>
+      <c r="I30" s="41">
         <v>66</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="41">
         <v>80</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="41">
         <v>68</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="0"/>
-        <v>279</v>
+        <v>513</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="1"/>
-        <v>39.857142857142861</v>
-      </c>
-      <c r="N30" s="1">
-        <v>0</v>
-      </c>
-      <c r="O30" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="16.5">
+    <row r="31" spans="1:17" ht="15.75">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -11916,44 +12081,47 @@
       <c r="C31" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H31" s="8">
+      <c r="D31" s="25"/>
+      <c r="E31" s="41">
+        <v>66</v>
+      </c>
+      <c r="F31" s="41">
+        <v>70</v>
+      </c>
+      <c r="G31" s="37">
+        <v>70</v>
+      </c>
+      <c r="H31" s="41">
         <v>67</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="41">
         <v>70</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="41">
         <v>80</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="41">
         <v>83</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>506</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="1"/>
-        <v>42.857142857142854</v>
-      </c>
-      <c r="N31" s="1">
-        <v>0</v>
-      </c>
-      <c r="O31" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="16.5">
+    <row r="32" spans="1:17" ht="15.75">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -11963,44 +12131,47 @@
       <c r="C32" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H32" s="8">
+      <c r="D32" s="25"/>
+      <c r="E32" s="41">
+        <v>62</v>
+      </c>
+      <c r="F32" s="41">
+        <v>70</v>
+      </c>
+      <c r="G32" s="37">
+        <v>65</v>
+      </c>
+      <c r="H32" s="41">
         <v>79</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="41">
         <v>63</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="41">
         <v>80</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="41">
         <v>86</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="0"/>
-        <v>308</v>
+        <v>505</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="N32" s="1">
-        <v>0</v>
-      </c>
-      <c r="O32" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="16.5">
+    <row r="33" spans="1:17" ht="15.75">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -12010,44 +12181,49 @@
       <c r="C33" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H33" s="8">
+      <c r="D33" s="37">
+        <v>70</v>
+      </c>
+      <c r="E33" s="41">
+        <v>61</v>
+      </c>
+      <c r="F33" s="41">
+        <v>81</v>
+      </c>
+      <c r="G33" s="37">
+        <v>75</v>
+      </c>
+      <c r="H33" s="41">
         <v>83</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="41">
         <v>60</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="41">
         <v>89</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="41">
         <v>94</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="0"/>
-        <v>326</v>
+        <v>613</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="1"/>
-        <v>46.571428571428569</v>
-      </c>
-      <c r="N33" s="1">
-        <v>0</v>
-      </c>
-      <c r="O33" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="16.5">
+    <row r="34" spans="1:17" ht="15.75">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -12057,44 +12233,47 @@
       <c r="C34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H34" s="8">
+      <c r="D34" s="25"/>
+      <c r="E34" s="40">
+        <v>41</v>
+      </c>
+      <c r="F34" s="41">
+        <v>60</v>
+      </c>
+      <c r="G34" s="37">
+        <v>67</v>
+      </c>
+      <c r="H34" s="41">
         <v>68</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="41">
         <v>62</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="41">
         <v>73</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="41">
         <v>77</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>448</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N34" s="1">
-        <v>0</v>
-      </c>
-      <c r="O34" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="16.5">
+    <row r="35" spans="1:17" ht="15.75">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -12104,44 +12283,47 @@
       <c r="C35" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H35" s="8">
+      <c r="D35" s="25"/>
+      <c r="E35" s="41">
+        <v>55</v>
+      </c>
+      <c r="F35" s="41">
+        <v>61</v>
+      </c>
+      <c r="G35" s="37">
+        <v>50</v>
+      </c>
+      <c r="H35" s="41">
         <v>77</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="41">
         <v>66</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="41">
         <v>71</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="41">
         <v>87</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>467</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="N35" s="1">
-        <v>0</v>
-      </c>
-      <c r="O35" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="16.5">
+    <row r="36" spans="1:17" ht="15.75">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -12151,44 +12333,47 @@
       <c r="C36" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H36" s="8">
+      <c r="D36" s="25"/>
+      <c r="E36" s="41">
+        <v>50</v>
+      </c>
+      <c r="F36" s="41">
+        <v>60</v>
+      </c>
+      <c r="G36" s="37">
+        <v>75</v>
+      </c>
+      <c r="H36" s="41">
         <v>65</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="41">
         <v>56</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="41">
         <v>72</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="41">
         <v>80</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" si="0"/>
-        <v>273</v>
+        <v>458</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="N36" s="1">
-        <v>0</v>
-      </c>
-      <c r="O36" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="16.5">
+    <row r="37" spans="1:17" ht="15.75">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -12198,44 +12383,47 @@
       <c r="C37" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H37" s="8">
+      <c r="D37" s="25"/>
+      <c r="E37" s="41">
+        <v>51</v>
+      </c>
+      <c r="F37" s="41">
+        <v>60</v>
+      </c>
+      <c r="G37" s="37">
+        <v>55</v>
+      </c>
+      <c r="H37" s="41">
         <v>69</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="41">
         <v>60</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="41">
         <v>66</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="41">
         <v>73</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" si="0"/>
-        <v>268</v>
+        <v>434</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="1"/>
-        <v>38.285714285714285</v>
-      </c>
-      <c r="N37" s="1">
-        <v>0</v>
-      </c>
-      <c r="O37" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="16.5">
+    <row r="38" spans="1:17" ht="15.75">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -12245,44 +12433,49 @@
       <c r="C38" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H38" s="8">
+      <c r="D38" s="37">
+        <v>83</v>
+      </c>
+      <c r="E38" s="41">
+        <v>54</v>
+      </c>
+      <c r="F38" s="41">
+        <v>85</v>
+      </c>
+      <c r="G38" s="37">
+        <v>77</v>
+      </c>
+      <c r="H38" s="41">
         <v>84</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="41">
         <v>85</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="41">
         <v>96</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="41">
         <v>85</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>649</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="N38" s="1">
-        <v>0</v>
-      </c>
-      <c r="O38" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="16.5">
+    <row r="39" spans="1:17" ht="15.75">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -12292,44 +12485,49 @@
       <c r="C39" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H39" s="8">
+      <c r="D39" s="37">
+        <v>68</v>
+      </c>
+      <c r="E39" s="41">
+        <v>61</v>
+      </c>
+      <c r="F39" s="41">
+        <v>61</v>
+      </c>
+      <c r="G39" s="37">
+        <v>70</v>
+      </c>
+      <c r="H39" s="41">
         <v>77</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="41">
         <v>63</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="41">
         <v>90</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" s="41">
         <v>94</v>
       </c>
       <c r="L39" s="1">
         <f t="shared" si="0"/>
-        <v>324</v>
+        <v>584</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="1"/>
-        <v>46.285714285714285</v>
-      </c>
-      <c r="N39" s="1">
-        <v>0</v>
-      </c>
-      <c r="O39" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="16.5">
+    <row r="40" spans="1:17" ht="15.75">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -12339,44 +12537,47 @@
       <c r="C40" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H40" s="8">
+      <c r="D40" s="25"/>
+      <c r="E40" s="41">
+        <v>66</v>
+      </c>
+      <c r="F40" s="41">
+        <v>80</v>
+      </c>
+      <c r="G40" s="37">
+        <v>66</v>
+      </c>
+      <c r="H40" s="41">
         <v>68</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="41">
         <v>57</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="41">
         <v>88</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" s="41">
         <v>83</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" si="0"/>
-        <v>296</v>
+        <v>508</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="1"/>
-        <v>42.285714285714285</v>
-      </c>
-      <c r="N40" s="1">
-        <v>0</v>
-      </c>
-      <c r="O40" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="16.5">
+    <row r="41" spans="1:17" ht="15.75">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -12386,37 +12587,40 @@
       <c r="C41" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H41" s="8">
+      <c r="D41" s="25"/>
+      <c r="E41" s="41">
+        <v>62</v>
+      </c>
+      <c r="F41" s="41">
+        <v>60</v>
+      </c>
+      <c r="G41" s="37">
+        <v>53</v>
+      </c>
+      <c r="H41" s="41">
         <v>74</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="40">
         <v>43</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="41">
         <v>55</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="41">
         <v>77</v>
       </c>
       <c r="L41" s="1">
         <f t="shared" si="0"/>
-        <v>249</v>
+        <v>424</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="1"/>
-        <v>35.571428571428569</v>
-      </c>
-      <c r="N41" s="1">
-        <v>0</v>
-      </c>
-      <c r="O41" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="8" t="s">

--- a/assets/results.xlsx
+++ b/assets/results.xlsx
@@ -1,34 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shani\Documents\GitHub\marks\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF67D9F2-B74A-49A4-9C4D-580F05AB6A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CDA7ED-F89E-4686-9E07-AA0290724124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-A" sheetId="5" r:id="rId1"/>
     <sheet name="1-B" sheetId="4" r:id="rId2"/>
     <sheet name="2-B" sheetId="2" r:id="rId3"/>
     <sheet name="2-A" sheetId="6" r:id="rId4"/>
-    <sheet name="3-A" sheetId="8" r:id="rId5"/>
-    <sheet name="4-A" sheetId="10" r:id="rId6"/>
-    <sheet name="5-A" sheetId="11" r:id="rId7"/>
+    <sheet name="3-B" sheetId="12" r:id="rId5"/>
+    <sheet name="3-A" sheetId="8" r:id="rId6"/>
+    <sheet name="4-A" sheetId="10" r:id="rId7"/>
+    <sheet name="5-A" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'1-A'!$A$1:$S$49</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'1-B'!$A$1:$S$49</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'2-A'!$A$1:$Q$48</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'2-B'!$A$1:$Q$48</definedName>
-    <definedName name="ExternalData_1" localSheetId="4" hidden="1">'3-A'!$A$1:$R$49</definedName>
-    <definedName name="ExternalData_1" localSheetId="5" hidden="1">'4-A'!$A$1:$Q$49</definedName>
-    <definedName name="ExternalData_1" localSheetId="6" hidden="1">'5-A'!$A$1:$N$49</definedName>
+    <definedName name="ExternalData_1" localSheetId="5" hidden="1">'3-A'!$A$1:$R$49</definedName>
+    <definedName name="ExternalData_1" localSheetId="4" hidden="1">'3-B'!$A$1:$S$47</definedName>
+    <definedName name="ExternalData_1" localSheetId="6" hidden="1">'4-A'!$A$1:$Q$49</definedName>
+    <definedName name="ExternalData_1" localSheetId="7" hidden="1">'5-A'!$A$1:$N$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="684">
   <si>
     <t>Sr.
 No.</t>
@@ -1484,301 +1486,16 @@
     <t>Roll#</t>
   </si>
   <si>
-    <t>L-BSCS9248601</t>
-  </si>
-  <si>
-    <t>L-BSCS9248602</t>
-  </si>
-  <si>
-    <t>L-BSCS9248603</t>
-  </si>
-  <si>
-    <t>L-BSCS9248604</t>
-  </si>
-  <si>
-    <t>L-BSCS9248605</t>
-  </si>
-  <si>
-    <t>L-BSCS9248606</t>
-  </si>
-  <si>
-    <t>L-BSCS9248607</t>
-  </si>
-  <si>
-    <t>L-BSCS9248608</t>
-  </si>
-  <si>
-    <t>L-BSCS9248609</t>
-  </si>
-  <si>
-    <t>L-BSCS9248610</t>
-  </si>
-  <si>
-    <t>L-BSCS9248611</t>
-  </si>
-  <si>
-    <t>L-BSCS9248612</t>
-  </si>
-  <si>
-    <t>L-BSCS9248613</t>
-  </si>
-  <si>
-    <t>L-BSCS9248614</t>
-  </si>
-  <si>
-    <t>L-BSCS9248615</t>
-  </si>
-  <si>
-    <t>L-BSCS9248616</t>
-  </si>
-  <si>
-    <t>L-BSCS9248617</t>
-  </si>
-  <si>
-    <t>L-BSCS9248618</t>
-  </si>
-  <si>
-    <t>L-BSCS9248619</t>
-  </si>
-  <si>
-    <t>L-BSCS9248620</t>
-  </si>
-  <si>
-    <t>L-BSCS9248621</t>
-  </si>
-  <si>
-    <t>L-BSCS9248622</t>
-  </si>
-  <si>
-    <t>L-BSCS9248623</t>
-  </si>
-  <si>
-    <t>L-BSCS9248624</t>
-  </si>
-  <si>
-    <t>L-BSCS9248625</t>
-  </si>
-  <si>
-    <t>L-BSCS9248626</t>
-  </si>
-  <si>
-    <t>L-BSCS9248627</t>
-  </si>
-  <si>
-    <t>L-BSCS9248628</t>
-  </si>
-  <si>
-    <t>L-BSCS9248629</t>
-  </si>
-  <si>
-    <t>L-BSCS9248630</t>
-  </si>
-  <si>
-    <t>Abdullah Atiq</t>
-  </si>
-  <si>
-    <t>Ahsan Abdullah</t>
-  </si>
-  <si>
-    <t>Ayesha</t>
-  </si>
-  <si>
-    <t>Faiza Batool</t>
-  </si>
-  <si>
-    <t>Hamza Hafeez Bhatti</t>
-  </si>
-  <si>
-    <t>Hamza Khubaib</t>
-  </si>
-  <si>
-    <t>Jawaria Matloob</t>
-  </si>
-  <si>
-    <t>Khuwaja MuhammadMahdi</t>
-  </si>
-  <si>
-    <t>Laraib Iffat</t>
-  </si>
-  <si>
-    <t>Muhammad Arslan</t>
-  </si>
-  <si>
-    <t>Mahnoor</t>
-  </si>
-  <si>
-    <t>Malaika</t>
-  </si>
-  <si>
-    <t>Manahil Saeed</t>
-  </si>
-  <si>
-    <t>Maryam Shafique</t>
-  </si>
-  <si>
-    <t>Mehboob Ul Hassan</t>
-  </si>
-  <si>
-    <t>Minal Fatima</t>
-  </si>
-  <si>
-    <t>Momina Binte Abad</t>
-  </si>
-  <si>
-    <t>Momina Javaid</t>
-  </si>
-  <si>
-    <t>Mudasir Arshad</t>
-  </si>
-  <si>
     <t>Muhammad Abdullah</t>
   </si>
   <si>
     <t>Muhammad Ahmad</t>
   </si>
   <si>
-    <t>Muhammad Ahmad Janjua</t>
-  </si>
-  <si>
-    <t>Muhammad Ahmer Nadeem Choudhry</t>
-  </si>
-  <si>
-    <t>Muhammad Arqam Ayub</t>
-  </si>
-  <si>
-    <t>Muhammad Danish</t>
-  </si>
-  <si>
-    <t>Muhammad Dawar Shaheer</t>
-  </si>
-  <si>
-    <t>Muhammad Faizan</t>
-  </si>
-  <si>
     <t>Muhammad Hamza</t>
   </si>
   <si>
-    <t>Muhammad Jawad</t>
-  </si>
-  <si>
-    <t>L-BSCS9248631</t>
-  </si>
-  <si>
-    <t>Muhammad Junaid Rafiq</t>
-  </si>
-  <si>
-    <t>L-BSCS9248632</t>
-  </si>
-  <si>
-    <t>Muhammad Moaz Altaf Bajwa</t>
-  </si>
-  <si>
-    <t>L-BSCS9248633</t>
-  </si>
-  <si>
     <t>Muhammad Umer</t>
-  </si>
-  <si>
-    <t>L-BSCS9248634</t>
-  </si>
-  <si>
-    <t>Muhammad Usman Ali</t>
-  </si>
-  <si>
-    <t>L-BSCS9248635</t>
-  </si>
-  <si>
-    <t>Muhammad Zohaib Shaukat</t>
-  </si>
-  <si>
-    <t>L-BSCS9248636</t>
-  </si>
-  <si>
-    <t>Rida  Fatima</t>
-  </si>
-  <si>
-    <t>L-BSCS9248637</t>
-  </si>
-  <si>
-    <t>Rubab Naz</t>
-  </si>
-  <si>
-    <t>L-BSCS9248638</t>
-  </si>
-  <si>
-    <t>Sabika Abbas</t>
-  </si>
-  <si>
-    <t>L-BSCS9248639</t>
-  </si>
-  <si>
-    <t>Sana Ullah Asmi</t>
-  </si>
-  <si>
-    <t>L-BSCS9248640</t>
-  </si>
-  <si>
-    <t>Shaher Bano Qazi</t>
-  </si>
-  <si>
-    <t>L-BSCS9248641</t>
-  </si>
-  <si>
-    <t>Siraj Munir</t>
-  </si>
-  <si>
-    <t>L-BSCS9248642</t>
-  </si>
-  <si>
-    <t>Syed Abdul Raheem Shah</t>
-  </si>
-  <si>
-    <t>L-BSCS9248643</t>
-  </si>
-  <si>
-    <t>Syed Muhammad Kaif</t>
-  </si>
-  <si>
-    <t>L-BSCS9248644</t>
-  </si>
-  <si>
-    <t>Syeda Rabiya Imran</t>
-  </si>
-  <si>
-    <t>L-BSCS9248645</t>
-  </si>
-  <si>
-    <t>Talha Khan</t>
-  </si>
-  <si>
-    <t>L-BSCS9248646</t>
-  </si>
-  <si>
-    <t>Tayyaba Liaqat</t>
-  </si>
-  <si>
-    <t>L-BSCS9248647</t>
-  </si>
-  <si>
-    <t>Umer Sajjad</t>
-  </si>
-  <si>
-    <t>L-BSCS9248648</t>
-  </si>
-  <si>
-    <t>Zainab</t>
-  </si>
-  <si>
-    <t>L-BSCS9248649</t>
-  </si>
-  <si>
-    <t>Zumar Saeed</t>
-  </si>
-  <si>
-    <t>L-BSCS9248650</t>
-  </si>
-  <si>
-    <t>Zymal Kashif</t>
   </si>
   <si>
     <t>Adil Hussain</t>
@@ -3493,6 +3210,246 @@
       <t>SF</t>
     </r>
   </si>
+  <si>
+    <t>L-BSCS2258601</t>
+  </si>
+  <si>
+    <t>Abid Rehman</t>
+  </si>
+  <si>
+    <t>L-BSCS2258602</t>
+  </si>
+  <si>
+    <t>Aleeza Abid</t>
+  </si>
+  <si>
+    <t>L-BSCS2258603</t>
+  </si>
+  <si>
+    <t>Ali Mustajab</t>
+  </si>
+  <si>
+    <t>L-BSCS2258604</t>
+  </si>
+  <si>
+    <t>Anosha Haram</t>
+  </si>
+  <si>
+    <t>L-BSCS2258605</t>
+  </si>
+  <si>
+    <t>Arham Sajid</t>
+  </si>
+  <si>
+    <t>L-BSCS2258606</t>
+  </si>
+  <si>
+    <t>Ayesha Saeed</t>
+  </si>
+  <si>
+    <t>L-BSCS2258607</t>
+  </si>
+  <si>
+    <t>Eman Nadeem Anjum</t>
+  </si>
+  <si>
+    <t>L-BSCS2258608</t>
+  </si>
+  <si>
+    <t>Gunwa Toheed</t>
+  </si>
+  <si>
+    <t>L-BSCS2258609</t>
+  </si>
+  <si>
+    <t>Irha Qadir</t>
+  </si>
+  <si>
+    <t>L-BSCS2258610</t>
+  </si>
+  <si>
+    <t>Momina Noman</t>
+  </si>
+  <si>
+    <t>L-BSCS2258611</t>
+  </si>
+  <si>
+    <t>Mubeen Tahir</t>
+  </si>
+  <si>
+    <t>L-BSCS2258612</t>
+  </si>
+  <si>
+    <t>Muhammad Abdul Rehman</t>
+  </si>
+  <si>
+    <t>L-BSCS2258613</t>
+  </si>
+  <si>
+    <t>L-BSCS2258614</t>
+  </si>
+  <si>
+    <t>Muhammad AhmadSiddique</t>
+  </si>
+  <si>
+    <t>L-BSCS2258615</t>
+  </si>
+  <si>
+    <t>Muhammad Ahsan Khalid</t>
+  </si>
+  <si>
+    <t>L-BSCS2258616</t>
+  </si>
+  <si>
+    <t>Muhammad Arslan Azhar</t>
+  </si>
+  <si>
+    <t>L-BSCS2258617</t>
+  </si>
+  <si>
+    <t>L-BSCS2258618</t>
+  </si>
+  <si>
+    <t>Muhammad Noman</t>
+  </si>
+  <si>
+    <t>L-BSCS2258619</t>
+  </si>
+  <si>
+    <t>Muhammad Rayan</t>
+  </si>
+  <si>
+    <t>L-BSCS2258620</t>
+  </si>
+  <si>
+    <t>Muhammad Shah Zaib Israr</t>
+  </si>
+  <si>
+    <t>L-BSCS2258621</t>
+  </si>
+  <si>
+    <t>Muhammad Shahzaib</t>
+  </si>
+  <si>
+    <t>L-BSCS2258622</t>
+  </si>
+  <si>
+    <t>Muhammad Suleman</t>
+  </si>
+  <si>
+    <t>L-BSCS2258623</t>
+  </si>
+  <si>
+    <t>Nouman Ahmad</t>
+  </si>
+  <si>
+    <t>L-BSCS2258624</t>
+  </si>
+  <si>
+    <t>Rabab</t>
+  </si>
+  <si>
+    <t>L-BSCS2258625</t>
+  </si>
+  <si>
+    <t>Rahim Ullah Mehsood</t>
+  </si>
+  <si>
+    <t>L-BSCS2258626</t>
+  </si>
+  <si>
+    <t>Ruwaida Afzal</t>
+  </si>
+  <si>
+    <t>L-BSCS2258627</t>
+  </si>
+  <si>
+    <t>Saad Ullah Malik</t>
+  </si>
+  <si>
+    <t>L-BSCS2258628</t>
+  </si>
+  <si>
+    <t>Sarbali Khan</t>
+  </si>
+  <si>
+    <t>L-BSCS2258629</t>
+  </si>
+  <si>
+    <t>Sunaina Ali</t>
+  </si>
+  <si>
+    <t>L-BSCS2258630</t>
+  </si>
+  <si>
+    <t>Syed Omer Ali</t>
+  </si>
+  <si>
+    <t>L-BSCS2258631</t>
+  </si>
+  <si>
+    <t>Tanveer Zahra</t>
+  </si>
+  <si>
+    <t>L-BSCS2258632</t>
+  </si>
+  <si>
+    <t>Tauqeer Mehmood</t>
+  </si>
+  <si>
+    <t>L-BSCS2258633</t>
+  </si>
+  <si>
+    <t>Tehreem</t>
+  </si>
+  <si>
+    <t>L-BSCS2258634</t>
+  </si>
+  <si>
+    <t>Zohaib Khalid</t>
+  </si>
+  <si>
+    <t>Muhammad HashimZahoor</t>
+  </si>
+  <si>
+    <t>Muhammad AbdullahKhan</t>
+  </si>
+  <si>
+    <t>MuhammadMujtaba Farooqi</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Repeat subject/s</t>
+  </si>
+  <si>
+    <t>Calculus: 70,  OOP: 52</t>
+  </si>
+  <si>
+    <t>OOP: 55</t>
+  </si>
+  <si>
+    <t>Calculus: 60</t>
+  </si>
+  <si>
+    <t>Calculus: 60, OOP: 50</t>
+  </si>
+  <si>
+    <t>OOP: 63</t>
+  </si>
+  <si>
+    <t>OOP: 50</t>
+  </si>
+  <si>
+    <t>Calculus: 65</t>
+  </si>
+  <si>
+    <t>Calculus: 64</t>
+  </si>
+  <si>
+    <t>Applied Physics: 51</t>
+  </si>
 </sst>
 </file>
 
@@ -3501,7 +3458,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3669,6 +3626,12 @@
       <name val="Arial MT"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3779,7 +3742,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3941,6 +3904,24 @@
     <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4091,6 +4072,69 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>13334</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>188213</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1567180" cy="5080"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9BAF1CF-B7EB-4BB1-B640-D6856A3B321A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2518409" y="11399138"/>
+          <a:ext cx="1567180" cy="5080"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path w="1567180" h="5080">
+              <a:moveTo>
+                <a:pt x="1566672" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="4572"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1566672" y="4572"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1566672" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>13334</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>188213</xdr:rowOff>
     </xdr:from>
@@ -4148,7 +4192,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -4211,7 +4255,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -4539,8 +4583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4625,42 +4669,44 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>250</v>
+        <v>604</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="D2" s="41"/>
+        <v>605</v>
+      </c>
+      <c r="D2" s="41">
+        <v>50</v>
+      </c>
       <c r="E2" s="37">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="F2" s="37">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="G2" s="37">
-        <v>87</v>
-      </c>
-      <c r="H2" s="37">
-        <v>77</v>
+        <v>59</v>
+      </c>
+      <c r="H2" s="33">
+        <v>53</v>
       </c>
       <c r="I2" s="37">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="J2" s="37">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K2" s="42">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L2" s="42">
+        <v>35</v>
+      </c>
+      <c r="M2" s="42">
         <v>70</v>
-      </c>
-      <c r="M2" s="42">
-        <v>81</v>
       </c>
       <c r="N2" s="1">
         <f>SUM(D2:M2)</f>
-        <v>684</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="18">
@@ -4668,42 +4714,42 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>251</v>
+        <v>606</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>280</v>
+        <v>607</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="37">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F3" s="37">
+        <v>61</v>
+      </c>
+      <c r="G3" s="37">
+        <v>77</v>
+      </c>
+      <c r="H3" s="33">
+        <v>70</v>
+      </c>
+      <c r="I3" s="37">
+        <v>64</v>
+      </c>
+      <c r="J3" s="37">
+        <v>71</v>
+      </c>
+      <c r="K3" s="42">
         <v>88</v>
       </c>
-      <c r="G3" s="37">
-        <v>87</v>
-      </c>
-      <c r="H3" s="37">
-        <v>73</v>
-      </c>
-      <c r="I3" s="37">
-        <v>60</v>
-      </c>
-      <c r="J3" s="37">
-        <v>56</v>
-      </c>
-      <c r="K3" s="42">
-        <v>90</v>
-      </c>
       <c r="L3" s="42">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M3" s="42">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="N3" s="1">
         <f>SUM(D3:M3)</f>
-        <v>671</v>
+        <v>616</v>
       </c>
       <c r="P3" s="1">
         <v>0</v>
@@ -4719,44 +4765,42 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>252</v>
+        <v>608</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="D4" s="37">
-        <v>81</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="D4" s="37"/>
       <c r="E4" s="37">
+        <v>65</v>
+      </c>
+      <c r="F4" s="37">
+        <v>68</v>
+      </c>
+      <c r="G4" s="37">
         <v>71</v>
       </c>
-      <c r="F4" s="37">
-        <v>89</v>
-      </c>
-      <c r="G4" s="37">
-        <v>85</v>
-      </c>
-      <c r="H4" s="37">
-        <v>82</v>
+      <c r="H4" s="33">
+        <v>78</v>
       </c>
       <c r="I4" s="37">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" s="37">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="K4" s="42">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="L4" s="42">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" s="42">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ref="N4:N51" si="0">SUM(D4:M4)</f>
-        <v>720</v>
+        <v>624</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
@@ -4772,42 +4816,44 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>253</v>
+        <v>610</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="D5" s="41"/>
+        <v>611</v>
+      </c>
+      <c r="D5" s="41">
+        <v>55</v>
+      </c>
       <c r="E5" s="37">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F5" s="37">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G5" s="37">
-        <v>6</v>
-      </c>
-      <c r="H5" s="37">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="H5" s="33">
+        <v>80</v>
       </c>
       <c r="I5" s="37">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="J5" s="37">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="K5" s="42">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L5" s="42">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="M5" s="42">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>706</v>
       </c>
       <c r="P5" s="1">
         <v>0</v>
@@ -4823,42 +4869,42 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>254</v>
+        <v>612</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>283</v>
+        <v>613</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="37">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="F6" s="37">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G6" s="37">
-        <v>90</v>
-      </c>
-      <c r="H6" s="37">
-        <v>89</v>
+        <v>54</v>
+      </c>
+      <c r="H6" s="33">
+        <v>43</v>
       </c>
       <c r="I6" s="37">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="J6" s="37">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="K6" s="42">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="L6" s="42">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="M6" s="42">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="0"/>
-        <v>742</v>
+        <v>496</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
@@ -4874,44 +4920,42 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>255</v>
+        <v>614</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="D7" s="37">
-        <v>66</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="D7" s="37"/>
       <c r="E7" s="37">
+        <v>58</v>
+      </c>
+      <c r="F7" s="37">
+        <v>71</v>
+      </c>
+      <c r="G7" s="37">
+        <v>65</v>
+      </c>
+      <c r="H7" s="33">
+        <v>60</v>
+      </c>
+      <c r="I7" s="37">
+        <v>73</v>
+      </c>
+      <c r="J7" s="37">
+        <v>57</v>
+      </c>
+      <c r="K7" s="42">
         <v>80</v>
       </c>
-      <c r="F7" s="37">
-        <v>100</v>
-      </c>
-      <c r="G7" s="37">
-        <v>90</v>
-      </c>
-      <c r="H7" s="37">
-        <v>87</v>
-      </c>
-      <c r="I7" s="37">
-        <v>89</v>
-      </c>
-      <c r="J7" s="37">
-        <v>62</v>
-      </c>
-      <c r="K7" s="42">
-        <v>82</v>
-      </c>
       <c r="L7" s="42">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="M7" s="42">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="0"/>
-        <v>814</v>
+        <v>589</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -4922,47 +4966,47 @@
       <c r="R7" s="1"/>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" spans="1:19" ht="18">
+    <row r="8" spans="1:19" ht="36">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>256</v>
+        <v>616</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>285</v>
+        <v>617</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="37">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="F8" s="37">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G8" s="37">
-        <v>87</v>
-      </c>
-      <c r="H8" s="37">
         <v>85</v>
       </c>
+      <c r="H8" s="33">
+        <v>77</v>
+      </c>
       <c r="I8" s="37">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J8" s="37">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="K8" s="42">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" s="42">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="M8" s="42">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="0"/>
-        <v>696</v>
+        <v>732</v>
       </c>
       <c r="P8" s="1">
         <v>0</v>
@@ -4978,42 +5022,42 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>257</v>
+        <v>618</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>286</v>
+        <v>619</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="37">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="F9" s="37">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="G9" s="37">
-        <v>77</v>
-      </c>
-      <c r="H9" s="37">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="H9" s="33">
+        <v>83</v>
       </c>
       <c r="I9" s="37">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J9" s="37">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="K9" s="42">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L9" s="42">
         <v>55</v>
       </c>
       <c r="M9" s="42">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="0"/>
-        <v>647</v>
+        <v>591</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
@@ -5024,47 +5068,49 @@
       <c r="R9" s="1"/>
       <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="1:19" ht="36">
+    <row r="10" spans="1:19" ht="18">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>258</v>
+        <v>620</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="D10" s="41"/>
+        <v>621</v>
+      </c>
+      <c r="D10" s="41">
+        <v>60</v>
+      </c>
       <c r="E10" s="37">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F10" s="37">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="G10" s="37">
-        <v>90</v>
-      </c>
-      <c r="H10" s="37">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="H10" s="33">
+        <v>71</v>
       </c>
       <c r="I10" s="37">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J10" s="37">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K10" s="42">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L10" s="42">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="M10" s="42">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="0"/>
-        <v>710</v>
+        <v>686</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
@@ -5080,42 +5126,42 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>259</v>
+        <v>622</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>288</v>
+        <v>623</v>
       </c>
       <c r="D11" s="41"/>
       <c r="E11" s="37">
+        <v>68</v>
+      </c>
+      <c r="F11" s="37">
+        <v>65</v>
+      </c>
+      <c r="G11" s="37">
+        <v>71</v>
+      </c>
+      <c r="H11" s="33">
         <v>80</v>
       </c>
-      <c r="F11" s="37">
-        <v>92</v>
-      </c>
-      <c r="G11" s="37">
-        <v>82</v>
-      </c>
-      <c r="H11" s="37">
-        <v>92</v>
-      </c>
       <c r="I11" s="37">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="J11" s="37">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="K11" s="42">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L11" s="42">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="M11" s="42">
         <v>75</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="0"/>
-        <v>736</v>
+        <v>651</v>
       </c>
       <c r="P11" s="1">
         <v>0</v>
@@ -5131,44 +5177,42 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>260</v>
+        <v>624</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="D12" s="37">
-        <v>58</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="D12" s="37"/>
       <c r="E12" s="37">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="F12" s="37">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G12" s="37">
-        <v>88</v>
-      </c>
-      <c r="H12" s="37">
+        <v>83</v>
+      </c>
+      <c r="H12" s="33">
+        <v>55</v>
+      </c>
+      <c r="I12" s="37">
+        <v>60</v>
+      </c>
+      <c r="J12" s="37">
         <v>70</v>
       </c>
-      <c r="I12" s="37">
-        <v>61</v>
-      </c>
-      <c r="J12" s="37">
-        <v>34</v>
-      </c>
       <c r="K12" s="42">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="L12" s="42">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="M12" s="42">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="0"/>
-        <v>614</v>
+        <v>647</v>
       </c>
       <c r="P12" s="1">
         <v>0</v>
@@ -5179,47 +5223,47 @@
       <c r="R12" s="1"/>
       <c r="S12" s="8"/>
     </row>
-    <row r="13" spans="1:19" ht="18">
+    <row r="13" spans="1:19" ht="36">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>261</v>
+        <v>626</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>290</v>
+        <v>627</v>
       </c>
       <c r="D13" s="41"/>
       <c r="E13" s="37">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F13" s="37">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G13" s="37">
-        <v>8</v>
-      </c>
-      <c r="H13" s="37">
-        <v>8</v>
+        <v>59</v>
+      </c>
+      <c r="H13" s="33">
+        <v>41</v>
       </c>
       <c r="I13" s="37">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="J13" s="37">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="K13" s="42">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="L13" s="42">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="M13" s="42">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>514</v>
       </c>
       <c r="P13" s="1">
         <v>0</v>
@@ -5235,44 +5279,42 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>262</v>
+        <v>628</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="D14" s="37">
-        <v>60</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D14" s="37"/>
       <c r="E14" s="37">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F14" s="37">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="G14" s="37">
-        <v>88</v>
-      </c>
-      <c r="H14" s="37">
-        <v>85</v>
+        <v>61</v>
+      </c>
+      <c r="H14" s="33">
+        <v>72</v>
       </c>
       <c r="I14" s="37">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J14" s="37">
+        <v>70</v>
+      </c>
+      <c r="K14" s="42">
+        <v>90</v>
+      </c>
+      <c r="L14" s="42">
         <v>55</v>
       </c>
-      <c r="K14" s="42">
-        <v>84</v>
-      </c>
-      <c r="L14" s="42">
-        <v>70</v>
-      </c>
       <c r="M14" s="42">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="0"/>
-        <v>771</v>
+        <v>601</v>
       </c>
       <c r="P14" s="1">
         <v>0</v>
@@ -5283,47 +5325,49 @@
       <c r="R14" s="1"/>
       <c r="S14" s="8"/>
     </row>
-    <row r="15" spans="1:19" ht="18">
+    <row r="15" spans="1:19" ht="36">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>263</v>
+        <v>629</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="D15" s="41"/>
+        <v>630</v>
+      </c>
+      <c r="D15" s="41">
+        <v>50</v>
+      </c>
       <c r="E15" s="37">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F15" s="37">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="G15" s="37">
-        <v>73</v>
-      </c>
-      <c r="H15" s="37">
-        <v>82</v>
+        <v>71</v>
+      </c>
+      <c r="H15" s="33">
+        <v>70</v>
       </c>
       <c r="I15" s="37">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="J15" s="37">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K15" s="42">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="L15" s="42">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="M15" s="42">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="0"/>
-        <v>684</v>
+        <v>586</v>
       </c>
       <c r="P15" s="1">
         <v>0</v>
@@ -5334,47 +5378,47 @@
       <c r="R15" s="1"/>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:19" ht="18">
+    <row r="16" spans="1:19" ht="36">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>264</v>
+        <v>631</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>293</v>
+        <v>632</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="37">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F16" s="37">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="G16" s="37">
-        <v>91</v>
-      </c>
-      <c r="H16" s="37">
+        <v>71</v>
+      </c>
+      <c r="H16" s="33">
+        <v>50</v>
+      </c>
+      <c r="I16" s="37">
+        <v>51</v>
+      </c>
+      <c r="J16" s="37">
+        <v>41</v>
+      </c>
+      <c r="K16" s="42">
+        <v>81</v>
+      </c>
+      <c r="L16" s="42">
+        <v>50</v>
+      </c>
+      <c r="M16" s="42">
         <v>70</v>
       </c>
-      <c r="I16" s="37">
-        <v>80</v>
-      </c>
-      <c r="J16" s="37">
-        <v>66</v>
-      </c>
-      <c r="K16" s="42">
-        <v>94</v>
-      </c>
-      <c r="L16" s="42">
-        <v>72</v>
-      </c>
-      <c r="M16" s="42">
-        <v>85</v>
-      </c>
       <c r="N16" s="1">
         <f t="shared" si="0"/>
-        <v>744</v>
+        <v>540</v>
       </c>
       <c r="P16" s="1">
         <v>0</v>
@@ -5385,49 +5429,49 @@
       <c r="R16" s="1"/>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:19" ht="18">
+    <row r="17" spans="1:19" ht="36">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>265</v>
+        <v>633</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>294</v>
+        <v>634</v>
       </c>
       <c r="D17" s="37">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E17" s="37">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F17" s="37">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="G17" s="37">
-        <v>86</v>
-      </c>
-      <c r="H17" s="37">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="H17" s="33">
+        <v>50</v>
       </c>
       <c r="I17" s="37">
         <v>61</v>
       </c>
       <c r="J17" s="37">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K17" s="42">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L17" s="42">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M17" s="42">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="0"/>
-        <v>727</v>
+        <v>599</v>
       </c>
       <c r="P17" s="1">
         <v>0</v>
@@ -5443,42 +5487,42 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>266</v>
+        <v>635</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="37">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="F18" s="37">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G18" s="37">
-        <v>90</v>
-      </c>
-      <c r="H18" s="37">
-        <v>89</v>
+        <v>9</v>
+      </c>
+      <c r="H18" s="33">
+        <v>2</v>
       </c>
       <c r="I18" s="37">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J18" s="37">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K18" s="42">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="L18" s="42">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="M18" s="42">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" si="0"/>
-        <v>737</v>
+        <v>32</v>
       </c>
       <c r="P18" s="1">
         <v>0</v>
@@ -5494,42 +5538,42 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>267</v>
+        <v>636</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>296</v>
+        <v>637</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="37">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F19" s="37">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="G19" s="37">
-        <v>81</v>
-      </c>
-      <c r="H19" s="37">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="H19" s="33">
+        <v>60</v>
       </c>
       <c r="I19" s="37">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J19" s="37">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K19" s="42">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L19" s="42">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="M19" s="42">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="0"/>
-        <v>706</v>
+        <v>587</v>
       </c>
       <c r="P19" s="1">
         <v>0</v>
@@ -5545,42 +5589,42 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>268</v>
+        <v>638</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>297</v>
+        <v>639</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="37">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="F20" s="37">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G20" s="37">
-        <v>91</v>
-      </c>
-      <c r="H20" s="37">
-        <v>89</v>
+        <v>75</v>
+      </c>
+      <c r="H20" s="33">
+        <v>70</v>
       </c>
       <c r="I20" s="37">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="J20" s="37">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K20" s="42">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="L20" s="42">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="M20" s="42">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="0"/>
-        <v>736</v>
+        <v>635</v>
       </c>
       <c r="P20" s="1">
         <v>0</v>
@@ -5591,47 +5635,47 @@
       <c r="R20" s="1"/>
       <c r="S20" s="8"/>
     </row>
-    <row r="21" spans="1:19" ht="18">
+    <row r="21" spans="1:19" ht="36">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>269</v>
+        <v>640</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>298</v>
+        <v>641</v>
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="37">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F21" s="37">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G21" s="37">
-        <v>88</v>
-      </c>
-      <c r="H21" s="37">
+        <v>83</v>
+      </c>
+      <c r="H21" s="33">
+        <v>89</v>
+      </c>
+      <c r="I21" s="37">
         <v>80</v>
       </c>
-      <c r="I21" s="37">
-        <v>86</v>
-      </c>
       <c r="J21" s="37">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K21" s="42">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L21" s="42">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="M21" s="42">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="0"/>
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="P21" s="1">
         <v>0</v>
@@ -5647,42 +5691,42 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>270</v>
+        <v>642</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>299</v>
+        <v>643</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="37">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F22" s="37">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="G22" s="37">
-        <v>82</v>
-      </c>
-      <c r="H22" s="37">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="H22" s="33">
+        <v>55</v>
       </c>
       <c r="I22" s="37">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="J22" s="37">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K22" s="42">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="L22" s="42">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M22" s="42">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="0"/>
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="P22" s="1">
         <v>0</v>
@@ -5698,42 +5742,42 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>271</v>
+        <v>644</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>300</v>
+        <v>645</v>
       </c>
       <c r="D23" s="41"/>
       <c r="E23" s="37">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="F23" s="37">
+        <v>65</v>
+      </c>
+      <c r="G23" s="37">
+        <v>61</v>
+      </c>
+      <c r="H23" s="33">
+        <v>55</v>
+      </c>
+      <c r="I23" s="37">
+        <v>46</v>
+      </c>
+      <c r="J23" s="37">
+        <v>56</v>
+      </c>
+      <c r="K23" s="42">
+        <v>76</v>
+      </c>
+      <c r="L23" s="42">
+        <v>50</v>
+      </c>
+      <c r="M23" s="42">
         <v>87</v>
       </c>
-      <c r="G23" s="37">
-        <v>81</v>
-      </c>
-      <c r="H23" s="37">
-        <v>75</v>
-      </c>
-      <c r="I23" s="37">
-        <v>70</v>
-      </c>
-      <c r="J23" s="37">
-        <v>50</v>
-      </c>
-      <c r="K23" s="42">
-        <v>77</v>
-      </c>
-      <c r="L23" s="42">
-        <v>55</v>
-      </c>
-      <c r="M23" s="42">
-        <v>72</v>
-      </c>
       <c r="N23" s="1">
         <f t="shared" si="0"/>
-        <v>645</v>
+        <v>547</v>
       </c>
       <c r="P23" s="1">
         <v>0</v>
@@ -5744,47 +5788,47 @@
       <c r="R23" s="1"/>
       <c r="S23" s="8"/>
     </row>
-    <row r="24" spans="1:19" ht="36">
+    <row r="24" spans="1:19" ht="18">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>272</v>
+        <v>646</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>301</v>
+        <v>647</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="37">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F24" s="37">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="G24" s="37">
-        <v>82</v>
-      </c>
-      <c r="H24" s="37">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="H24" s="33">
+        <v>72</v>
       </c>
       <c r="I24" s="37">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="J24" s="37">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="K24" s="42">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L24" s="42">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M24" s="42">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="0"/>
-        <v>666</v>
+        <v>610</v>
       </c>
       <c r="P24" s="1">
         <v>0</v>
@@ -5795,47 +5839,47 @@
       <c r="R24" s="1"/>
       <c r="S24" s="8"/>
     </row>
-    <row r="25" spans="1:19" ht="36">
+    <row r="25" spans="1:19" ht="18">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>273</v>
+        <v>648</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>302</v>
+        <v>649</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="37">
+        <v>52</v>
+      </c>
+      <c r="F25" s="37">
+        <v>57</v>
+      </c>
+      <c r="G25" s="37">
         <v>68</v>
       </c>
-      <c r="F25" s="37">
-        <v>92</v>
-      </c>
-      <c r="G25" s="37">
+      <c r="H25" s="33">
+        <v>67</v>
+      </c>
+      <c r="I25" s="37">
+        <v>29</v>
+      </c>
+      <c r="J25" s="37">
+        <v>54</v>
+      </c>
+      <c r="K25" s="42">
+        <v>82</v>
+      </c>
+      <c r="L25" s="42">
+        <v>52</v>
+      </c>
+      <c r="M25" s="42">
         <v>70</v>
       </c>
-      <c r="H25" s="37">
-        <v>67</v>
-      </c>
-      <c r="I25" s="37">
-        <v>70</v>
-      </c>
-      <c r="J25" s="37">
-        <v>53</v>
-      </c>
-      <c r="K25" s="42">
-        <v>76</v>
-      </c>
-      <c r="L25" s="42">
-        <v>55</v>
-      </c>
-      <c r="M25" s="42">
-        <v>75</v>
-      </c>
       <c r="N25" s="1">
         <f t="shared" si="0"/>
-        <v>626</v>
+        <v>531</v>
       </c>
       <c r="P25" s="1">
         <v>0</v>
@@ -5851,44 +5895,42 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>274</v>
+        <v>650</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="D26" s="37">
+        <v>651</v>
+      </c>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37">
+        <v>23</v>
+      </c>
+      <c r="F26" s="37">
+        <v>32</v>
+      </c>
+      <c r="G26" s="37">
+        <v>59</v>
+      </c>
+      <c r="H26" s="33">
         <v>50</v>
       </c>
-      <c r="E26" s="37">
+      <c r="I26" s="37">
+        <v>50</v>
+      </c>
+      <c r="J26" s="37">
+        <v>50</v>
+      </c>
+      <c r="K26" s="42">
         <v>77</v>
       </c>
-      <c r="F26" s="37">
-        <v>91</v>
-      </c>
-      <c r="G26" s="37">
-        <v>87</v>
-      </c>
-      <c r="H26" s="37">
-        <v>70</v>
-      </c>
-      <c r="I26" s="37">
-        <v>70</v>
-      </c>
-      <c r="J26" s="37">
-        <v>57</v>
-      </c>
-      <c r="K26" s="42">
-        <v>68</v>
-      </c>
       <c r="L26" s="42">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="M26" s="42">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" si="0"/>
-        <v>712</v>
+        <v>430</v>
       </c>
       <c r="P26" s="1">
         <v>0</v>
@@ -5904,42 +5946,42 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>275</v>
+        <v>652</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>304</v>
+        <v>653</v>
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="37">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F27" s="37">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="G27" s="37">
-        <v>90</v>
-      </c>
-      <c r="H27" s="37">
-        <v>62</v>
+        <v>87</v>
+      </c>
+      <c r="H27" s="33">
+        <v>85</v>
       </c>
       <c r="I27" s="37">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J27" s="37">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="K27" s="42">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="L27" s="42">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="M27" s="42">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" si="0"/>
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="P27" s="1">
         <v>0</v>
@@ -5950,47 +5992,47 @@
       <c r="R27" s="1"/>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="1:19" ht="36">
+    <row r="28" spans="1:19" ht="18">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>276</v>
+        <v>654</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>305</v>
+        <v>655</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="37">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="F28" s="37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G28" s="37">
-        <v>89</v>
-      </c>
-      <c r="H28" s="37">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="H28" s="33">
+        <v>76</v>
       </c>
       <c r="I28" s="37">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="J28" s="37">
         <v>66</v>
       </c>
       <c r="K28" s="42">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L28" s="42">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M28" s="42">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" si="0"/>
-        <v>684</v>
+        <v>565</v>
       </c>
       <c r="P28" s="1">
         <v>0</v>
@@ -6006,42 +6048,44 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>277</v>
+        <v>656</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="D29" s="41"/>
+        <v>657</v>
+      </c>
+      <c r="D29" s="41">
+        <v>34</v>
+      </c>
       <c r="E29" s="37">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F29" s="37">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="G29" s="37">
-        <v>91</v>
-      </c>
-      <c r="H29" s="37">
-        <v>64</v>
+        <v>42</v>
+      </c>
+      <c r="H29" s="33">
+        <v>18</v>
       </c>
       <c r="I29" s="37">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J29" s="37">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="K29" s="42">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="L29" s="42">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="M29" s="42">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" si="0"/>
-        <v>659</v>
+        <v>415</v>
       </c>
       <c r="P29" s="1">
         <v>0</v>
@@ -6057,42 +6101,44 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>278</v>
+        <v>658</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="D30" s="41"/>
+        <v>659</v>
+      </c>
+      <c r="D30" s="41">
+        <v>61</v>
+      </c>
       <c r="E30" s="37">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F30" s="37">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G30" s="37">
+        <v>73</v>
+      </c>
+      <c r="H30" s="33">
+        <v>75</v>
+      </c>
+      <c r="I30" s="37">
+        <v>70</v>
+      </c>
+      <c r="J30" s="37">
+        <v>60</v>
+      </c>
+      <c r="K30" s="42">
         <v>92</v>
       </c>
-      <c r="H30" s="37">
-        <v>77</v>
-      </c>
-      <c r="I30" s="37">
-        <v>81</v>
-      </c>
-      <c r="J30" s="37">
-        <v>50</v>
-      </c>
-      <c r="K30" s="42">
-        <v>82</v>
-      </c>
       <c r="L30" s="42">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M30" s="42">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" si="0"/>
-        <v>685</v>
+        <v>717</v>
       </c>
       <c r="P30" s="1">
         <v>0</v>
@@ -6108,42 +6154,42 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>279</v>
+        <v>660</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>308</v>
+        <v>661</v>
       </c>
       <c r="D31" s="41"/>
       <c r="E31" s="37">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F31" s="37">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G31" s="37">
-        <v>86</v>
-      </c>
-      <c r="H31" s="37">
-        <v>65</v>
+        <v>73</v>
+      </c>
+      <c r="H31" s="33">
+        <v>62</v>
       </c>
       <c r="I31" s="37">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J31" s="37">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="K31" s="42">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L31" s="42">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="M31" s="42">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="0"/>
-        <v>662</v>
+        <v>609</v>
       </c>
       <c r="P31" s="1">
         <v>0</v>
@@ -6154,47 +6200,49 @@
       <c r="R31" s="1"/>
       <c r="S31" s="8"/>
     </row>
-    <row r="32" spans="1:19" ht="36">
+    <row r="32" spans="1:19" ht="18">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>309</v>
+        <v>662</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="D32" s="41"/>
+        <v>663</v>
+      </c>
+      <c r="D32" s="41">
+        <v>64</v>
+      </c>
       <c r="E32" s="37">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F32" s="37">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="G32" s="37">
         <v>83</v>
       </c>
-      <c r="H32" s="37">
-        <v>61</v>
+      <c r="H32" s="33">
+        <v>88</v>
       </c>
       <c r="I32" s="37">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J32" s="37">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="K32" s="42">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="L32" s="42">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M32" s="42">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" si="0"/>
-        <v>612</v>
+        <v>724</v>
       </c>
       <c r="P32" s="1">
         <v>0</v>
@@ -6205,47 +6253,47 @@
       <c r="R32" s="1"/>
       <c r="S32" s="8"/>
     </row>
-    <row r="33" spans="1:19" ht="36">
+    <row r="33" spans="1:19" ht="18">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>311</v>
+        <v>664</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>312</v>
+        <v>665</v>
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="37">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F33" s="37">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G33" s="37">
-        <v>0</v>
-      </c>
-      <c r="H33" s="37">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="H33" s="33">
+        <v>86</v>
       </c>
       <c r="I33" s="37">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="J33" s="37">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K33" s="42">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="L33" s="42">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="M33" s="42">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>676</v>
       </c>
       <c r="P33" s="1">
         <v>0</v>
@@ -6261,42 +6309,42 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>313</v>
+        <v>666</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>314</v>
+        <v>667</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="37">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F34" s="37">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="G34" s="37">
-        <v>88</v>
-      </c>
-      <c r="H34" s="37">
-        <v>81</v>
+        <v>75</v>
+      </c>
+      <c r="H34" s="33">
+        <v>66</v>
       </c>
       <c r="I34" s="37">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J34" s="37">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K34" s="42">
         <v>89</v>
       </c>
       <c r="L34" s="42">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="M34" s="42">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>652</v>
       </c>
       <c r="P34" s="1">
         <v>0</v>
@@ -6307,49 +6355,47 @@
       <c r="R34" s="1"/>
       <c r="S34" s="8"/>
     </row>
-    <row r="35" spans="1:19" ht="36">
+    <row r="35" spans="1:19" ht="18">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>315</v>
+        <v>668</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="D35" s="37">
-        <v>55</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="D35" s="37"/>
       <c r="E35" s="37">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F35" s="37">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G35" s="37">
-        <v>93</v>
-      </c>
-      <c r="H35" s="37">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="H35" s="33">
+        <v>58</v>
       </c>
       <c r="I35" s="37">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="J35" s="37">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K35" s="42">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L35" s="42">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="M35" s="42">
         <v>71</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>629</v>
       </c>
       <c r="P35" s="1">
         <v>0</v>
@@ -6360,54 +6406,25 @@
       <c r="R35" s="1"/>
       <c r="S35" s="8"/>
     </row>
-    <row r="36" spans="1:19" ht="36">
+    <row r="36" spans="1:19" ht="18">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>318</v>
-      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="41"/>
-      <c r="E36" s="37">
-        <v>78</v>
-      </c>
-      <c r="F36" s="37">
-        <v>97</v>
-      </c>
-      <c r="G36" s="37">
-        <v>89</v>
-      </c>
-      <c r="H36" s="37">
-        <v>72</v>
-      </c>
-      <c r="I36" s="37">
-        <v>80</v>
-      </c>
-      <c r="J36" s="37">
-        <v>68</v>
-      </c>
-      <c r="K36" s="42">
-        <v>85</v>
-      </c>
-      <c r="L36" s="42">
-        <v>80</v>
-      </c>
-      <c r="M36" s="42">
-        <v>85</v>
-      </c>
-      <c r="N36" s="1">
-        <f t="shared" si="0"/>
-        <v>734</v>
-      </c>
-      <c r="P36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>0</v>
-      </c>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="8"/>
     </row>
@@ -6415,52 +6432,21 @@
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D37" s="37">
-        <v>55</v>
-      </c>
-      <c r="E37" s="37">
-        <v>50</v>
-      </c>
-      <c r="F37" s="37">
-        <v>93</v>
-      </c>
-      <c r="G37" s="37">
-        <v>85</v>
-      </c>
-      <c r="H37" s="37">
-        <v>81</v>
-      </c>
-      <c r="I37" s="37">
-        <v>71</v>
-      </c>
-      <c r="J37" s="37">
-        <v>50</v>
-      </c>
-      <c r="K37" s="42">
-        <v>77</v>
-      </c>
-      <c r="L37" s="42">
-        <v>67</v>
-      </c>
-      <c r="M37" s="42">
-        <v>65</v>
-      </c>
-      <c r="N37" s="1">
-        <f t="shared" si="0"/>
-        <v>694</v>
-      </c>
-      <c r="P37" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>0</v>
-      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="8"/>
     </row>
@@ -6468,50 +6454,21 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>322</v>
-      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="41"/>
-      <c r="E38" s="37">
-        <v>80</v>
-      </c>
-      <c r="F38" s="37">
-        <v>100</v>
-      </c>
-      <c r="G38" s="37">
-        <v>90</v>
-      </c>
-      <c r="H38" s="37">
-        <v>80</v>
-      </c>
-      <c r="I38" s="37">
-        <v>71</v>
-      </c>
-      <c r="J38" s="37">
-        <v>60</v>
-      </c>
-      <c r="K38" s="42">
-        <v>88</v>
-      </c>
-      <c r="L38" s="42">
-        <v>85</v>
-      </c>
-      <c r="M38" s="42">
-        <v>77</v>
-      </c>
-      <c r="N38" s="1">
-        <f t="shared" si="0"/>
-        <v>731</v>
-      </c>
-      <c r="P38" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>0</v>
-      </c>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="8"/>
     </row>
@@ -6519,52 +6476,21 @@
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D39" s="37">
-        <v>64</v>
-      </c>
-      <c r="E39" s="37">
-        <v>66</v>
-      </c>
-      <c r="F39" s="37">
-        <v>97</v>
-      </c>
-      <c r="G39" s="37">
-        <v>85</v>
-      </c>
-      <c r="H39" s="37">
-        <v>87</v>
-      </c>
-      <c r="I39" s="37">
-        <v>68</v>
-      </c>
-      <c r="J39" s="37">
-        <v>43</v>
-      </c>
-      <c r="K39" s="42">
-        <v>85</v>
-      </c>
-      <c r="L39" s="42">
-        <v>68</v>
-      </c>
-      <c r="M39" s="42">
-        <v>82</v>
-      </c>
-      <c r="N39" s="1">
-        <f t="shared" si="0"/>
-        <v>745</v>
-      </c>
-      <c r="P39" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>0</v>
-      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="8"/>
     </row>
@@ -6572,50 +6498,21 @@
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>326</v>
-      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="12"/>
       <c r="D40" s="41"/>
-      <c r="E40" s="37">
-        <v>81</v>
-      </c>
-      <c r="F40" s="37">
-        <v>97</v>
-      </c>
-      <c r="G40" s="37">
-        <v>92</v>
-      </c>
-      <c r="H40" s="37">
-        <v>83</v>
-      </c>
-      <c r="I40" s="37">
-        <v>81</v>
-      </c>
-      <c r="J40" s="37">
-        <v>55</v>
-      </c>
-      <c r="K40" s="42">
-        <v>84</v>
-      </c>
-      <c r="L40" s="42">
-        <v>75</v>
-      </c>
-      <c r="M40" s="42">
-        <v>85</v>
-      </c>
-      <c r="N40" s="1">
-        <f t="shared" si="0"/>
-        <v>733</v>
-      </c>
-      <c r="P40" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>0</v>
-      </c>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="8"/>
     </row>
@@ -6623,50 +6520,21 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>328</v>
-      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="41"/>
-      <c r="E41" s="37">
-        <v>77</v>
-      </c>
-      <c r="F41" s="37">
-        <v>97</v>
-      </c>
-      <c r="G41" s="37">
-        <v>92</v>
-      </c>
-      <c r="H41" s="37">
-        <v>84</v>
-      </c>
-      <c r="I41" s="37">
-        <v>70</v>
-      </c>
-      <c r="J41" s="37">
-        <v>54</v>
-      </c>
-      <c r="K41" s="42">
-        <v>89</v>
-      </c>
-      <c r="L41" s="42">
-        <v>77</v>
-      </c>
-      <c r="M41" s="42">
-        <v>80</v>
-      </c>
-      <c r="N41" s="1">
-        <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-      <c r="P41" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>0</v>
-      </c>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="8"/>
     </row>
@@ -6674,503 +6542,211 @@
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>330</v>
-      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="41"/>
-      <c r="E42" s="37">
-        <v>66</v>
-      </c>
-      <c r="F42" s="37">
-        <v>94</v>
-      </c>
-      <c r="G42" s="37">
-        <v>90</v>
-      </c>
-      <c r="H42" s="37">
-        <v>73</v>
-      </c>
-      <c r="I42" s="37">
-        <v>75</v>
-      </c>
-      <c r="J42" s="37">
-        <v>57</v>
-      </c>
-      <c r="K42" s="42">
-        <v>90</v>
-      </c>
-      <c r="L42" s="42">
-        <v>70</v>
-      </c>
-      <c r="M42" s="42">
-        <v>73</v>
-      </c>
-      <c r="N42" s="1">
-        <f t="shared" si="0"/>
-        <v>688</v>
-      </c>
-      <c r="P42" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>0</v>
-      </c>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="8"/>
     </row>
-    <row r="43" spans="1:19" ht="36">
+    <row r="43" spans="1:19" ht="18">
       <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>332</v>
-      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="41"/>
-      <c r="E43" s="37">
-        <v>77</v>
-      </c>
-      <c r="F43" s="37">
-        <v>97</v>
-      </c>
-      <c r="G43" s="37">
-        <v>87</v>
-      </c>
-      <c r="H43" s="37">
-        <v>66</v>
-      </c>
-      <c r="I43" s="37">
-        <v>72</v>
-      </c>
-      <c r="J43" s="37">
-        <v>56</v>
-      </c>
-      <c r="K43" s="42">
-        <v>89</v>
-      </c>
-      <c r="L43" s="42">
-        <v>65</v>
-      </c>
-      <c r="M43" s="42">
-        <v>75</v>
-      </c>
-      <c r="N43" s="1">
-        <f t="shared" si="0"/>
-        <v>684</v>
-      </c>
-      <c r="P43" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>0</v>
-      </c>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="1:19" ht="36">
+    <row r="44" spans="1:19" ht="18">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>334</v>
-      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="41"/>
-      <c r="E44" s="37">
-        <v>76</v>
-      </c>
-      <c r="F44" s="37">
-        <v>97</v>
-      </c>
-      <c r="G44" s="37">
-        <v>87</v>
-      </c>
-      <c r="H44" s="37">
-        <v>72</v>
-      </c>
-      <c r="I44" s="37">
-        <v>55</v>
-      </c>
-      <c r="J44" s="37">
-        <v>50</v>
-      </c>
-      <c r="K44" s="42">
-        <v>80</v>
-      </c>
-      <c r="L44" s="42">
-        <v>58</v>
-      </c>
-      <c r="M44" s="42">
-        <v>70</v>
-      </c>
-      <c r="N44" s="1">
-        <f t="shared" si="0"/>
-        <v>645</v>
-      </c>
-      <c r="P44" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>0</v>
-      </c>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
     </row>
     <row r="45" spans="1:19" ht="18">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>336</v>
-      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
       <c r="D45" s="41"/>
-      <c r="E45" s="37">
-        <v>78</v>
-      </c>
-      <c r="F45" s="37">
-        <v>93</v>
-      </c>
-      <c r="G45" s="37">
-        <v>85</v>
-      </c>
-      <c r="H45" s="37">
-        <v>80</v>
-      </c>
-      <c r="I45" s="37">
-        <v>70</v>
-      </c>
-      <c r="J45" s="37">
-        <v>50</v>
-      </c>
-      <c r="K45" s="42">
-        <v>89</v>
-      </c>
-      <c r="L45" s="42">
-        <v>65</v>
-      </c>
-      <c r="M45" s="42">
-        <v>65</v>
-      </c>
-      <c r="N45" s="1">
-        <f t="shared" si="0"/>
-        <v>675</v>
-      </c>
-      <c r="P45" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>0</v>
-      </c>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
     <row r="46" spans="1:19" ht="18">
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>338</v>
-      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
       <c r="D46" s="41"/>
-      <c r="E46" s="37">
-        <v>84</v>
-      </c>
-      <c r="F46" s="37">
-        <v>100</v>
-      </c>
-      <c r="G46" s="37">
-        <v>88</v>
-      </c>
-      <c r="H46" s="37">
-        <v>89</v>
-      </c>
-      <c r="I46" s="37">
-        <v>88</v>
-      </c>
-      <c r="J46" s="37">
-        <v>64</v>
-      </c>
-      <c r="K46" s="42">
-        <v>92</v>
-      </c>
-      <c r="L46" s="42">
-        <v>85</v>
-      </c>
-      <c r="M46" s="42">
-        <v>85</v>
-      </c>
-      <c r="N46" s="1">
-        <f t="shared" si="0"/>
-        <v>775</v>
-      </c>
-      <c r="P46" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="1">
-        <v>0</v>
-      </c>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
     <row r="47" spans="1:19" ht="18">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>340</v>
-      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="41"/>
-      <c r="E47" s="37">
-        <v>68</v>
-      </c>
-      <c r="F47" s="37">
-        <v>97</v>
-      </c>
-      <c r="G47" s="37">
-        <v>92</v>
-      </c>
-      <c r="H47" s="37">
-        <v>83</v>
-      </c>
-      <c r="I47" s="37">
-        <v>80</v>
-      </c>
-      <c r="J47" s="37">
-        <v>54</v>
-      </c>
-      <c r="K47" s="42">
-        <v>84</v>
-      </c>
-      <c r="L47" s="42">
-        <v>85</v>
-      </c>
-      <c r="M47" s="42">
-        <v>77</v>
-      </c>
-      <c r="N47" s="1">
-        <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-      <c r="P47" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="1">
-        <v>0</v>
-      </c>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
     <row r="48" spans="1:19" ht="18">
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>342</v>
-      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
       <c r="D48" s="41"/>
-      <c r="E48" s="37">
-        <v>71</v>
-      </c>
-      <c r="F48" s="37">
-        <v>100</v>
-      </c>
-      <c r="G48" s="37">
-        <v>87</v>
-      </c>
-      <c r="H48" s="37">
-        <v>70</v>
-      </c>
-      <c r="I48" s="37">
-        <v>76</v>
-      </c>
-      <c r="J48" s="37">
-        <v>42</v>
-      </c>
-      <c r="K48" s="42">
-        <v>86</v>
-      </c>
-      <c r="L48" s="42">
-        <v>60</v>
-      </c>
-      <c r="M48" s="42">
-        <v>71</v>
-      </c>
-      <c r="N48" s="1">
-        <f t="shared" si="0"/>
-        <v>663</v>
-      </c>
-      <c r="P48" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="1">
-        <v>0</v>
-      </c>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:18" ht="18">
       <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="D49" s="37">
-        <v>55</v>
-      </c>
-      <c r="E49" s="37">
-        <v>80</v>
-      </c>
-      <c r="F49" s="37">
-        <v>93</v>
-      </c>
-      <c r="G49" s="37">
-        <v>89</v>
-      </c>
-      <c r="H49" s="37">
-        <v>82</v>
-      </c>
-      <c r="I49" s="37">
-        <v>80</v>
-      </c>
-      <c r="J49" s="37">
-        <v>53</v>
-      </c>
-      <c r="K49" s="42">
-        <v>83</v>
-      </c>
-      <c r="L49" s="42">
-        <v>71</v>
-      </c>
-      <c r="M49" s="42">
-        <v>80</v>
-      </c>
-      <c r="N49" s="1">
-        <f t="shared" si="0"/>
-        <v>766</v>
-      </c>
-      <c r="P49" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="1">
-        <v>0</v>
-      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="1:18" ht="18">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>346</v>
-      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="41"/>
-      <c r="E50" s="37">
-        <v>85</v>
-      </c>
-      <c r="F50" s="37">
-        <v>92</v>
-      </c>
-      <c r="G50" s="37">
-        <v>90</v>
-      </c>
-      <c r="H50" s="37">
-        <v>86</v>
-      </c>
-      <c r="I50" s="37">
-        <v>70</v>
-      </c>
-      <c r="J50" s="37">
-        <v>50</v>
-      </c>
-      <c r="K50" s="42">
-        <v>92</v>
-      </c>
-      <c r="L50" s="42">
-        <v>65</v>
-      </c>
-      <c r="M50" s="42">
-        <v>70</v>
-      </c>
-      <c r="N50" s="1">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="P50" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="1">
-        <v>0</v>
-      </c>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" ht="18">
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>348</v>
-      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="41"/>
-      <c r="E51" s="37">
-        <v>79</v>
-      </c>
-      <c r="F51" s="37">
-        <v>95</v>
-      </c>
-      <c r="G51" s="37">
-        <v>85</v>
-      </c>
-      <c r="H51" s="37">
-        <v>75</v>
-      </c>
-      <c r="I51" s="37">
-        <v>70</v>
-      </c>
-      <c r="J51" s="37">
-        <v>52</v>
-      </c>
-      <c r="K51" s="42">
-        <v>85</v>
-      </c>
-      <c r="L51" s="42">
-        <v>75</v>
-      </c>
-      <c r="M51" s="42">
-        <v>80</v>
-      </c>
-      <c r="N51" s="1">
-        <f t="shared" si="0"/>
-        <v>696</v>
-      </c>
-      <c r="P51" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>0</v>
-      </c>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
     </row>
     <row r="52" spans="1:18" ht="18">
@@ -9757,7 +9333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -9876,10 +9452,10 @@
         <v>61.857142857142854</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="8" t="s">
@@ -9929,10 +9505,10 @@
         <v>59</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="8" t="s">
@@ -9980,10 +9556,10 @@
         <v>64.857142857142861</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="8" t="s">
@@ -10031,10 +9607,10 @@
         <v>72.714285714285708</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="8" t="s">
@@ -10082,10 +9658,10 @@
         <v>90.142857142857153</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="8" t="s">
@@ -10133,10 +9709,10 @@
         <v>63.714285714285715</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="8" t="s">
@@ -10186,10 +9762,10 @@
         <v>79.285714285714278</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="8" t="s">
@@ -10237,10 +9813,10 @@
         <v>67.428571428571431</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="8" t="s">
@@ -10290,10 +9866,10 @@
         <v>14.857142857142858</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="8" t="s">
@@ -10343,10 +9919,10 @@
         <v>66.571428571428569</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="8" t="s">
@@ -10396,10 +9972,10 @@
         <v>58.571428571428577</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="8" t="s">
@@ -10447,10 +10023,10 @@
         <v>55.000000000000007</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="8" t="s">
@@ -10500,10 +10076,10 @@
         <v>64.285714285714292</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="8" t="s">
@@ -10553,10 +10129,10 @@
         <v>58.857142857142854</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="8" t="s">
@@ -10604,10 +10180,10 @@
         <v>65.428571428571431</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="8" t="s">
@@ -10657,10 +10233,10 @@
         <v>64.714285714285708</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="8" t="s">
@@ -10708,10 +10284,10 @@
         <v>73.428571428571431</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="8" t="s">
@@ -10759,10 +10335,10 @@
         <v>65.142857142857153</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="8" t="s">
@@ -10810,10 +10386,10 @@
         <v>56.142857142857139</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="8" t="s">
@@ -10861,10 +10437,10 @@
         <v>59.428571428571431</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="8" t="s">
@@ -10912,10 +10488,10 @@
         <v>71.857142857142847</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="8" t="s">
@@ -10963,10 +10539,10 @@
         <v>61</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="8" t="s">
@@ -11016,10 +10592,10 @@
         <v>79.142857142857153</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="8" t="s">
@@ -11069,10 +10645,10 @@
         <v>56.857142857142861</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="8" t="s">
@@ -11120,10 +10696,10 @@
         <v>66.285714285714278</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="8" t="s">
@@ -11173,10 +10749,10 @@
         <v>60.142857142857139</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="8" t="s">
@@ -11226,10 +10802,10 @@
         <v>73.428571428571431</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="8" t="s">
@@ -11277,10 +10853,10 @@
         <v>59.571428571428577</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="8" t="s">
@@ -11328,10 +10904,10 @@
         <v>73.285714285714292</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="8" t="s">
@@ -11379,10 +10955,10 @@
         <v>72.285714285714292</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="8" t="s">
@@ -11430,10 +11006,10 @@
         <v>72.142857142857139</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="8" t="s">
@@ -11483,10 +11059,10 @@
         <v>77.571428571428569</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="8" t="s">
@@ -11534,10 +11110,10 @@
         <v>64</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="8" t="s">
@@ -11585,10 +11161,10 @@
         <v>66.714285714285708</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="8" t="s">
@@ -11636,10 +11212,10 @@
         <v>65.428571428571431</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="8" t="s">
@@ -11687,10 +11263,10 @@
         <v>62</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="8" t="s">
@@ -11740,10 +11316,10 @@
         <v>80.857142857142861</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="8" t="s">
@@ -11793,10 +11369,10 @@
         <v>73.714285714285708</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="8" t="s">
@@ -11844,10 +11420,10 @@
         <v>72.571428571428569</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="8" t="s">
@@ -11895,10 +11471,10 @@
         <v>60.571428571428577</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="8" t="s">
@@ -12105,7 +11681,7 @@
         <v>137</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>349</v>
+        <v>254</v>
       </c>
       <c r="D2" s="49"/>
       <c r="E2" s="50">
@@ -12151,7 +11727,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>350</v>
+        <v>255</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>16</v>
@@ -12202,10 +11778,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>351</v>
+        <v>256</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>352</v>
+        <v>257</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="37">
@@ -12251,10 +11827,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>353</v>
+        <v>258</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>354</v>
+        <v>259</v>
       </c>
       <c r="D5" s="49"/>
       <c r="E5" s="37">
@@ -12300,10 +11876,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>355</v>
+        <v>260</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>356</v>
+        <v>261</v>
       </c>
       <c r="D6" s="37">
         <v>76</v>
@@ -12351,10 +11927,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>357</v>
+        <v>262</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>358</v>
+        <v>263</v>
       </c>
       <c r="D7" s="37">
         <v>69</v>
@@ -12402,10 +11978,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>359</v>
+        <v>264</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>360</v>
+        <v>265</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="36">
@@ -12451,10 +12027,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>361</v>
+        <v>266</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>362</v>
+        <v>267</v>
       </c>
       <c r="D9" s="37">
         <v>58</v>
@@ -12502,10 +12078,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>363</v>
+        <v>268</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>364</v>
+        <v>269</v>
       </c>
       <c r="D10" s="37">
         <v>82</v>
@@ -12553,10 +12129,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>365</v>
+        <v>270</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="36">
@@ -12602,10 +12178,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>367</v>
+        <v>272</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>368</v>
+        <v>273</v>
       </c>
       <c r="D12" s="37">
         <v>50</v>
@@ -12653,10 +12229,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>369</v>
+        <v>274</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>370</v>
+        <v>275</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="37">
@@ -12702,10 +12278,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>371</v>
+        <v>276</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="D14" s="37">
         <v>68</v>
@@ -12753,10 +12329,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>372</v>
+        <v>277</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>373</v>
+        <v>278</v>
       </c>
       <c r="D15" s="49"/>
       <c r="E15" s="36">
@@ -12802,10 +12378,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>374</v>
+        <v>279</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>375</v>
+        <v>280</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="37">
@@ -12851,10 +12427,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>376</v>
+        <v>281</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>377</v>
+        <v>282</v>
       </c>
       <c r="D17" s="37">
         <v>73</v>
@@ -12902,10 +12478,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>378</v>
+        <v>283</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>379</v>
+        <v>284</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="37">
@@ -12951,10 +12527,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>380</v>
+        <v>285</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>381</v>
+        <v>286</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="37">
@@ -13000,10 +12576,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>382</v>
+        <v>287</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>383</v>
+        <v>288</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="37">
@@ -13049,10 +12625,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>384</v>
+        <v>289</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>385</v>
+        <v>290</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="36">
@@ -13098,10 +12674,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>386</v>
+        <v>291</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>387</v>
+        <v>292</v>
       </c>
       <c r="D22" s="49"/>
       <c r="E22" s="36">
@@ -13147,10 +12723,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>388</v>
+        <v>293</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>389</v>
+        <v>294</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="37">
@@ -13196,10 +12772,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>390</v>
+        <v>295</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>391</v>
+        <v>296</v>
       </c>
       <c r="D24" s="49"/>
       <c r="E24" s="36">
@@ -13245,10 +12821,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>392</v>
+        <v>297</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>393</v>
+        <v>298</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="37">
@@ -13294,10 +12870,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>394</v>
+        <v>299</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>395</v>
+        <v>300</v>
       </c>
       <c r="D26" s="37">
         <v>64</v>
@@ -13345,10 +12921,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>396</v>
+        <v>301</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>397</v>
+        <v>302</v>
       </c>
       <c r="D27" s="49"/>
       <c r="E27" s="37">
@@ -13394,10 +12970,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>398</v>
+        <v>303</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="D28" s="49"/>
       <c r="E28" s="36">
@@ -13443,10 +13019,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>399</v>
+        <v>304</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>400</v>
+        <v>305</v>
       </c>
       <c r="D29" s="49"/>
       <c r="E29" s="37">
@@ -13492,10 +13068,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>401</v>
+        <v>306</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>402</v>
+        <v>307</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="37">
@@ -13541,10 +13117,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>403</v>
+        <v>308</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>404</v>
+        <v>309</v>
       </c>
       <c r="D31" s="49"/>
       <c r="E31" s="36">
@@ -13590,10 +13166,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>405</v>
+        <v>310</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>406</v>
+        <v>311</v>
       </c>
       <c r="D32" s="49"/>
       <c r="E32" s="37">
@@ -13639,10 +13215,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>407</v>
+        <v>312</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>408</v>
+        <v>313</v>
       </c>
       <c r="D33" s="36">
         <v>23</v>
@@ -13690,10 +13266,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>409</v>
+        <v>314</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>410</v>
+        <v>315</v>
       </c>
       <c r="D34" s="37">
         <v>75</v>
@@ -13741,10 +13317,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>411</v>
+        <v>316</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>412</v>
+        <v>317</v>
       </c>
       <c r="D35" s="49"/>
       <c r="E35" s="37">
@@ -13790,10 +13366,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>413</v>
+        <v>318</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>414</v>
+        <v>319</v>
       </c>
       <c r="D36" s="37">
         <v>62</v>
@@ -13841,10 +13417,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>415</v>
+        <v>320</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>416</v>
+        <v>321</v>
       </c>
       <c r="D37" s="49"/>
       <c r="E37" s="37">
@@ -14123,6 +13699,2739 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC6F580-C423-498F-AB5F-7928C17EA6A9}">
+  <dimension ref="A1:S51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A2:A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="27.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="34.5703125" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" customHeight="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E2" s="35">
+        <v>70</v>
+      </c>
+      <c r="F2" s="35">
+        <v>72</v>
+      </c>
+      <c r="G2" s="35">
+        <v>84</v>
+      </c>
+      <c r="H2" s="35">
+        <v>76</v>
+      </c>
+      <c r="I2" s="35">
+        <v>75</v>
+      </c>
+      <c r="J2" s="35">
+        <v>62</v>
+      </c>
+      <c r="K2" s="35">
+        <v>62</v>
+      </c>
+      <c r="L2" s="35">
+        <v>50</v>
+      </c>
+      <c r="M2" s="35">
+        <v>50</v>
+      </c>
+      <c r="N2" s="1">
+        <f>SUM(E2:M2)</f>
+        <v>601</v>
+      </c>
+      <c r="O2" s="1">
+        <f>(N2/700)*100</f>
+        <v>85.857142857142861</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E3" s="37">
+        <v>72</v>
+      </c>
+      <c r="F3" s="37">
+        <v>88</v>
+      </c>
+      <c r="G3" s="37">
+        <v>85</v>
+      </c>
+      <c r="H3" s="37">
+        <v>70</v>
+      </c>
+      <c r="I3" s="37">
+        <v>65</v>
+      </c>
+      <c r="J3" s="37">
+        <v>62</v>
+      </c>
+      <c r="K3" s="37">
+        <v>51</v>
+      </c>
+      <c r="L3" s="37">
+        <v>50</v>
+      </c>
+      <c r="M3" s="37">
+        <v>50</v>
+      </c>
+      <c r="N3" s="1">
+        <f>SUM(E3:M3)</f>
+        <v>593</v>
+      </c>
+      <c r="O3" s="1">
+        <f>(N3/700)*100</f>
+        <v>84.714285714285722</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E4" s="37">
+        <v>70</v>
+      </c>
+      <c r="F4" s="37">
+        <v>81</v>
+      </c>
+      <c r="G4" s="37">
+        <v>82</v>
+      </c>
+      <c r="H4" s="37">
+        <v>83</v>
+      </c>
+      <c r="I4" s="37">
+        <v>70</v>
+      </c>
+      <c r="J4" s="37">
+        <v>57</v>
+      </c>
+      <c r="K4" s="37">
+        <v>75</v>
+      </c>
+      <c r="L4" s="37">
+        <v>50</v>
+      </c>
+      <c r="M4" s="37">
+        <v>40</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N50" si="0">SUM(E4:M4)</f>
+        <v>608</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O50" si="1">(N4/700)*100</f>
+        <v>86.857142857142861</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E5" s="33">
+        <v>70</v>
+      </c>
+      <c r="F5" s="33">
+        <v>88</v>
+      </c>
+      <c r="G5" s="33">
+        <v>70</v>
+      </c>
+      <c r="H5" s="33">
+        <v>82</v>
+      </c>
+      <c r="I5" s="33">
+        <v>65</v>
+      </c>
+      <c r="J5" s="33">
+        <v>85</v>
+      </c>
+      <c r="K5" s="33">
+        <v>68</v>
+      </c>
+      <c r="L5" s="33">
+        <v>52</v>
+      </c>
+      <c r="M5" s="33">
+        <v>40</v>
+      </c>
+      <c r="N5" s="1" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O5" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="8"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E6" s="33">
+        <v>90</v>
+      </c>
+      <c r="F6" s="33">
+        <v>100</v>
+      </c>
+      <c r="G6" s="33">
+        <v>86</v>
+      </c>
+      <c r="H6" s="33">
+        <v>94</v>
+      </c>
+      <c r="I6" s="33">
+        <v>96</v>
+      </c>
+      <c r="J6" s="33">
+        <v>88</v>
+      </c>
+      <c r="K6" s="33">
+        <v>83</v>
+      </c>
+      <c r="L6" s="33">
+        <v>85</v>
+      </c>
+      <c r="M6" s="33">
+        <v>82</v>
+      </c>
+      <c r="N6" s="1">
+        <f>SUM(E5:M5)</f>
+        <v>620</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="1"/>
+        <v>88.571428571428569</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E7" s="33">
+        <v>62</v>
+      </c>
+      <c r="F7" s="33">
+        <v>85</v>
+      </c>
+      <c r="G7" s="33">
+        <v>77</v>
+      </c>
+      <c r="H7" s="33">
+        <v>80</v>
+      </c>
+      <c r="I7" s="33">
+        <v>67</v>
+      </c>
+      <c r="J7" s="33">
+        <v>52</v>
+      </c>
+      <c r="K7" s="33">
+        <v>57</v>
+      </c>
+      <c r="L7" s="33">
+        <v>50</v>
+      </c>
+      <c r="M7" s="33">
+        <v>37</v>
+      </c>
+      <c r="N7" s="1">
+        <f>SUM(E6:M6)</f>
+        <v>804</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="1"/>
+        <v>114.85714285714286</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E8" s="33">
+        <v>83</v>
+      </c>
+      <c r="F8" s="33">
+        <v>92</v>
+      </c>
+      <c r="G8" s="33">
+        <v>86</v>
+      </c>
+      <c r="H8" s="33">
+        <v>81</v>
+      </c>
+      <c r="I8" s="33">
+        <v>80</v>
+      </c>
+      <c r="J8" s="33">
+        <v>76</v>
+      </c>
+      <c r="K8" s="33">
+        <v>55</v>
+      </c>
+      <c r="L8" s="33">
+        <v>55</v>
+      </c>
+      <c r="M8" s="33">
+        <v>50</v>
+      </c>
+      <c r="N8" s="1">
+        <f>SUM(E7:M7)</f>
+        <v>567</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E9" s="33">
+        <v>75</v>
+      </c>
+      <c r="F9" s="33">
+        <v>85</v>
+      </c>
+      <c r="G9" s="33">
+        <v>80</v>
+      </c>
+      <c r="H9" s="33">
+        <v>83</v>
+      </c>
+      <c r="I9" s="33">
+        <v>80</v>
+      </c>
+      <c r="J9" s="33">
+        <v>75</v>
+      </c>
+      <c r="K9" s="33">
+        <v>62</v>
+      </c>
+      <c r="L9" s="33">
+        <v>60</v>
+      </c>
+      <c r="M9" s="33">
+        <v>51</v>
+      </c>
+      <c r="N9" s="1">
+        <f>SUM(E8:M8)</f>
+        <v>658</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E10" s="33">
+        <v>65</v>
+      </c>
+      <c r="F10" s="33">
+        <v>80</v>
+      </c>
+      <c r="G10" s="33">
+        <v>84</v>
+      </c>
+      <c r="H10" s="33">
+        <v>86</v>
+      </c>
+      <c r="I10" s="33">
+        <v>85</v>
+      </c>
+      <c r="J10" s="33">
+        <v>76</v>
+      </c>
+      <c r="K10" s="33">
+        <v>56</v>
+      </c>
+      <c r="L10" s="33">
+        <v>51</v>
+      </c>
+      <c r="M10" s="33">
+        <v>50</v>
+      </c>
+      <c r="N10" s="1">
+        <f>SUM(E9:M9)</f>
+        <v>651</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>675</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>673</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>673</v>
+      </c>
+      <c r="G11" s="33">
+        <v>74</v>
+      </c>
+      <c r="H11" s="33">
+        <v>55</v>
+      </c>
+      <c r="I11" s="33">
+        <v>55</v>
+      </c>
+      <c r="J11" s="33">
+        <v>60</v>
+      </c>
+      <c r="K11" s="33">
+        <v>51</v>
+      </c>
+      <c r="L11" s="33">
+        <v>50</v>
+      </c>
+      <c r="M11" s="33">
+        <v>50</v>
+      </c>
+      <c r="N11" s="1">
+        <f>SUM(E10:M10)</f>
+        <v>633</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="1"/>
+        <v>90.428571428571431</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>673</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>673</v>
+      </c>
+      <c r="G12" s="33">
+        <v>81</v>
+      </c>
+      <c r="H12" s="33">
+        <v>50</v>
+      </c>
+      <c r="I12" s="33">
+        <v>67</v>
+      </c>
+      <c r="J12" s="33">
+        <v>72</v>
+      </c>
+      <c r="K12" s="33">
+        <v>52</v>
+      </c>
+      <c r="L12" s="33">
+        <v>55</v>
+      </c>
+      <c r="M12" s="33">
+        <v>50</v>
+      </c>
+      <c r="N12" s="1" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O12" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>677</v>
+      </c>
+      <c r="E13" s="33">
+        <v>70</v>
+      </c>
+      <c r="F13" s="33">
+        <v>80</v>
+      </c>
+      <c r="G13" s="33">
+        <v>80</v>
+      </c>
+      <c r="H13" s="33">
+        <v>75</v>
+      </c>
+      <c r="I13" s="33">
+        <v>67</v>
+      </c>
+      <c r="J13" s="33">
+        <v>65</v>
+      </c>
+      <c r="K13" s="33">
+        <v>56</v>
+      </c>
+      <c r="L13" s="33">
+        <v>56</v>
+      </c>
+      <c r="M13" s="33">
+        <v>51</v>
+      </c>
+      <c r="N13" s="1">
+        <f>SUM(E12:M12)</f>
+        <v>427</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>673</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>673</v>
+      </c>
+      <c r="G14" s="33">
+        <v>82</v>
+      </c>
+      <c r="H14" s="33">
+        <v>25</v>
+      </c>
+      <c r="I14" s="33">
+        <v>67</v>
+      </c>
+      <c r="J14" s="33">
+        <v>72</v>
+      </c>
+      <c r="K14" s="33">
+        <v>50</v>
+      </c>
+      <c r="L14" s="33">
+        <v>55</v>
+      </c>
+      <c r="M14" s="33">
+        <v>50</v>
+      </c>
+      <c r="N14" s="1">
+        <f>SUM(E13:M13)</f>
+        <v>600</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="1"/>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E15" s="33">
+        <v>70</v>
+      </c>
+      <c r="F15" s="33">
+        <v>77</v>
+      </c>
+      <c r="G15" s="33">
+        <v>83</v>
+      </c>
+      <c r="H15" s="33">
+        <v>76</v>
+      </c>
+      <c r="I15" s="33">
+        <v>82</v>
+      </c>
+      <c r="J15" s="33">
+        <v>75</v>
+      </c>
+      <c r="K15" s="33">
+        <v>77</v>
+      </c>
+      <c r="L15" s="33">
+        <v>52</v>
+      </c>
+      <c r="M15" s="33">
+        <v>50</v>
+      </c>
+      <c r="N15" s="1" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O15" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="E16" s="33">
+        <v>0</v>
+      </c>
+      <c r="F16" s="33">
+        <v>0</v>
+      </c>
+      <c r="G16" s="33">
+        <v>71</v>
+      </c>
+      <c r="H16" s="33">
+        <v>77</v>
+      </c>
+      <c r="I16" s="33">
+        <v>67</v>
+      </c>
+      <c r="J16" s="33">
+        <v>61</v>
+      </c>
+      <c r="K16" s="33">
+        <v>50</v>
+      </c>
+      <c r="L16" s="33">
+        <v>50</v>
+      </c>
+      <c r="M16" s="33">
+        <v>35</v>
+      </c>
+      <c r="N16" s="1">
+        <f>SUM(E15:M15)</f>
+        <v>642</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="1"/>
+        <v>91.714285714285708</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E17" s="33">
+        <v>75</v>
+      </c>
+      <c r="F17" s="33">
+        <v>90</v>
+      </c>
+      <c r="G17" s="33">
+        <v>84</v>
+      </c>
+      <c r="H17" s="33">
+        <v>78</v>
+      </c>
+      <c r="I17" s="33">
+        <v>87</v>
+      </c>
+      <c r="J17" s="33">
+        <v>86</v>
+      </c>
+      <c r="K17" s="33">
+        <v>51</v>
+      </c>
+      <c r="L17" s="33">
+        <v>70</v>
+      </c>
+      <c r="M17" s="33">
+        <v>70</v>
+      </c>
+      <c r="N17" s="1">
+        <f>SUM(E16:M16)</f>
+        <v>411</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="1"/>
+        <v>58.714285714285722</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E18" s="33">
+        <v>70</v>
+      </c>
+      <c r="F18" s="33">
+        <v>90</v>
+      </c>
+      <c r="G18" s="33">
+        <v>82</v>
+      </c>
+      <c r="H18" s="33">
+        <v>57</v>
+      </c>
+      <c r="I18" s="33">
+        <v>72</v>
+      </c>
+      <c r="J18" s="33">
+        <v>82</v>
+      </c>
+      <c r="K18" s="33">
+        <v>57</v>
+      </c>
+      <c r="L18" s="33">
+        <v>60</v>
+      </c>
+      <c r="M18" s="33">
+        <v>55</v>
+      </c>
+      <c r="N18" s="1">
+        <f>SUM(E17:M17)</f>
+        <v>691</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="1"/>
+        <v>98.714285714285708</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>680</v>
+      </c>
+      <c r="E19" s="33">
+        <v>0</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>673</v>
+      </c>
+      <c r="G19" s="33">
+        <v>62</v>
+      </c>
+      <c r="H19" s="33">
+        <v>55</v>
+      </c>
+      <c r="I19" s="34">
+        <v>15</v>
+      </c>
+      <c r="J19" s="33">
+        <v>3</v>
+      </c>
+      <c r="K19" s="33">
+        <v>50</v>
+      </c>
+      <c r="L19" s="33">
+        <v>50</v>
+      </c>
+      <c r="M19" s="33">
+        <v>35</v>
+      </c>
+      <c r="N19" s="1">
+        <f>SUM(E18:M18)</f>
+        <v>625</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="1"/>
+        <v>89.285714285714292</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E20" s="33">
+        <v>70</v>
+      </c>
+      <c r="F20" s="33">
+        <v>82</v>
+      </c>
+      <c r="G20" s="33">
+        <v>71</v>
+      </c>
+      <c r="H20" s="33">
+        <v>78</v>
+      </c>
+      <c r="I20" s="33">
+        <v>65</v>
+      </c>
+      <c r="J20" s="33">
+        <v>67</v>
+      </c>
+      <c r="K20" s="33">
+        <v>53</v>
+      </c>
+      <c r="L20" s="33">
+        <v>50</v>
+      </c>
+      <c r="M20" s="33">
+        <v>34</v>
+      </c>
+      <c r="N20" s="1">
+        <f>SUM(E19:M19)</f>
+        <v>270</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="1"/>
+        <v>38.571428571428577</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E21" s="33">
+        <v>80</v>
+      </c>
+      <c r="F21" s="33">
+        <v>90</v>
+      </c>
+      <c r="G21" s="33">
+        <v>85</v>
+      </c>
+      <c r="H21" s="33">
+        <v>80</v>
+      </c>
+      <c r="I21" s="33">
+        <v>70</v>
+      </c>
+      <c r="J21" s="33">
+        <v>71</v>
+      </c>
+      <c r="K21" s="33">
+        <v>67</v>
+      </c>
+      <c r="L21" s="33">
+        <v>55</v>
+      </c>
+      <c r="M21" s="33">
+        <v>50</v>
+      </c>
+      <c r="N21" s="1">
+        <f>SUM(E20:M20)</f>
+        <v>570</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="1"/>
+        <v>81.428571428571431</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>681</v>
+      </c>
+      <c r="E22" s="33">
+        <v>70</v>
+      </c>
+      <c r="F22" s="33">
+        <v>83</v>
+      </c>
+      <c r="G22" s="33">
+        <v>73</v>
+      </c>
+      <c r="H22" s="33">
+        <v>76</v>
+      </c>
+      <c r="I22" s="33">
+        <v>55</v>
+      </c>
+      <c r="J22" s="33">
+        <v>60</v>
+      </c>
+      <c r="K22" s="33">
+        <v>55</v>
+      </c>
+      <c r="L22" s="33">
+        <v>51</v>
+      </c>
+      <c r="M22" s="33">
+        <v>50</v>
+      </c>
+      <c r="N22" s="1">
+        <f>SUM(E21:M21)</f>
+        <v>648</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="1"/>
+        <v>92.571428571428569</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E23" s="33">
+        <v>80</v>
+      </c>
+      <c r="F23" s="33">
+        <v>100</v>
+      </c>
+      <c r="G23" s="33">
+        <v>84</v>
+      </c>
+      <c r="H23" s="33">
+        <v>87</v>
+      </c>
+      <c r="I23" s="33">
+        <v>89</v>
+      </c>
+      <c r="J23" s="33">
+        <v>87</v>
+      </c>
+      <c r="K23" s="33">
+        <v>73</v>
+      </c>
+      <c r="L23" s="33">
+        <v>60</v>
+      </c>
+      <c r="M23" s="33">
+        <v>51</v>
+      </c>
+      <c r="N23" s="1">
+        <f>SUM(E22:M22)</f>
+        <v>573</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="1"/>
+        <v>81.857142857142861</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="8"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E24" s="33">
+        <v>65</v>
+      </c>
+      <c r="F24" s="33">
+        <v>78</v>
+      </c>
+      <c r="G24" s="33">
+        <v>77</v>
+      </c>
+      <c r="H24" s="33">
+        <v>72</v>
+      </c>
+      <c r="I24" s="33">
+        <v>60</v>
+      </c>
+      <c r="J24" s="33">
+        <v>57</v>
+      </c>
+      <c r="K24" s="33">
+        <v>38</v>
+      </c>
+      <c r="L24" s="33">
+        <v>50</v>
+      </c>
+      <c r="M24" s="33">
+        <v>31</v>
+      </c>
+      <c r="N24" s="1">
+        <f>SUM(E23:M23)</f>
+        <v>711</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="1"/>
+        <v>101.57142857142858</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="8"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E25" s="33">
+        <v>60</v>
+      </c>
+      <c r="F25" s="33">
+        <v>76</v>
+      </c>
+      <c r="G25" s="33">
+        <v>82</v>
+      </c>
+      <c r="H25" s="33">
+        <v>77</v>
+      </c>
+      <c r="I25" s="33">
+        <v>65</v>
+      </c>
+      <c r="J25" s="33">
+        <v>57</v>
+      </c>
+      <c r="K25" s="33">
+        <v>55</v>
+      </c>
+      <c r="L25" s="33">
+        <v>51</v>
+      </c>
+      <c r="M25" s="33">
+        <v>43</v>
+      </c>
+      <c r="N25" s="1">
+        <f>SUM(E24:M24)</f>
+        <v>528</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="1"/>
+        <v>75.428571428571431</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="8"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E26" s="33">
+        <v>70</v>
+      </c>
+      <c r="F26" s="33">
+        <v>80</v>
+      </c>
+      <c r="G26" s="33">
+        <v>82</v>
+      </c>
+      <c r="H26" s="33">
+        <v>78</v>
+      </c>
+      <c r="I26" s="33">
+        <v>75</v>
+      </c>
+      <c r="J26" s="33">
+        <v>61</v>
+      </c>
+      <c r="K26" s="33">
+        <v>53</v>
+      </c>
+      <c r="L26" s="33">
+        <v>50</v>
+      </c>
+      <c r="M26" s="33">
+        <v>43</v>
+      </c>
+      <c r="N26" s="1">
+        <f>SUM(E25:M25)</f>
+        <v>566</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="1"/>
+        <v>80.857142857142861</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="8"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E27" s="33">
+        <v>81</v>
+      </c>
+      <c r="F27" s="33">
+        <v>95</v>
+      </c>
+      <c r="G27" s="33">
+        <v>83</v>
+      </c>
+      <c r="H27" s="33">
+        <v>85</v>
+      </c>
+      <c r="I27" s="33">
+        <v>85</v>
+      </c>
+      <c r="J27" s="33">
+        <v>80</v>
+      </c>
+      <c r="K27" s="33">
+        <v>66</v>
+      </c>
+      <c r="L27" s="33">
+        <v>75</v>
+      </c>
+      <c r="M27" s="33">
+        <v>65</v>
+      </c>
+      <c r="N27" s="1">
+        <f>SUM(E26:M26)</f>
+        <v>592</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="1"/>
+        <v>84.571428571428569</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="8"/>
+    </row>
+    <row r="28" spans="1:19" ht="31.5">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E28" s="33">
+        <v>55</v>
+      </c>
+      <c r="F28" s="33">
+        <v>75</v>
+      </c>
+      <c r="G28" s="33">
+        <v>64</v>
+      </c>
+      <c r="H28" s="33">
+        <v>75</v>
+      </c>
+      <c r="I28" s="33">
+        <v>55</v>
+      </c>
+      <c r="J28" s="33">
+        <v>65</v>
+      </c>
+      <c r="K28" s="33">
+        <v>50</v>
+      </c>
+      <c r="L28" s="33">
+        <v>50</v>
+      </c>
+      <c r="M28" s="33">
+        <v>50</v>
+      </c>
+      <c r="N28" s="1">
+        <f>SUM(E27:M27)</f>
+        <v>715</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="1"/>
+        <v>102.14285714285714</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="8"/>
+    </row>
+    <row r="29" spans="1:19" ht="31.5">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E29" s="33">
+        <v>85</v>
+      </c>
+      <c r="F29" s="33">
+        <v>100</v>
+      </c>
+      <c r="G29" s="33">
+        <v>77</v>
+      </c>
+      <c r="H29" s="33">
+        <v>82</v>
+      </c>
+      <c r="I29" s="33">
+        <v>67</v>
+      </c>
+      <c r="J29" s="33">
+        <v>76</v>
+      </c>
+      <c r="K29" s="33">
+        <v>60</v>
+      </c>
+      <c r="L29" s="33">
+        <v>70</v>
+      </c>
+      <c r="M29" s="33">
+        <v>60</v>
+      </c>
+      <c r="N29" s="1">
+        <f>SUM(E28:M28)</f>
+        <v>539</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="8"/>
+    </row>
+    <row r="30" spans="1:19" ht="31.5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E30" s="33">
+        <v>75</v>
+      </c>
+      <c r="F30" s="33">
+        <v>82</v>
+      </c>
+      <c r="G30" s="33">
+        <v>82</v>
+      </c>
+      <c r="H30" s="33">
+        <v>75</v>
+      </c>
+      <c r="I30" s="33">
+        <v>71</v>
+      </c>
+      <c r="J30" s="33">
+        <v>61</v>
+      </c>
+      <c r="K30" s="33">
+        <v>67</v>
+      </c>
+      <c r="L30" s="33">
+        <v>55</v>
+      </c>
+      <c r="M30" s="33">
+        <v>55</v>
+      </c>
+      <c r="N30" s="1">
+        <f>SUM(E29:M29)</f>
+        <v>677</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="1"/>
+        <v>96.714285714285722</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="8"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E31" s="33">
+        <v>78</v>
+      </c>
+      <c r="F31" s="33">
+        <v>90</v>
+      </c>
+      <c r="G31" s="33">
+        <v>73</v>
+      </c>
+      <c r="H31" s="33">
+        <v>84</v>
+      </c>
+      <c r="I31" s="33">
+        <v>81</v>
+      </c>
+      <c r="J31" s="33">
+        <v>62</v>
+      </c>
+      <c r="K31" s="33">
+        <v>60</v>
+      </c>
+      <c r="L31" s="33">
+        <v>65</v>
+      </c>
+      <c r="M31" s="33">
+        <v>55</v>
+      </c>
+      <c r="N31" s="1">
+        <f>SUM(E30:M30)</f>
+        <v>623</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="8"/>
+    </row>
+    <row r="32" spans="1:19" ht="15.75">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E32" s="33">
+        <v>80</v>
+      </c>
+      <c r="F32" s="33">
+        <v>91</v>
+      </c>
+      <c r="G32" s="33">
+        <v>83</v>
+      </c>
+      <c r="H32" s="33">
+        <v>82</v>
+      </c>
+      <c r="I32" s="33">
+        <v>85</v>
+      </c>
+      <c r="J32" s="33">
+        <v>80</v>
+      </c>
+      <c r="K32" s="33">
+        <v>68</v>
+      </c>
+      <c r="L32" s="33">
+        <v>70</v>
+      </c>
+      <c r="M32" s="33">
+        <v>55</v>
+      </c>
+      <c r="N32" s="1">
+        <f>SUM(E31:M31)</f>
+        <v>648</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="1"/>
+        <v>92.571428571428569</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="8"/>
+    </row>
+    <row r="33" spans="1:19" ht="15.75">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="E33" s="33">
+        <v>71</v>
+      </c>
+      <c r="F33" s="33">
+        <v>78</v>
+      </c>
+      <c r="G33" s="33">
+        <v>77</v>
+      </c>
+      <c r="H33" s="33">
+        <v>80</v>
+      </c>
+      <c r="I33" s="33">
+        <v>60</v>
+      </c>
+      <c r="J33" s="33">
+        <v>60</v>
+      </c>
+      <c r="K33" s="33">
+        <v>60</v>
+      </c>
+      <c r="L33" s="33">
+        <v>55</v>
+      </c>
+      <c r="M33" s="33">
+        <v>55</v>
+      </c>
+      <c r="N33" s="1">
+        <f>SUM(E32:M32)</f>
+        <v>694</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="1"/>
+        <v>99.142857142857139</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="8"/>
+    </row>
+    <row r="34" spans="1:19" ht="15.75">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E34" s="33">
+        <v>77</v>
+      </c>
+      <c r="F34" s="33">
+        <v>85</v>
+      </c>
+      <c r="G34" s="33">
+        <v>81</v>
+      </c>
+      <c r="H34" s="33">
+        <v>86</v>
+      </c>
+      <c r="I34" s="33">
+        <v>75</v>
+      </c>
+      <c r="J34" s="33">
+        <v>67</v>
+      </c>
+      <c r="K34" s="33">
+        <v>51</v>
+      </c>
+      <c r="L34" s="33">
+        <v>60</v>
+      </c>
+      <c r="M34" s="33">
+        <v>50</v>
+      </c>
+      <c r="N34" s="1">
+        <f>SUM(E33:M33)</f>
+        <v>596</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="1"/>
+        <v>85.142857142857139</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="8"/>
+    </row>
+    <row r="35" spans="1:19" ht="15.75">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E35" s="33">
+        <v>70</v>
+      </c>
+      <c r="F35" s="33">
+        <v>85</v>
+      </c>
+      <c r="G35" s="33">
+        <v>81</v>
+      </c>
+      <c r="H35" s="33">
+        <v>84</v>
+      </c>
+      <c r="I35" s="33">
+        <v>70</v>
+      </c>
+      <c r="J35" s="33">
+        <v>80</v>
+      </c>
+      <c r="K35" s="33">
+        <v>54</v>
+      </c>
+      <c r="L35" s="33">
+        <v>55</v>
+      </c>
+      <c r="M35" s="33">
+        <v>42</v>
+      </c>
+      <c r="N35" s="1">
+        <f>SUM(E34:M34)</f>
+        <v>632</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="1"/>
+        <v>90.285714285714278</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="8"/>
+    </row>
+    <row r="36" spans="1:19" ht="15.75">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E36" s="1">
+        <v>60</v>
+      </c>
+      <c r="F36">
+        <v>68</v>
+      </c>
+      <c r="G36">
+        <v>73</v>
+      </c>
+      <c r="H36" s="37">
+        <v>80</v>
+      </c>
+      <c r="I36">
+        <v>67</v>
+      </c>
+      <c r="J36">
+        <v>62</v>
+      </c>
+      <c r="K36">
+        <v>50</v>
+      </c>
+      <c r="L36">
+        <v>50</v>
+      </c>
+      <c r="M36">
+        <v>50</v>
+      </c>
+      <c r="N36" s="1">
+        <f>SUM(E35:M35)</f>
+        <v>621</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="1"/>
+        <v>88.714285714285708</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="8"/>
+    </row>
+    <row r="37" spans="1:19" ht="15.75">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E37" s="1">
+        <v>82</v>
+      </c>
+      <c r="F37">
+        <v>90</v>
+      </c>
+      <c r="G37" s="1">
+        <v>82</v>
+      </c>
+      <c r="H37" s="37">
+        <v>84</v>
+      </c>
+      <c r="I37" s="1">
+        <v>88</v>
+      </c>
+      <c r="J37" s="1">
+        <v>81</v>
+      </c>
+      <c r="K37" s="1">
+        <v>78</v>
+      </c>
+      <c r="L37" s="1">
+        <v>65</v>
+      </c>
+      <c r="M37" s="1">
+        <v>65</v>
+      </c>
+      <c r="N37" s="1">
+        <f>SUM(E37:M37)</f>
+        <v>715</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="1"/>
+        <v>102.14285714285714</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="8"/>
+    </row>
+    <row r="38" spans="1:19" ht="15.75">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E38" s="1">
+        <v>78</v>
+      </c>
+      <c r="F38">
+        <v>90</v>
+      </c>
+      <c r="G38" s="1">
+        <v>83</v>
+      </c>
+      <c r="H38" s="37">
+        <v>83</v>
+      </c>
+      <c r="I38" s="1">
+        <v>80</v>
+      </c>
+      <c r="J38" s="1">
+        <v>72</v>
+      </c>
+      <c r="K38" s="1">
+        <v>54</v>
+      </c>
+      <c r="L38" s="1">
+        <v>70</v>
+      </c>
+      <c r="M38" s="1">
+        <v>55</v>
+      </c>
+      <c r="N38" s="1">
+        <f>SUM(E38:M38)</f>
+        <v>665</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="8"/>
+    </row>
+    <row r="39" spans="1:19" ht="15.75">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E39" s="1">
+        <v>71</v>
+      </c>
+      <c r="F39">
+        <v>85</v>
+      </c>
+      <c r="G39" s="1">
+        <v>80</v>
+      </c>
+      <c r="H39" s="37">
+        <v>80</v>
+      </c>
+      <c r="I39" s="1">
+        <v>72</v>
+      </c>
+      <c r="J39" s="1">
+        <v>80</v>
+      </c>
+      <c r="K39" s="1">
+        <v>58</v>
+      </c>
+      <c r="L39" s="1">
+        <v>60</v>
+      </c>
+      <c r="M39" s="1">
+        <v>40</v>
+      </c>
+      <c r="N39" s="1">
+        <f>SUM(E39:M39)</f>
+        <v>626</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="1"/>
+        <v>89.428571428571431</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="8"/>
+    </row>
+    <row r="40" spans="1:19" ht="15.75">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>683</v>
+      </c>
+      <c r="E40" s="1">
+        <v>61</v>
+      </c>
+      <c r="F40">
+        <v>80</v>
+      </c>
+      <c r="G40" s="1">
+        <v>80</v>
+      </c>
+      <c r="H40" s="37">
+        <v>64</v>
+      </c>
+      <c r="I40" s="1">
+        <v>55</v>
+      </c>
+      <c r="J40" s="1">
+        <v>55</v>
+      </c>
+      <c r="K40" s="1">
+        <v>50</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <f>SUM(E40:M40)</f>
+        <v>445</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="1"/>
+        <v>63.571428571428569</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="8"/>
+    </row>
+    <row r="41" spans="1:19" ht="15.75">
+      <c r="A41" s="4"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="62"/>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="15.75">
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="15.75">
+      <c r="A43" s="2"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="15">
+      <c r="A44" s="4"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="15">
+      <c r="B45" s="17"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="15">
+      <c r="A46" s="2"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="18">
+      <c r="A47" s="4"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="18">
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="18">
+      <c r="A49" s="2"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="18">
+      <c r="A50" s="4"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="M51" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5834A66E-334C-449D-AABB-C0C415CA0205}">
   <dimension ref="A1:R53"/>
   <sheetViews>
@@ -14161,31 +16470,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>515</v>
+        <v>420</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>514</v>
+        <v>419</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>513</v>
+        <v>418</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>512</v>
+        <v>417</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>516</v>
+        <v>421</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>510</v>
+        <v>415</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>509</v>
+        <v>414</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>508</v>
+        <v>413</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
@@ -14208,10 +16517,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>417</v>
+        <v>322</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>418</v>
+        <v>323</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -14236,7 +16545,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>419</v>
+        <v>324</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>16</v>
@@ -14289,10 +16598,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>420</v>
+        <v>325</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>421</v>
+        <v>326</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -14342,10 +16651,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>422</v>
+        <v>327</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>423</v>
+        <v>328</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -14395,10 +16704,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>424</v>
+        <v>329</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>425</v>
+        <v>330</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -14448,10 +16757,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>426</v>
+        <v>331</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>427</v>
+        <v>332</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -14501,10 +16810,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>428</v>
+        <v>333</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>429</v>
+        <v>334</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -14554,10 +16863,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>430</v>
+        <v>335</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>431</v>
+        <v>336</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -14607,10 +16916,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>432</v>
+        <v>337</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>433</v>
+        <v>338</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -14660,10 +16969,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>434</v>
+        <v>339</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>435</v>
+        <v>340</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -14713,10 +17022,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>436</v>
+        <v>341</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>437</v>
+        <v>342</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -14766,10 +17075,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>438</v>
+        <v>343</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>439</v>
+        <v>344</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -14819,10 +17128,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>440</v>
+        <v>345</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -14872,10 +17181,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>441</v>
+        <v>346</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>442</v>
+        <v>347</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -14925,10 +17234,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>443</v>
+        <v>348</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>444</v>
+        <v>349</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -14978,10 +17287,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>445</v>
+        <v>350</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>446</v>
+        <v>351</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -15031,10 +17340,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>447</v>
+        <v>352</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>448</v>
+        <v>353</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -15084,10 +17393,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>449</v>
+        <v>354</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>450</v>
+        <v>355</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -15137,10 +17446,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>451</v>
+        <v>356</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -15190,10 +17499,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>454</v>
+        <v>359</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -15243,10 +17552,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>455</v>
+        <v>360</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>456</v>
+        <v>361</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -15296,10 +17605,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>457</v>
+        <v>362</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>458</v>
+        <v>363</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -15349,10 +17658,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>459</v>
+        <v>364</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>460</v>
+        <v>365</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -15402,10 +17711,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>461</v>
+        <v>366</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>462</v>
+        <v>367</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -15455,10 +17764,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>463</v>
+        <v>368</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>464</v>
+        <v>369</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -15508,7 +17817,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>465</v>
+        <v>370</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>246</v>
@@ -15561,10 +17870,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>466</v>
+        <v>371</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>467</v>
+        <v>372</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -15614,10 +17923,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>468</v>
+        <v>373</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>469</v>
+        <v>374</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -15667,10 +17976,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>470</v>
+        <v>375</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>471</v>
+        <v>376</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -15720,10 +18029,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>472</v>
+        <v>377</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>473</v>
+        <v>378</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -15773,10 +18082,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>474</v>
+        <v>379</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>475</v>
+        <v>380</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -15826,10 +18135,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>476</v>
+        <v>381</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>477</v>
+        <v>382</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -15879,10 +18188,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>478</v>
+        <v>383</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>479</v>
+        <v>384</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -15932,10 +18241,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>480</v>
+        <v>385</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>481</v>
+        <v>386</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -15985,10 +18294,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>482</v>
+        <v>387</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>483</v>
+        <v>388</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -16038,10 +18347,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>484</v>
+        <v>389</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>501</v>
+        <v>406</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -16091,10 +18400,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>485</v>
+        <v>390</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>486</v>
+        <v>391</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -16144,10 +18453,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>487</v>
+        <v>392</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>488</v>
+        <v>393</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -16197,10 +18506,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>489</v>
+        <v>394</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>490</v>
+        <v>395</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -16250,10 +18559,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>491</v>
+        <v>396</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>492</v>
+        <v>397</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -16303,10 +18612,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>493</v>
+        <v>398</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>494</v>
+        <v>399</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -16356,10 +18665,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>495</v>
+        <v>400</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>496</v>
+        <v>401</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -16408,10 +18717,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>497</v>
+        <v>402</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>498</v>
+        <v>403</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -16460,10 +18769,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>499</v>
+        <v>404</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>500</v>
+        <v>405</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -16512,10 +18821,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>502</v>
+        <v>407</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>503</v>
+        <v>408</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -16564,10 +18873,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>504</v>
+        <v>409</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>505</v>
+        <v>410</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -16616,10 +18925,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>506</v>
+        <v>411</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -16865,7 +19174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803F4826-4A19-4F62-A95E-4C338E150906}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
@@ -16903,28 +19212,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>608</v>
+        <v>513</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>609</v>
+        <v>514</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>610</v>
+        <v>515</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>611</v>
+        <v>516</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>612</v>
+        <v>517</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>512</v>
+        <v>417</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>613</v>
+        <v>518</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>614</v>
+        <v>519</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
@@ -16947,10 +19256,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>517</v>
+        <v>422</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>518</v>
+        <v>423</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -16968,10 +19277,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -17018,10 +19327,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>521</v>
+        <v>426</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>522</v>
+        <v>427</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -17068,10 +19377,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>523</v>
+        <v>428</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>524</v>
+        <v>429</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -17118,10 +19427,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>525</v>
+        <v>430</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>526</v>
+        <v>431</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -17168,10 +19477,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>527</v>
+        <v>432</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>528</v>
+        <v>433</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -17218,10 +19527,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>529</v>
+        <v>434</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>530</v>
+        <v>435</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -17268,10 +19577,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>531</v>
+        <v>436</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>532</v>
+        <v>437</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -17318,10 +19627,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>533</v>
+        <v>438</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -17368,10 +19677,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>534</v>
+        <v>439</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -17418,10 +19727,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>535</v>
+        <v>440</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>601</v>
+        <v>506</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -17468,10 +19777,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>536</v>
+        <v>441</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>602</v>
+        <v>507</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -17518,10 +19827,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>537</v>
+        <v>442</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>393</v>
+        <v>298</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -17568,10 +19877,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>538</v>
+        <v>443</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -17618,10 +19927,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>539</v>
+        <v>444</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>540</v>
+        <v>445</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -17668,10 +19977,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>541</v>
+        <v>446</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>542</v>
+        <v>447</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -17718,10 +20027,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>543</v>
+        <v>448</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>544</v>
+        <v>449</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -17768,10 +20077,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>545</v>
+        <v>450</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>546</v>
+        <v>451</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -17818,10 +20127,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>547</v>
+        <v>452</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>548</v>
+        <v>453</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -17868,10 +20177,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>549</v>
+        <v>454</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>550</v>
+        <v>455</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -17918,10 +20227,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>551</v>
+        <v>456</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>552</v>
+        <v>457</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -17968,10 +20277,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>553</v>
+        <v>458</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>554</v>
+        <v>459</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -18018,10 +20327,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>555</v>
+        <v>460</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>556</v>
+        <v>461</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -18068,10 +20377,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>557</v>
+        <v>462</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>558</v>
+        <v>463</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -18118,10 +20427,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>559</v>
+        <v>464</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>560</v>
+        <v>465</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -18168,10 +20477,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>562</v>
+        <v>467</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -18218,10 +20527,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>563</v>
+        <v>468</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>564</v>
+        <v>469</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -18268,10 +20577,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>565</v>
+        <v>470</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>566</v>
+        <v>471</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -18318,10 +20627,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>567</v>
+        <v>472</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>568</v>
+        <v>473</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -18368,10 +20677,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>569</v>
+        <v>474</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>570</v>
+        <v>475</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -18418,10 +20727,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>571</v>
+        <v>476</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>572</v>
+        <v>477</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -18468,10 +20777,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>573</v>
+        <v>478</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>574</v>
+        <v>479</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -18518,10 +20827,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>575</v>
+        <v>480</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>576</v>
+        <v>481</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -18568,10 +20877,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>577</v>
+        <v>482</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>578</v>
+        <v>483</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -18618,10 +20927,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>579</v>
+        <v>484</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>603</v>
+        <v>508</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -18668,10 +20977,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>580</v>
+        <v>485</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>581</v>
+        <v>486</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -18718,10 +21027,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>582</v>
+        <v>487</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>604</v>
+        <v>509</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -18768,10 +21077,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>583</v>
+        <v>488</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -18818,10 +21127,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>584</v>
+        <v>489</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>605</v>
+        <v>510</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -18868,10 +21177,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>585</v>
+        <v>490</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>586</v>
+        <v>491</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -18918,10 +21227,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>587</v>
+        <v>492</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>588</v>
+        <v>493</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -18968,10 +21277,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>589</v>
+        <v>494</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>590</v>
+        <v>495</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -19017,10 +21326,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>591</v>
+        <v>496</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -19066,10 +21375,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -19115,10 +21424,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>595</v>
+        <v>500</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>596</v>
+        <v>501</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -19164,10 +21473,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>597</v>
+        <v>502</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>598</v>
+        <v>503</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -19213,10 +21522,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>599</v>
+        <v>504</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>606</v>
+        <v>511</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -19262,10 +21571,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>600</v>
+        <v>505</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>607</v>
+        <v>512</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -19448,11 +21757,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966D0E07-A926-4F79-8F5C-8B146AB38A9D}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -19484,19 +21793,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>679</v>
+        <v>584</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>680</v>
+        <v>585</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>681</v>
+        <v>586</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>682</v>
+        <v>587</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
@@ -19519,10 +21828,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>615</v>
+        <v>520</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>616</v>
+        <v>521</v>
       </c>
       <c r="D2" s="51">
         <v>70</v>
@@ -19545,10 +21854,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>617</v>
+        <v>522</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>618</v>
+        <v>523</v>
       </c>
       <c r="D3" s="51">
         <v>72</v>
@@ -19586,10 +21895,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>619</v>
+        <v>524</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>620</v>
+        <v>525</v>
       </c>
       <c r="D4" s="51">
         <v>66</v>
@@ -19607,7 +21916,7 @@
         <v>80</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I3:I34" si="0">SUM(D4:H4)</f>
+        <f t="shared" ref="I4:I34" si="0">SUM(D4:H4)</f>
         <v>358</v>
       </c>
       <c r="J4" s="1">
@@ -19627,10 +21936,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>621</v>
+        <v>526</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>622</v>
+        <v>527</v>
       </c>
       <c r="D5" s="51">
         <v>72</v>
@@ -19668,10 +21977,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>623</v>
+        <v>528</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>624</v>
+        <v>529</v>
       </c>
       <c r="D6" s="51">
         <v>56</v>
@@ -19709,10 +22018,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>625</v>
+        <v>530</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>626</v>
+        <v>531</v>
       </c>
       <c r="D7" s="51">
         <v>90</v>
@@ -19750,10 +22059,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>627</v>
+        <v>532</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>628</v>
+        <v>533</v>
       </c>
       <c r="D8" s="51">
         <v>75</v>
@@ -19791,10 +22100,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>629</v>
+        <v>534</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>630</v>
+        <v>535</v>
       </c>
       <c r="D9" s="51">
         <v>72</v>
@@ -19832,10 +22141,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>631</v>
+        <v>536</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>632</v>
+        <v>537</v>
       </c>
       <c r="D10" s="51">
         <v>73</v>
@@ -19873,10 +22182,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>633</v>
+        <v>538</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>634</v>
+        <v>539</v>
       </c>
       <c r="D11" s="51">
         <v>68</v>
@@ -19914,10 +22223,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>635</v>
+        <v>540</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>636</v>
+        <v>541</v>
       </c>
       <c r="D12" s="51">
         <v>70</v>
@@ -19955,10 +22264,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>637</v>
+        <v>542</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>638</v>
+        <v>543</v>
       </c>
       <c r="D13" s="51">
         <v>65</v>
@@ -19996,10 +22305,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>639</v>
+        <v>544</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>640</v>
+        <v>545</v>
       </c>
       <c r="D14" s="51">
         <v>73</v>
@@ -20037,10 +22346,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>641</v>
+        <v>546</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>642</v>
+        <v>547</v>
       </c>
       <c r="D15" s="51">
         <v>65</v>
@@ -20078,10 +22387,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>643</v>
+        <v>548</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>644</v>
+        <v>549</v>
       </c>
       <c r="D16" s="51">
         <v>72</v>
@@ -20119,10 +22428,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>645</v>
+        <v>550</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>646</v>
+        <v>551</v>
       </c>
       <c r="D17" s="51">
         <v>77</v>
@@ -20160,10 +22469,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>647</v>
+        <v>552</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>648</v>
+        <v>553</v>
       </c>
       <c r="D18" s="51">
         <v>77</v>
@@ -20201,10 +22510,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>649</v>
+        <v>554</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>650</v>
+        <v>555</v>
       </c>
       <c r="D19" s="51">
         <v>66</v>
@@ -20242,10 +22551,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>651</v>
+        <v>556</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>652</v>
+        <v>557</v>
       </c>
       <c r="D20" s="51">
         <v>73</v>
@@ -20283,10 +22592,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>653</v>
+        <v>558</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>654</v>
+        <v>559</v>
       </c>
       <c r="D21" s="51">
         <v>66</v>
@@ -20324,10 +22633,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>655</v>
+        <v>560</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>656</v>
+        <v>561</v>
       </c>
       <c r="D22" s="51">
         <v>68</v>
@@ -20365,10 +22674,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>657</v>
+        <v>562</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>658</v>
+        <v>563</v>
       </c>
       <c r="D23" s="51">
         <v>65</v>
@@ -20406,10 +22715,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>659</v>
+        <v>564</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="D24" s="51">
         <v>68</v>
@@ -20447,10 +22756,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>661</v>
+        <v>566</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>662</v>
+        <v>567</v>
       </c>
       <c r="D25" s="51">
         <v>70</v>
@@ -20488,10 +22797,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>663</v>
+        <v>568</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>664</v>
+        <v>569</v>
       </c>
       <c r="D26" s="51">
         <v>60</v>
@@ -20529,10 +22838,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>665</v>
+        <v>570</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>666</v>
+        <v>571</v>
       </c>
       <c r="D27" s="51">
         <v>76</v>
@@ -20570,10 +22879,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>667</v>
+        <v>572</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>668</v>
+        <v>573</v>
       </c>
       <c r="D28" s="51">
         <v>68</v>
@@ -20611,10 +22920,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>669</v>
+        <v>574</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>670</v>
+        <v>575</v>
       </c>
       <c r="D29" s="51">
         <v>57</v>
@@ -20652,10 +22961,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>671</v>
+        <v>576</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>672</v>
+        <v>577</v>
       </c>
       <c r="D30" s="51">
         <v>75</v>
@@ -20693,10 +23002,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>673</v>
+        <v>578</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>674</v>
+        <v>579</v>
       </c>
       <c r="D31" s="51">
         <v>82</v>
@@ -20734,10 +23043,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>675</v>
+        <v>580</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>676</v>
+        <v>581</v>
       </c>
       <c r="D32" s="51">
         <v>85</v>
@@ -20775,10 +23084,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>677</v>
+        <v>582</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>678</v>
+        <v>583</v>
       </c>
       <c r="D33" s="51">
         <v>73</v>
@@ -20816,10 +23125,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>684</v>
+        <v>589</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>685</v>
+        <v>590</v>
       </c>
       <c r="D34" s="57">
         <v>20</v>
@@ -20857,10 +23166,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>686</v>
+        <v>591</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>687</v>
+        <v>592</v>
       </c>
       <c r="D35" s="58">
         <v>19.3</v>
@@ -20898,10 +23207,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>688</v>
+        <v>593</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>689</v>
+        <v>594</v>
       </c>
       <c r="D36" s="58">
         <v>20.8</v>
@@ -20939,10 +23248,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>690</v>
+        <v>595</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>691</v>
+        <v>596</v>
       </c>
       <c r="D37" s="58">
         <v>20</v>
@@ -20981,22 +23290,22 @@
       </c>
       <c r="B38" s="54"/>
       <c r="C38" s="53" t="s">
-        <v>692</v>
+        <v>597</v>
       </c>
       <c r="D38" s="59" t="s">
-        <v>697</v>
+        <v>602</v>
       </c>
       <c r="E38" s="59" t="s">
-        <v>697</v>
+        <v>602</v>
       </c>
       <c r="F38" s="59" t="s">
-        <v>697</v>
+        <v>602</v>
       </c>
       <c r="G38" s="59" t="s">
-        <v>697</v>
+        <v>602</v>
       </c>
       <c r="H38" s="59" t="s">
-        <v>697</v>
+        <v>602</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="2"/>
@@ -21019,25 +23328,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>693</v>
+        <v>598</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>694</v>
+        <v>599</v>
       </c>
       <c r="D39" s="60" t="s">
-        <v>697</v>
+        <v>602</v>
       </c>
       <c r="E39" s="60" t="s">
-        <v>697</v>
+        <v>602</v>
       </c>
       <c r="F39" s="60" t="s">
-        <v>697</v>
+        <v>602</v>
       </c>
       <c r="G39" s="60" t="s">
-        <v>697</v>
+        <v>602</v>
       </c>
       <c r="H39" s="60" t="s">
-        <v>697</v>
+        <v>602</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="2"/>
@@ -21060,25 +23369,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>695</v>
+        <v>600</v>
       </c>
       <c r="C40" s="56" t="s">
-        <v>696</v>
+        <v>601</v>
       </c>
       <c r="D40" s="60" t="s">
-        <v>698</v>
+        <v>603</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>698</v>
+        <v>603</v>
       </c>
       <c r="F40" s="60" t="s">
-        <v>698</v>
+        <v>603</v>
       </c>
       <c r="G40" s="60" t="s">
-        <v>698</v>
+        <v>603</v>
       </c>
       <c r="H40" s="60" t="s">
-        <v>698</v>
+        <v>603</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="2"/>
@@ -21448,7 +23757,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" ref="J4:J52" si="3">(I50/700)*100</f>
+        <f t="shared" ref="J50:J52" si="3">(I50/700)*100</f>
         <v>0</v>
       </c>
       <c r="K50" s="1">

--- a/assets/results.xlsx
+++ b/assets/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shani\Documents\GitHub\marks\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CDA7ED-F89E-4686-9E07-AA0290724124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BF0DD4-D5FB-41FF-88E3-5AAC5A9717AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'1-A'!$A$1:$S$49</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'1-B'!$A$1:$S$49</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'2-A'!$A$1:$Q$48</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'2-B'!$A$1:$Q$48</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'2-B'!$A$1:$P$48</definedName>
     <definedName name="ExternalData_1" localSheetId="5" hidden="1">'3-A'!$A$1:$R$49</definedName>
     <definedName name="ExternalData_1" localSheetId="4" hidden="1">'3-B'!$A$1:$S$47</definedName>
     <definedName name="ExternalData_1" localSheetId="6" hidden="1">'4-A'!$A$1:$Q$49</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="683">
   <si>
     <t>Sr.
 No.</t>
@@ -390,9 +390,6 @@
   </si>
   <si>
     <t>32402-3956830-9</t>
-  </si>
-  <si>
-    <t>35202-6279376-1</t>
   </si>
   <si>
     <t>35301-8410656-1</t>
@@ -4613,40 +4610,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
@@ -4669,10 +4666,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>604</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>605</v>
       </c>
       <c r="D2" s="41">
         <v>50</v>
@@ -4714,10 +4711,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>606</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>607</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="37">
@@ -4765,10 +4762,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>608</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>609</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37">
@@ -4816,10 +4813,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>610</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>611</v>
       </c>
       <c r="D5" s="41">
         <v>55</v>
@@ -4869,10 +4866,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>612</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>613</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="37">
@@ -4920,10 +4917,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>614</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>615</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37">
@@ -4971,10 +4968,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>616</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>617</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="37">
@@ -5022,10 +5019,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>618</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>619</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="37">
@@ -5073,10 +5070,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>620</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>621</v>
       </c>
       <c r="D10" s="41">
         <v>60</v>
@@ -5126,10 +5123,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>622</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>623</v>
       </c>
       <c r="D11" s="41"/>
       <c r="E11" s="37">
@@ -5177,10 +5174,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>624</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>625</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37">
@@ -5228,10 +5225,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>626</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>627</v>
       </c>
       <c r="D13" s="41"/>
       <c r="E13" s="37">
@@ -5279,10 +5276,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="37">
@@ -5330,10 +5327,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>629</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>630</v>
       </c>
       <c r="D15" s="41">
         <v>50</v>
@@ -5383,10 +5380,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>631</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>632</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="37">
@@ -5434,10 +5431,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>633</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>634</v>
       </c>
       <c r="D17" s="37">
         <v>51</v>
@@ -5487,10 +5484,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="37">
@@ -5538,10 +5535,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>636</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>637</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="37">
@@ -5589,10 +5586,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>638</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>639</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="37">
@@ -5640,10 +5637,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>640</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>641</v>
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="37">
@@ -5691,10 +5688,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>642</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>643</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="37">
@@ -5742,10 +5739,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>644</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>645</v>
       </c>
       <c r="D23" s="41"/>
       <c r="E23" s="37">
@@ -5793,10 +5790,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>646</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>647</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="37">
@@ -5844,10 +5841,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>648</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>649</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="37">
@@ -5895,10 +5892,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>650</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>651</v>
       </c>
       <c r="D26" s="37"/>
       <c r="E26" s="37">
@@ -5946,10 +5943,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>652</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>653</v>
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="37">
@@ -5997,10 +5994,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>654</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>655</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="37">
@@ -6048,10 +6045,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>656</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>657</v>
       </c>
       <c r="D29" s="41">
         <v>34</v>
@@ -6101,10 +6098,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>658</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>659</v>
       </c>
       <c r="D30" s="41">
         <v>61</v>
@@ -6154,10 +6151,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>660</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>661</v>
       </c>
       <c r="D31" s="41"/>
       <c r="E31" s="37">
@@ -6205,10 +6202,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>662</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>663</v>
       </c>
       <c r="D32" s="41">
         <v>64</v>
@@ -6258,10 +6255,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>664</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>665</v>
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="37">
@@ -6309,10 +6306,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>666</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>667</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="37">
@@ -6360,10 +6357,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>668</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>669</v>
       </c>
       <c r="D35" s="37"/>
       <c r="E35" s="37">
@@ -6819,34 +6816,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
@@ -6869,10 +6866,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>245</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>246</v>
       </c>
       <c r="D2" s="43">
         <v>70</v>
@@ -6910,10 +6907,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D3" s="44"/>
       <c r="E3" s="43">
@@ -6958,10 +6955,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D4" s="44"/>
       <c r="E4" s="43">
@@ -7006,10 +7003,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="43">
@@ -7054,10 +7051,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="43">
@@ -7102,10 +7099,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D7" s="43">
         <v>70</v>
@@ -7152,10 +7149,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="43">
@@ -7200,10 +7197,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="43">
@@ -7248,10 +7245,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D10" s="43">
         <v>70</v>
@@ -7298,10 +7295,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="43">
@@ -7346,10 +7343,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D12" s="44"/>
       <c r="E12" s="43">
@@ -7394,10 +7391,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D13" s="43">
         <v>80</v>
@@ -7444,10 +7441,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="43">
@@ -7492,10 +7489,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D15" s="44"/>
       <c r="E15" s="43">
@@ -7540,10 +7537,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D16" s="43">
         <v>64</v>
@@ -7590,10 +7587,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" s="44"/>
       <c r="E17" s="43">
@@ -7638,10 +7635,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D18" s="43">
         <v>76</v>
@@ -7688,10 +7685,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="43">
@@ -7736,10 +7733,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D20" s="44"/>
       <c r="E20" s="43">
@@ -7784,10 +7781,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D21" s="43">
         <v>70</v>
@@ -7834,10 +7831,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D22" s="44"/>
       <c r="E22" s="43">
@@ -7882,10 +7879,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D23" s="45">
         <v>23</v>
@@ -7932,10 +7929,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D24" s="44"/>
       <c r="E24" s="43">
@@ -7980,10 +7977,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D25" s="43">
         <v>62</v>
@@ -8030,10 +8027,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="43">
@@ -8078,10 +8075,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D27" s="44"/>
       <c r="E27" s="43">
@@ -8126,10 +8123,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D28" s="44"/>
       <c r="E28" s="43">
@@ -8174,10 +8171,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D29" s="44"/>
       <c r="E29" s="43">
@@ -8222,10 +8219,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D30" s="44"/>
       <c r="E30" s="43">
@@ -8270,10 +8267,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D31" s="43">
         <v>63</v>
@@ -8320,10 +8317,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D32" s="44"/>
       <c r="E32" s="43">
@@ -8368,10 +8365,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D33" s="44"/>
       <c r="E33" s="43">
@@ -8416,10 +8413,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D34" s="44"/>
       <c r="E34" s="43">
@@ -8464,10 +8461,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D35" s="44"/>
       <c r="E35" s="43">
@@ -8512,10 +8509,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D36" s="44"/>
       <c r="E36" s="43">
@@ -8560,10 +8557,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D37" s="44"/>
       <c r="E37" s="43">
@@ -8608,10 +8605,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="43">
@@ -8656,10 +8653,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D39" s="44"/>
       <c r="E39" s="43">
@@ -8704,10 +8701,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D40" s="44"/>
       <c r="E40" s="43">
@@ -8752,10 +8749,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D41" s="44"/>
       <c r="E41" s="43">
@@ -8800,10 +8797,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D42" s="44"/>
       <c r="E42" s="43">
@@ -8848,10 +8845,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D43" s="43">
         <v>75</v>
@@ -8897,10 +8894,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D44" s="44"/>
       <c r="E44" s="43">
@@ -8944,10 +8941,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D45" s="44"/>
       <c r="E45" s="43">
@@ -8991,10 +8988,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D46" s="44"/>
       <c r="E46" s="43">
@@ -9038,10 +9035,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D47" s="44"/>
       <c r="E47" s="43">
@@ -9085,10 +9082,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D48" s="43">
         <v>70</v>
@@ -9134,10 +9131,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D49" s="44"/>
       <c r="E49" s="43">
@@ -9181,10 +9178,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D50" s="44"/>
       <c r="E50" s="43">
@@ -9228,10 +9225,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D51" s="44"/>
       <c r="E51" s="43">
@@ -9275,10 +9272,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D52" s="43">
         <v>60</v>
@@ -9331,10 +9328,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9355,10 +9352,9 @@
     <col min="14" max="14" width="8.140625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="8.28515625" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9407,11 +9403,8 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.75">
+    </row>
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -9452,17 +9445,14 @@
         <v>61.857142857142854</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P2" s="1"/>
-      <c r="Q2" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75">
+    </row>
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -9505,17 +9495,14 @@
         <v>59</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P3" s="1"/>
-      <c r="Q3" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.75">
+    </row>
+    <row r="4" spans="1:16" ht="15.75">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -9556,17 +9543,14 @@
         <v>64.857142857142861</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P4" s="1"/>
-      <c r="Q4" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15.75">
+    </row>
+    <row r="5" spans="1:16" ht="15.75">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -9607,17 +9591,14 @@
         <v>72.714285714285708</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P5" s="1"/>
-      <c r="Q5" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15.75">
+    </row>
+    <row r="6" spans="1:16" ht="15.75">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -9658,17 +9639,14 @@
         <v>90.142857142857153</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P6" s="1"/>
-      <c r="Q6" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.75">
+    </row>
+    <row r="7" spans="1:16" ht="15.75">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -9709,17 +9687,14 @@
         <v>63.714285714285715</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P7" s="1"/>
-      <c r="Q7" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.75">
+    </row>
+    <row r="8" spans="1:16" ht="15.75">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -9762,17 +9737,14 @@
         <v>79.285714285714278</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P8" s="1"/>
-      <c r="Q8" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.75">
+    </row>
+    <row r="9" spans="1:16" ht="15.75">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -9813,17 +9785,14 @@
         <v>67.428571428571431</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P9" s="1"/>
-      <c r="Q9" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.75">
+    </row>
+    <row r="10" spans="1:16" ht="15.75">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -9866,17 +9835,14 @@
         <v>14.857142857142858</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.75">
+    </row>
+    <row r="11" spans="1:16" ht="15.75">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -9919,17 +9885,14 @@
         <v>66.571428571428569</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P11" s="1"/>
-      <c r="Q11" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.75">
+    </row>
+    <row r="12" spans="1:16" ht="15.75">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -9972,17 +9935,14 @@
         <v>58.571428571428577</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P12" s="1"/>
-      <c r="Q12" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.75">
+    </row>
+    <row r="13" spans="1:16" ht="15.75">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -10023,17 +9983,14 @@
         <v>55.000000000000007</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P13" s="1"/>
-      <c r="Q13" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.75">
+    </row>
+    <row r="14" spans="1:16" ht="15.75">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -10076,17 +10033,14 @@
         <v>64.285714285714292</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P14" s="1"/>
-      <c r="Q14" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75">
+    </row>
+    <row r="15" spans="1:16" ht="15.75">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -10129,17 +10083,14 @@
         <v>58.857142857142854</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P15" s="1"/>
-      <c r="Q15" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75">
+    </row>
+    <row r="16" spans="1:16" ht="15.75">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -10180,17 +10131,14 @@
         <v>65.428571428571431</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P16" s="1"/>
-      <c r="Q16" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15.75">
+    </row>
+    <row r="17" spans="1:16" ht="15.75">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -10233,17 +10181,14 @@
         <v>64.714285714285708</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P17" s="1"/>
-      <c r="Q17" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="15.75">
+    </row>
+    <row r="18" spans="1:16" ht="15.75">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -10284,17 +10229,14 @@
         <v>73.428571428571431</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P18" s="1"/>
-      <c r="Q18" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="15.75">
+    </row>
+    <row r="19" spans="1:16" ht="15.75">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -10335,17 +10277,14 @@
         <v>65.142857142857153</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P19" s="1"/>
-      <c r="Q19" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.75">
+    </row>
+    <row r="20" spans="1:16" ht="15.75">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -10386,17 +10325,14 @@
         <v>56.142857142857139</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P20" s="1"/>
-      <c r="Q20" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15.75">
+    </row>
+    <row r="21" spans="1:16" ht="15.75">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -10437,17 +10373,14 @@
         <v>59.428571428571431</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P21" s="1"/>
-      <c r="Q21" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15.75">
+    </row>
+    <row r="22" spans="1:16" ht="15.75">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -10488,17 +10421,14 @@
         <v>71.857142857142847</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P22" s="1"/>
-      <c r="Q22" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="15.75">
+    </row>
+    <row r="23" spans="1:16" ht="15.75">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -10539,17 +10469,14 @@
         <v>61</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P23" s="1"/>
-      <c r="Q23" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="15.75">
+    </row>
+    <row r="24" spans="1:16" ht="15.75">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -10592,17 +10519,14 @@
         <v>79.142857142857153</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P24" s="1"/>
-      <c r="Q24" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="15.75">
+    </row>
+    <row r="25" spans="1:16" ht="15.75">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -10645,17 +10569,14 @@
         <v>56.857142857142861</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P25" s="1"/>
-      <c r="Q25" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="15.75">
+    </row>
+    <row r="26" spans="1:16" ht="15.75">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -10696,17 +10617,14 @@
         <v>66.285714285714278</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P26" s="1"/>
-      <c r="Q26" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="15.75">
+    </row>
+    <row r="27" spans="1:16" ht="15.75">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -10749,17 +10667,14 @@
         <v>60.142857142857139</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P27" s="1"/>
-      <c r="Q27" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15.75">
+    </row>
+    <row r="28" spans="1:16" ht="15.75">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -10802,17 +10717,14 @@
         <v>73.428571428571431</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P28" s="1"/>
-      <c r="Q28" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="15.75">
+    </row>
+    <row r="29" spans="1:16" ht="15.75">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -10853,17 +10765,14 @@
         <v>59.571428571428577</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P29" s="1"/>
-      <c r="Q29" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="15.75">
+    </row>
+    <row r="30" spans="1:16" ht="15.75">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -10904,17 +10813,14 @@
         <v>73.285714285714292</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P30" s="1"/>
-      <c r="Q30" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="15.75">
+    </row>
+    <row r="31" spans="1:16" ht="15.75">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -10955,17 +10861,14 @@
         <v>72.285714285714292</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P31" s="1"/>
-      <c r="Q31" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="15.75">
+    </row>
+    <row r="32" spans="1:16" ht="15.75">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -11006,17 +10909,14 @@
         <v>72.142857142857139</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P32" s="1"/>
-      <c r="Q32" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="15.75">
+    </row>
+    <row r="33" spans="1:16" ht="15.75">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -11059,17 +10959,14 @@
         <v>77.571428571428569</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P33" s="1"/>
-      <c r="Q33" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="15.75">
+    </row>
+    <row r="34" spans="1:16" ht="15.75">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -11110,17 +11007,14 @@
         <v>64</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P34" s="1"/>
-      <c r="Q34" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="15.75">
+    </row>
+    <row r="35" spans="1:16" ht="15.75">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -11161,17 +11055,14 @@
         <v>66.714285714285708</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P35" s="1"/>
-      <c r="Q35" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="15.75">
+    </row>
+    <row r="36" spans="1:16" ht="15.75">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -11212,17 +11103,14 @@
         <v>65.428571428571431</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P36" s="1"/>
-      <c r="Q36" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="15.75">
+    </row>
+    <row r="37" spans="1:16" ht="15.75">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -11263,17 +11151,14 @@
         <v>62</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P37" s="1"/>
-      <c r="Q37" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="15.75">
+    </row>
+    <row r="38" spans="1:16" ht="15.75">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -11316,17 +11201,14 @@
         <v>80.857142857142861</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P38" s="1"/>
-      <c r="Q38" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="15.75">
+    </row>
+    <row r="39" spans="1:16" ht="15.75">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -11369,17 +11251,14 @@
         <v>73.714285714285708</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P39" s="1"/>
-      <c r="Q39" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="15.75">
+    </row>
+    <row r="40" spans="1:16" ht="15.75">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -11420,17 +11299,14 @@
         <v>72.571428571428569</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P40" s="1"/>
-      <c r="Q40" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="15.75">
+    </row>
+    <row r="41" spans="1:16" ht="15.75">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -11471,17 +11347,14 @@
         <v>60.571428571428577</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P41" s="1"/>
-      <c r="Q41" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -11499,7 +11372,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:16">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -11517,7 +11390,7 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:16">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -11535,7 +11408,7 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:16">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -11553,7 +11426,7 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:16">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -11571,7 +11444,7 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:16">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -11678,10 +11551,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D2" s="49"/>
       <c r="E2" s="50">
@@ -11727,7 +11600,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>16</v>
@@ -11778,10 +11651,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="37">
@@ -11827,10 +11700,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="D5" s="49"/>
       <c r="E5" s="37">
@@ -11876,10 +11749,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="D6" s="37">
         <v>76</v>
@@ -11927,10 +11800,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="D7" s="37">
         <v>69</v>
@@ -11978,10 +11851,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="36">
@@ -12027,10 +11900,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="D9" s="37">
         <v>58</v>
@@ -12078,10 +11951,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="D10" s="37">
         <v>82</v>
@@ -12129,10 +12002,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="36">
@@ -12178,10 +12051,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="D12" s="37">
         <v>50</v>
@@ -12229,10 +12102,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="37">
@@ -12278,10 +12151,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D14" s="37">
         <v>68</v>
@@ -12329,10 +12202,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="D15" s="49"/>
       <c r="E15" s="36">
@@ -12378,10 +12251,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="37">
@@ -12427,10 +12300,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="D17" s="37">
         <v>73</v>
@@ -12478,10 +12351,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>284</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="37">
@@ -12527,10 +12400,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="37">
@@ -12576,10 +12449,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>288</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="37">
@@ -12625,10 +12498,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="36">
@@ -12674,10 +12547,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="D22" s="49"/>
       <c r="E22" s="36">
@@ -12723,10 +12596,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="37">
@@ -12772,10 +12645,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>296</v>
       </c>
       <c r="D24" s="49"/>
       <c r="E24" s="36">
@@ -12821,10 +12694,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="37">
@@ -12870,10 +12743,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="D26" s="37">
         <v>64</v>
@@ -12921,10 +12794,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="D27" s="49"/>
       <c r="E27" s="37">
@@ -12970,10 +12843,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D28" s="49"/>
       <c r="E28" s="36">
@@ -13019,10 +12892,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="D29" s="49"/>
       <c r="E29" s="37">
@@ -13068,10 +12941,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>306</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>307</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="37">
@@ -13117,10 +12990,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="D31" s="49"/>
       <c r="E31" s="36">
@@ -13166,10 +13039,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="D32" s="49"/>
       <c r="E32" s="37">
@@ -13215,10 +13088,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="D33" s="36">
         <v>23</v>
@@ -13266,10 +13139,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>315</v>
       </c>
       <c r="D34" s="37">
         <v>75</v>
@@ -13317,10 +13190,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="D35" s="49"/>
       <c r="E35" s="37">
@@ -13366,10 +13239,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>319</v>
       </c>
       <c r="D36" s="37">
         <v>62</v>
@@ -13417,10 +13290,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>321</v>
       </c>
       <c r="D37" s="49"/>
       <c r="E37" s="37">
@@ -13703,7 +13576,7 @@
   <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:A40"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13737,34 +13610,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E1" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="J1" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>421</v>
-      </c>
       <c r="K1" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
@@ -13780,6 +13653,9 @@
       </c>
       <c r="R1" t="s">
         <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
@@ -13793,7 +13669,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E2" s="35">
         <v>70</v>
@@ -13827,8 +13703,11 @@
         <v>601</v>
       </c>
       <c r="O2" s="1">
-        <f>(N2/700)*100</f>
-        <v>85.857142857142861</v>
+        <f>(N2/900)*100</f>
+        <v>66.777777777777786</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75">
@@ -13842,7 +13721,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E3" s="37">
         <v>72</v>
@@ -13872,12 +13751,12 @@
         <v>50</v>
       </c>
       <c r="N3" s="1">
-        <f>SUM(E3:M3)</f>
+        <f t="shared" ref="N3:N41" si="0">SUM(E3:M3)</f>
         <v>593</v>
       </c>
       <c r="O3" s="1">
-        <f>(N3/700)*100</f>
-        <v>84.714285714285722</v>
+        <f t="shared" ref="O3:O40" si="1">(N3/900)*100</f>
+        <v>65.888888888888886</v>
       </c>
       <c r="P3" s="1">
         <v>0</v>
@@ -13885,7 +13764,9 @@
       <c r="Q3" s="1">
         <v>0</v>
       </c>
-      <c r="S3" s="8"/>
+      <c r="S3" s="8" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="15.75">
       <c r="A4" s="4">
@@ -13898,7 +13779,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E4" s="37">
         <v>70</v>
@@ -13928,12 +13809,12 @@
         <v>40</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:N50" si="0">SUM(E4:M4)</f>
+        <f t="shared" si="0"/>
         <v>608</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" ref="O4:O50" si="1">(N4/700)*100</f>
-        <v>86.857142857142861</v>
+        <f t="shared" si="1"/>
+        <v>67.555555555555557</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
@@ -13941,7 +13822,9 @@
       <c r="Q4" s="1">
         <v>0</v>
       </c>
-      <c r="S4" s="8"/>
+      <c r="S4" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="15.75">
       <c r="A5">
@@ -13954,7 +13837,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E5" s="33">
         <v>70</v>
@@ -13983,13 +13866,13 @@
       <c r="M5" s="33">
         <v>40</v>
       </c>
-      <c r="N5" s="1" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O5" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="N5" s="1">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="1"/>
+        <v>68.888888888888886</v>
       </c>
       <c r="P5" s="1">
         <v>0</v>
@@ -13997,7 +13880,9 @@
       <c r="Q5" s="1">
         <v>0</v>
       </c>
-      <c r="S5" s="8"/>
+      <c r="S5" s="8" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="15.75">
       <c r="A6" s="2">
@@ -14010,7 +13895,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E6" s="33">
         <v>90</v>
@@ -14040,12 +13925,12 @@
         <v>82</v>
       </c>
       <c r="N6" s="1">
-        <f>SUM(E5:M5)</f>
-        <v>620</v>
+        <f t="shared" si="0"/>
+        <v>804</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="1"/>
-        <v>88.571428571428569</v>
+        <v>89.333333333333329</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
@@ -14053,7 +13938,9 @@
       <c r="Q6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="8"/>
+      <c r="S6" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="15.75">
       <c r="A7">
@@ -14066,7 +13953,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E7" s="33">
         <v>62</v>
@@ -14096,12 +13983,12 @@
         <v>37</v>
       </c>
       <c r="N7" s="1">
-        <f>SUM(E6:M6)</f>
-        <v>804</v>
+        <f t="shared" si="0"/>
+        <v>567</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="1"/>
-        <v>114.85714285714286</v>
+        <v>63</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -14109,7 +13996,9 @@
       <c r="Q7" s="1">
         <v>0</v>
       </c>
-      <c r="S7" s="8"/>
+      <c r="S7" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="15.75">
       <c r="A8" s="2">
@@ -14122,7 +14011,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E8" s="33">
         <v>83</v>
@@ -14152,12 +14041,12 @@
         <v>50</v>
       </c>
       <c r="N8" s="1">
-        <f>SUM(E7:M7)</f>
-        <v>567</v>
+        <f t="shared" si="0"/>
+        <v>658</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>73.111111111111114</v>
       </c>
       <c r="P8" s="1">
         <v>0</v>
@@ -14165,7 +14054,9 @@
       <c r="Q8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="8"/>
+      <c r="S8" s="8" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="15.75">
       <c r="A9" s="4">
@@ -14178,7 +14069,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E9" s="33">
         <v>75</v>
@@ -14208,12 +14099,12 @@
         <v>51</v>
       </c>
       <c r="N9" s="1">
-        <f>SUM(E8:M8)</f>
-        <v>658</v>
+        <f t="shared" si="0"/>
+        <v>651</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>72.333333333333343</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
@@ -14221,7 +14112,9 @@
       <c r="Q9" s="1">
         <v>0</v>
       </c>
-      <c r="S9" s="8"/>
+      <c r="S9" s="8" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="15.75">
       <c r="A10">
@@ -14234,7 +14127,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E10" s="33">
         <v>65</v>
@@ -14264,12 +14157,12 @@
         <v>50</v>
       </c>
       <c r="N10" s="1">
-        <f>SUM(E9:M9)</f>
-        <v>651</v>
+        <f t="shared" si="0"/>
+        <v>633</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>70.333333333333343</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
@@ -14277,7 +14170,9 @@
       <c r="Q10" s="1">
         <v>0</v>
       </c>
-      <c r="S10" s="8"/>
+      <c r="S10" s="8" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="15.75">
       <c r="A11" s="2">
@@ -14290,13 +14185,13 @@
         <v>39</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G11" s="33">
         <v>74</v>
@@ -14320,12 +14215,12 @@
         <v>50</v>
       </c>
       <c r="N11" s="1">
-        <f>SUM(E10:M10)</f>
-        <v>633</v>
+        <f t="shared" si="0"/>
+        <v>395</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="1"/>
-        <v>90.428571428571431</v>
+        <v>43.888888888888886</v>
       </c>
       <c r="P11" s="1">
         <v>0</v>
@@ -14333,7 +14228,9 @@
       <c r="Q11" s="1">
         <v>0</v>
       </c>
-      <c r="S11" s="8"/>
+      <c r="S11" s="8" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="15.75">
       <c r="A12">
@@ -14346,13 +14243,13 @@
         <v>41</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F12" s="61" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G12" s="33">
         <v>81</v>
@@ -14375,13 +14272,13 @@
       <c r="M12" s="33">
         <v>50</v>
       </c>
-      <c r="N12" s="1" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O12" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="N12" s="1">
+        <f t="shared" si="0"/>
+        <v>427</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="1"/>
+        <v>47.444444444444443</v>
       </c>
       <c r="P12" s="1">
         <v>0</v>
@@ -14389,7 +14286,9 @@
       <c r="Q12" s="1">
         <v>0</v>
       </c>
-      <c r="S12" s="8"/>
+      <c r="S12" s="8" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="15.75">
       <c r="A13" s="2">
@@ -14402,7 +14301,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E13" s="33">
         <v>70</v>
@@ -14432,12 +14331,12 @@
         <v>51</v>
       </c>
       <c r="N13" s="1">
-        <f>SUM(E12:M12)</f>
-        <v>427</v>
+        <f t="shared" si="0"/>
+        <v>600</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="P13" s="1">
         <v>0</v>
@@ -14445,7 +14344,9 @@
       <c r="Q13" s="1">
         <v>0</v>
       </c>
-      <c r="S13" s="8"/>
+      <c r="S13" s="8" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="15.75">
       <c r="A14" s="4">
@@ -14458,13 +14359,13 @@
         <v>45</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G14" s="33">
         <v>82</v>
@@ -14488,12 +14389,12 @@
         <v>50</v>
       </c>
       <c r="N14" s="1">
-        <f>SUM(E13:M13)</f>
-        <v>600</v>
+        <f t="shared" si="0"/>
+        <v>401</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="1"/>
-        <v>85.714285714285708</v>
+        <v>44.555555555555557</v>
       </c>
       <c r="P14" s="1">
         <v>0</v>
@@ -14501,7 +14402,9 @@
       <c r="Q14" s="1">
         <v>0</v>
       </c>
-      <c r="S14" s="8"/>
+      <c r="S14" s="8" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="15.75">
       <c r="A15">
@@ -14514,7 +14417,7 @@
         <v>47</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E15" s="33">
         <v>70</v>
@@ -14543,13 +14446,13 @@
       <c r="M15" s="33">
         <v>50</v>
       </c>
-      <c r="N15" s="1" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O15" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="N15" s="1">
+        <f t="shared" si="0"/>
+        <v>642</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="1"/>
+        <v>71.333333333333343</v>
       </c>
       <c r="P15" s="1">
         <v>0</v>
@@ -14557,7 +14460,9 @@
       <c r="Q15" s="1">
         <v>0</v>
       </c>
-      <c r="S15" s="8"/>
+      <c r="S15" s="8" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="15.75">
       <c r="A16" s="2">
@@ -14570,7 +14475,7 @@
         <v>49</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E16" s="33">
         <v>0</v>
@@ -14600,12 +14505,12 @@
         <v>35</v>
       </c>
       <c r="N16" s="1">
-        <f>SUM(E15:M15)</f>
-        <v>642</v>
+        <f t="shared" si="0"/>
+        <v>411</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" si="1"/>
-        <v>91.714285714285708</v>
+        <v>45.666666666666664</v>
       </c>
       <c r="P16" s="1">
         <v>0</v>
@@ -14613,7 +14518,9 @@
       <c r="Q16" s="1">
         <v>0</v>
       </c>
-      <c r="S16" s="8"/>
+      <c r="S16" s="8" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="17" spans="1:19" ht="15.75">
       <c r="A17">
@@ -14626,7 +14533,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E17" s="33">
         <v>75</v>
@@ -14656,12 +14563,12 @@
         <v>70</v>
       </c>
       <c r="N17" s="1">
-        <f>SUM(E16:M16)</f>
-        <v>411</v>
+        <f t="shared" si="0"/>
+        <v>691</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="1"/>
-        <v>58.714285714285722</v>
+        <v>76.777777777777771</v>
       </c>
       <c r="P17" s="1">
         <v>0</v>
@@ -14669,7 +14576,9 @@
       <c r="Q17" s="1">
         <v>0</v>
       </c>
-      <c r="S17" s="8"/>
+      <c r="S17" s="8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="18" spans="1:19" ht="15.75">
       <c r="A18" s="2">
@@ -14682,7 +14591,7 @@
         <v>53</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E18" s="33">
         <v>70</v>
@@ -14712,12 +14621,12 @@
         <v>55</v>
       </c>
       <c r="N18" s="1">
-        <f>SUM(E17:M17)</f>
-        <v>691</v>
+        <f t="shared" si="0"/>
+        <v>625</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" si="1"/>
-        <v>98.714285714285708</v>
+        <v>69.444444444444443</v>
       </c>
       <c r="P18" s="1">
         <v>0</v>
@@ -14725,7 +14634,9 @@
       <c r="Q18" s="1">
         <v>0</v>
       </c>
-      <c r="S18" s="8"/>
+      <c r="S18" s="8" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="19" spans="1:19" ht="15.75">
       <c r="A19" s="4">
@@ -14738,13 +14649,13 @@
         <v>55</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E19" s="33">
         <v>0</v>
       </c>
       <c r="F19" s="61" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G19" s="33">
         <v>62</v>
@@ -14768,12 +14679,12 @@
         <v>35</v>
       </c>
       <c r="N19" s="1">
-        <f>SUM(E18:M18)</f>
-        <v>625</v>
+        <f t="shared" si="0"/>
+        <v>270</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="1"/>
-        <v>89.285714285714292</v>
+        <v>30</v>
       </c>
       <c r="P19" s="1">
         <v>0</v>
@@ -14781,7 +14692,9 @@
       <c r="Q19" s="1">
         <v>0</v>
       </c>
-      <c r="S19" s="8"/>
+      <c r="S19" s="8" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="15.75">
       <c r="A20">
@@ -14791,10 +14704,10 @@
         <v>56</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E20" s="33">
         <v>70</v>
@@ -14824,12 +14737,12 @@
         <v>34</v>
       </c>
       <c r="N20" s="1">
-        <f>SUM(E19:M19)</f>
-        <v>270</v>
+        <f t="shared" si="0"/>
+        <v>570</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" si="1"/>
-        <v>38.571428571428577</v>
+        <v>63.333333333333329</v>
       </c>
       <c r="P20" s="1">
         <v>0</v>
@@ -14837,7 +14750,9 @@
       <c r="Q20" s="1">
         <v>0</v>
       </c>
-      <c r="S20" s="8"/>
+      <c r="S20" s="8" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="15.75">
       <c r="A21" s="2">
@@ -14847,10 +14762,10 @@
         <v>58</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E21" s="33">
         <v>80</v>
@@ -14880,12 +14795,12 @@
         <v>50</v>
       </c>
       <c r="N21" s="1">
-        <f>SUM(E20:M20)</f>
-        <v>570</v>
+        <f t="shared" si="0"/>
+        <v>648</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="1"/>
-        <v>81.428571428571431</v>
+        <v>72</v>
       </c>
       <c r="P21" s="1">
         <v>0</v>
@@ -14893,7 +14808,9 @@
       <c r="Q21" s="1">
         <v>0</v>
       </c>
-      <c r="S21" s="8"/>
+      <c r="S21" s="8" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="22" spans="1:19" ht="15.75">
       <c r="A22">
@@ -14906,7 +14823,7 @@
         <v>61</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E22" s="33">
         <v>70</v>
@@ -14936,12 +14853,12 @@
         <v>50</v>
       </c>
       <c r="N22" s="1">
-        <f>SUM(E21:M21)</f>
-        <v>648</v>
+        <f t="shared" si="0"/>
+        <v>573</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" si="1"/>
-        <v>92.571428571428569</v>
+        <v>63.666666666666671</v>
       </c>
       <c r="P22" s="1">
         <v>0</v>
@@ -14949,7 +14866,9 @@
       <c r="Q22" s="1">
         <v>0</v>
       </c>
-      <c r="S22" s="8"/>
+      <c r="S22" s="8" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="15.75">
       <c r="A23" s="2">
@@ -14962,7 +14881,7 @@
         <v>63</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E23" s="33">
         <v>80</v>
@@ -14992,12 +14911,12 @@
         <v>51</v>
       </c>
       <c r="N23" s="1">
-        <f>SUM(E22:M22)</f>
-        <v>573</v>
+        <f t="shared" si="0"/>
+        <v>711</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" si="1"/>
-        <v>81.857142857142861</v>
+        <v>79</v>
       </c>
       <c r="P23" s="1">
         <v>0</v>
@@ -15005,7 +14924,9 @@
       <c r="Q23" s="1">
         <v>0</v>
       </c>
-      <c r="S23" s="8"/>
+      <c r="S23" s="8" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="24" spans="1:19" ht="15.75">
       <c r="A24" s="4">
@@ -15018,7 +14939,7 @@
         <v>65</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E24" s="33">
         <v>65</v>
@@ -15048,12 +14969,12 @@
         <v>31</v>
       </c>
       <c r="N24" s="1">
-        <f>SUM(E23:M23)</f>
-        <v>711</v>
+        <f t="shared" si="0"/>
+        <v>528</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" si="1"/>
-        <v>101.57142857142858</v>
+        <v>58.666666666666664</v>
       </c>
       <c r="P24" s="1">
         <v>0</v>
@@ -15061,7 +14982,9 @@
       <c r="Q24" s="1">
         <v>0</v>
       </c>
-      <c r="S24" s="8"/>
+      <c r="S24" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="25" spans="1:19" ht="15.75">
       <c r="A25">
@@ -15074,7 +14997,7 @@
         <v>67</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E25" s="33">
         <v>60</v>
@@ -15104,12 +15027,12 @@
         <v>43</v>
       </c>
       <c r="N25" s="1">
-        <f>SUM(E24:M24)</f>
-        <v>528</v>
+        <f t="shared" si="0"/>
+        <v>566</v>
       </c>
       <c r="O25" s="1">
         <f t="shared" si="1"/>
-        <v>75.428571428571431</v>
+        <v>62.888888888888893</v>
       </c>
       <c r="P25" s="1">
         <v>0</v>
@@ -15117,7 +15040,9 @@
       <c r="Q25" s="1">
         <v>0</v>
       </c>
-      <c r="S25" s="8"/>
+      <c r="S25" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="26" spans="1:19" ht="15.75">
       <c r="A26" s="2">
@@ -15130,7 +15055,7 @@
         <v>69</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E26" s="33">
         <v>70</v>
@@ -15160,12 +15085,12 @@
         <v>43</v>
       </c>
       <c r="N26" s="1">
-        <f>SUM(E25:M25)</f>
-        <v>566</v>
+        <f t="shared" si="0"/>
+        <v>592</v>
       </c>
       <c r="O26" s="1">
         <f t="shared" si="1"/>
-        <v>80.857142857142861</v>
+        <v>65.777777777777786</v>
       </c>
       <c r="P26" s="1">
         <v>0</v>
@@ -15173,7 +15098,9 @@
       <c r="Q26" s="1">
         <v>0</v>
       </c>
-      <c r="S26" s="8"/>
+      <c r="S26" s="8" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="27" spans="1:19" ht="15.75">
       <c r="A27">
@@ -15186,7 +15113,7 @@
         <v>71</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E27" s="33">
         <v>81</v>
@@ -15216,12 +15143,12 @@
         <v>65</v>
       </c>
       <c r="N27" s="1">
-        <f>SUM(E26:M26)</f>
-        <v>592</v>
+        <f t="shared" si="0"/>
+        <v>715</v>
       </c>
       <c r="O27" s="1">
         <f t="shared" si="1"/>
-        <v>84.571428571428569</v>
+        <v>79.444444444444443</v>
       </c>
       <c r="P27" s="1">
         <v>0</v>
@@ -15229,7 +15156,9 @@
       <c r="Q27" s="1">
         <v>0</v>
       </c>
-      <c r="S27" s="8"/>
+      <c r="S27" s="8" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="28" spans="1:19" ht="31.5">
       <c r="A28" s="2">
@@ -15242,7 +15171,7 @@
         <v>73</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E28" s="33">
         <v>55</v>
@@ -15272,12 +15201,12 @@
         <v>50</v>
       </c>
       <c r="N28" s="1">
-        <f>SUM(E27:M27)</f>
-        <v>715</v>
+        <f t="shared" si="0"/>
+        <v>539</v>
       </c>
       <c r="O28" s="1">
         <f t="shared" si="1"/>
-        <v>102.14285714285714</v>
+        <v>59.888888888888893</v>
       </c>
       <c r="P28" s="1">
         <v>0</v>
@@ -15285,7 +15214,9 @@
       <c r="Q28" s="1">
         <v>0</v>
       </c>
-      <c r="S28" s="8"/>
+      <c r="S28" s="8" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="29" spans="1:19" ht="31.5">
       <c r="A29" s="4">
@@ -15298,7 +15229,7 @@
         <v>75</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E29" s="33">
         <v>85</v>
@@ -15328,12 +15259,12 @@
         <v>60</v>
       </c>
       <c r="N29" s="1">
-        <f>SUM(E28:M28)</f>
-        <v>539</v>
+        <f t="shared" si="0"/>
+        <v>677</v>
       </c>
       <c r="O29" s="1">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>75.222222222222229</v>
       </c>
       <c r="P29" s="1">
         <v>0</v>
@@ -15341,9 +15272,11 @@
       <c r="Q29" s="1">
         <v>0</v>
       </c>
-      <c r="S29" s="8"/>
-    </row>
-    <row r="30" spans="1:19" ht="31.5">
+      <c r="S29" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15.75">
       <c r="A30">
         <v>29</v>
       </c>
@@ -15351,10 +15284,10 @@
         <v>76</v>
       </c>
       <c r="C30" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>672</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>673</v>
       </c>
       <c r="E30" s="33">
         <v>75</v>
@@ -15384,12 +15317,12 @@
         <v>55</v>
       </c>
       <c r="N30" s="1">
-        <f>SUM(E29:M29)</f>
-        <v>677</v>
+        <f t="shared" si="0"/>
+        <v>623</v>
       </c>
       <c r="O30" s="1">
         <f t="shared" si="1"/>
-        <v>96.714285714285722</v>
+        <v>69.222222222222214</v>
       </c>
       <c r="P30" s="1">
         <v>0</v>
@@ -15397,7 +15330,9 @@
       <c r="Q30" s="1">
         <v>0</v>
       </c>
-      <c r="S30" s="8"/>
+      <c r="S30" s="8" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="31" spans="1:19" ht="15.75">
       <c r="A31" s="2">
@@ -15410,7 +15345,7 @@
         <v>79</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E31" s="33">
         <v>78</v>
@@ -15440,12 +15375,12 @@
         <v>55</v>
       </c>
       <c r="N31" s="1">
-        <f>SUM(E30:M30)</f>
-        <v>623</v>
+        <f t="shared" si="0"/>
+        <v>648</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="P31" s="1">
         <v>0</v>
@@ -15453,7 +15388,9 @@
       <c r="Q31" s="1">
         <v>0</v>
       </c>
-      <c r="S31" s="8"/>
+      <c r="S31" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="32" spans="1:19" ht="15.75">
       <c r="A32">
@@ -15466,7 +15403,7 @@
         <v>81</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E32" s="33">
         <v>80</v>
@@ -15496,12 +15433,12 @@
         <v>55</v>
       </c>
       <c r="N32" s="1">
-        <f>SUM(E31:M31)</f>
-        <v>648</v>
+        <f t="shared" si="0"/>
+        <v>694</v>
       </c>
       <c r="O32" s="1">
         <f t="shared" si="1"/>
-        <v>92.571428571428569</v>
+        <v>77.111111111111114</v>
       </c>
       <c r="P32" s="1">
         <v>0</v>
@@ -15509,7 +15446,9 @@
       <c r="Q32" s="1">
         <v>0</v>
       </c>
-      <c r="S32" s="8"/>
+      <c r="S32" s="8" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="33" spans="1:19" ht="15.75">
       <c r="A33" s="2">
@@ -15522,7 +15461,7 @@
         <v>83</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E33" s="33">
         <v>71</v>
@@ -15552,12 +15491,12 @@
         <v>55</v>
       </c>
       <c r="N33" s="1">
-        <f>SUM(E32:M32)</f>
-        <v>694</v>
+        <f t="shared" si="0"/>
+        <v>596</v>
       </c>
       <c r="O33" s="1">
         <f t="shared" si="1"/>
-        <v>99.142857142857139</v>
+        <v>66.222222222222229</v>
       </c>
       <c r="P33" s="1">
         <v>0</v>
@@ -15565,7 +15504,9 @@
       <c r="Q33" s="1">
         <v>0</v>
       </c>
-      <c r="S33" s="8"/>
+      <c r="S33" s="8" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="34" spans="1:19" ht="15.75">
       <c r="A34" s="4">
@@ -15578,7 +15519,7 @@
         <v>85</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E34" s="33">
         <v>77</v>
@@ -15608,12 +15549,12 @@
         <v>50</v>
       </c>
       <c r="N34" s="1">
-        <f>SUM(E33:M33)</f>
-        <v>596</v>
+        <f t="shared" si="0"/>
+        <v>632</v>
       </c>
       <c r="O34" s="1">
         <f t="shared" si="1"/>
-        <v>85.142857142857139</v>
+        <v>70.222222222222214</v>
       </c>
       <c r="P34" s="1">
         <v>0</v>
@@ -15621,7 +15562,9 @@
       <c r="Q34" s="1">
         <v>0</v>
       </c>
-      <c r="S34" s="8"/>
+      <c r="S34" s="8" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="35" spans="1:19" ht="15.75">
       <c r="A35">
@@ -15634,7 +15577,7 @@
         <v>87</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E35" s="33">
         <v>70</v>
@@ -15664,12 +15607,12 @@
         <v>42</v>
       </c>
       <c r="N35" s="1">
-        <f>SUM(E34:M34)</f>
-        <v>632</v>
+        <f t="shared" si="0"/>
+        <v>621</v>
       </c>
       <c r="O35" s="1">
         <f t="shared" si="1"/>
-        <v>90.285714285714278</v>
+        <v>69</v>
       </c>
       <c r="P35" s="1">
         <v>0</v>
@@ -15677,7 +15620,9 @@
       <c r="Q35" s="1">
         <v>0</v>
       </c>
-      <c r="S35" s="8"/>
+      <c r="S35" s="8" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="36" spans="1:19" ht="15.75">
       <c r="A36" s="2">
@@ -15690,7 +15635,7 @@
         <v>89</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E36" s="1">
         <v>60</v>
@@ -15720,12 +15665,12 @@
         <v>50</v>
       </c>
       <c r="N36" s="1">
-        <f>SUM(E35:M35)</f>
-        <v>621</v>
+        <f t="shared" si="0"/>
+        <v>560</v>
       </c>
       <c r="O36" s="1">
         <f t="shared" si="1"/>
-        <v>88.714285714285708</v>
+        <v>62.222222222222221</v>
       </c>
       <c r="P36" s="1">
         <v>0</v>
@@ -15733,7 +15678,9 @@
       <c r="Q36" s="1">
         <v>0</v>
       </c>
-      <c r="S36" s="8"/>
+      <c r="S36" s="8" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="37" spans="1:19" ht="15.75">
       <c r="A37">
@@ -15746,7 +15693,7 @@
         <v>91</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E37" s="1">
         <v>82</v>
@@ -15776,12 +15723,12 @@
         <v>65</v>
       </c>
       <c r="N37" s="1">
-        <f>SUM(E37:M37)</f>
+        <f t="shared" si="0"/>
         <v>715</v>
       </c>
       <c r="O37" s="1">
         <f t="shared" si="1"/>
-        <v>102.14285714285714</v>
+        <v>79.444444444444443</v>
       </c>
       <c r="P37" s="1">
         <v>0</v>
@@ -15789,7 +15736,9 @@
       <c r="Q37" s="1">
         <v>0</v>
       </c>
-      <c r="S37" s="8"/>
+      <c r="S37" s="8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="38" spans="1:19" ht="15.75">
       <c r="A38" s="2">
@@ -15802,7 +15751,7 @@
         <v>93</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E38" s="1">
         <v>78</v>
@@ -15832,12 +15781,12 @@
         <v>55</v>
       </c>
       <c r="N38" s="1">
-        <f>SUM(E38:M38)</f>
+        <f t="shared" si="0"/>
         <v>665</v>
       </c>
       <c r="O38" s="1">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>73.888888888888886</v>
       </c>
       <c r="P38" s="1">
         <v>0</v>
@@ -15845,7 +15794,9 @@
       <c r="Q38" s="1">
         <v>0</v>
       </c>
-      <c r="S38" s="8"/>
+      <c r="S38" s="8" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="39" spans="1:19" ht="15.75">
       <c r="A39" s="4">
@@ -15858,7 +15809,7 @@
         <v>95</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E39" s="1">
         <v>71</v>
@@ -15888,12 +15839,12 @@
         <v>40</v>
       </c>
       <c r="N39" s="1">
-        <f>SUM(E39:M39)</f>
+        <f t="shared" si="0"/>
         <v>626</v>
       </c>
       <c r="O39" s="1">
         <f t="shared" si="1"/>
-        <v>89.428571428571431</v>
+        <v>69.555555555555557</v>
       </c>
       <c r="P39" s="1">
         <v>0</v>
@@ -15901,7 +15852,9 @@
       <c r="Q39" s="1">
         <v>0</v>
       </c>
-      <c r="S39" s="8"/>
+      <c r="S39" s="8" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="40" spans="1:19" ht="15.75">
       <c r="A40">
@@ -15914,7 +15867,7 @@
         <v>97</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E40" s="1">
         <v>61</v>
@@ -15944,12 +15897,12 @@
         <v>0</v>
       </c>
       <c r="N40" s="1">
-        <f>SUM(E40:M40)</f>
+        <f t="shared" si="0"/>
         <v>445</v>
       </c>
       <c r="O40" s="1">
         <f t="shared" si="1"/>
-        <v>63.571428571428569</v>
+        <v>49.444444444444443</v>
       </c>
       <c r="P40" s="1">
         <v>0</v>
@@ -15957,7 +15910,9 @@
       <c r="Q40" s="1">
         <v>0</v>
       </c>
-      <c r="S40" s="8"/>
+      <c r="S40" s="8" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="41" spans="1:19" ht="15.75">
       <c r="A41" s="4"/>
@@ -15993,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O41:O50" si="2">(N41/700)*100</f>
         <v>0</v>
       </c>
       <c r="P41" s="1">
@@ -16033,11 +15988,11 @@
         <v>0</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N42:N50" si="3">SUM(E42:M42)</f>
         <v>0</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P42" s="1">
@@ -16080,11 +16035,11 @@
         <v>0</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P43" s="1">
@@ -16127,11 +16082,11 @@
         <v>0</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P44" s="1">
@@ -16173,11 +16128,11 @@
         <v>0</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P45" s="1">
@@ -16220,11 +16175,11 @@
         <v>0</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P46" s="1">
@@ -16267,11 +16222,11 @@
         <v>0</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P47" s="1">
@@ -16313,11 +16268,11 @@
         <v>0</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P48" s="1">
@@ -16360,11 +16315,11 @@
         <v>0</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P49" s="1">
@@ -16407,11 +16362,11 @@
         <v>0</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P50" s="1">
@@ -16470,31 +16425,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="I1" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>421</v>
-      </c>
       <c r="J1" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
@@ -16517,10 +16472,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>322</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>323</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -16545,7 +16500,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>16</v>
@@ -16598,10 +16553,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>325</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>326</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -16651,10 +16606,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>327</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>328</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -16704,10 +16659,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>329</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>330</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -16757,10 +16712,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>331</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>332</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -16810,10 +16765,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>333</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>334</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -16863,10 +16818,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>335</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>336</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -16916,10 +16871,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>337</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>338</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -16969,10 +16924,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>339</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>340</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -17022,10 +16977,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>341</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>342</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -17075,10 +17030,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>343</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>344</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -17128,10 +17083,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -17181,10 +17136,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>346</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>347</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -17234,10 +17189,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>348</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>349</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -17287,10 +17242,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>350</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>351</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -17340,10 +17295,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>352</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>353</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -17393,10 +17348,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>354</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>355</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -17446,10 +17401,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>356</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>357</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -17499,10 +17454,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>358</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>359</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -17552,10 +17507,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>360</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>361</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -17605,10 +17560,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>362</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>363</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -17658,10 +17613,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>364</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>365</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -17711,10 +17666,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>366</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>367</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -17764,10 +17719,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>368</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>369</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -17817,10 +17772,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -17870,10 +17825,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>371</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>372</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -17923,10 +17878,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>373</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>374</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -17976,10 +17931,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>375</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>376</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -18029,10 +17984,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>377</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>378</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -18082,10 +18037,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>379</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>380</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -18135,10 +18090,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>381</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>382</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -18188,10 +18143,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>383</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>384</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -18241,10 +18196,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>385</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>386</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -18294,10 +18249,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>387</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>388</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -18347,10 +18302,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -18400,10 +18355,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>390</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>391</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -18453,10 +18408,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>392</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>393</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -18506,10 +18461,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C40" s="20" t="s">
         <v>394</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>395</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -18559,10 +18514,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="C41" s="20" t="s">
         <v>396</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>397</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -18612,10 +18567,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="C42" s="20" t="s">
         <v>398</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>399</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -18665,10 +18620,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="C43" s="20" t="s">
         <v>400</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>401</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -18717,10 +18672,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="C44" s="20" t="s">
         <v>402</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>403</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -18769,10 +18724,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="C45" s="20" t="s">
         <v>404</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>405</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -18821,10 +18776,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="C46" s="25" t="s">
         <v>407</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>408</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -18873,10 +18828,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="C47" s="16" t="s">
         <v>409</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>410</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -18925,10 +18880,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>411</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>412</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -19212,28 +19167,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>514</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>516</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>517</v>
       </c>
-      <c r="I1" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="30" t="s">
         <v>518</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>519</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
@@ -19256,10 +19211,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>422</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>423</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -19277,10 +19232,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>424</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>425</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -19327,10 +19282,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>426</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>427</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -19377,10 +19332,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>428</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>429</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -19427,10 +19382,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>430</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>431</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -19477,10 +19432,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>432</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>433</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -19527,10 +19482,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>434</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>435</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -19577,10 +19532,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>436</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>437</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -19627,10 +19582,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -19677,10 +19632,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -19727,10 +19682,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -19777,10 +19732,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -19827,10 +19782,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -19877,10 +19832,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -19927,10 +19882,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>444</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>445</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -19977,10 +19932,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>446</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>447</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -20027,10 +19982,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>448</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>449</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -20077,10 +20032,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>450</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>451</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -20127,10 +20082,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>452</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>453</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -20177,10 +20132,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>454</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>455</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -20227,10 +20182,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>456</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>457</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -20277,10 +20232,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>458</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>459</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -20327,10 +20282,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>460</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>461</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -20377,10 +20332,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>462</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>463</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -20427,10 +20382,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>464</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>465</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -20477,10 +20432,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>466</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>467</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -20527,10 +20482,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>468</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>469</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -20577,10 +20532,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>470</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>471</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -20627,10 +20582,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>472</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>473</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -20677,10 +20632,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>474</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>475</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -20727,10 +20682,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>476</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>477</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -20777,10 +20732,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>478</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>479</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -20827,10 +20782,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>480</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>481</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -20877,10 +20832,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>482</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>483</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -20927,10 +20882,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -20977,10 +20932,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>485</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>486</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -21027,10 +20982,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -21077,10 +21032,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -21127,10 +21082,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -21177,10 +21132,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>490</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>491</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -21227,10 +21182,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>492</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>493</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -21277,10 +21232,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>494</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>495</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -21326,10 +21281,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>496</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>497</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -21375,10 +21330,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>498</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>499</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -21424,10 +21379,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>500</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>501</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -21473,10 +21428,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="C47" s="16" t="s">
         <v>502</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>503</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -21522,10 +21477,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -21571,10 +21526,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -21793,19 +21748,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>583</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>584</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>585</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>586</v>
       </c>
-      <c r="G1" s="27" t="s">
-        <v>587</v>
-      </c>
       <c r="H1" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
@@ -21828,10 +21783,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>520</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>521</v>
       </c>
       <c r="D2" s="51">
         <v>70</v>
@@ -21854,10 +21809,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>522</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>523</v>
       </c>
       <c r="D3" s="51">
         <v>72</v>
@@ -21895,10 +21850,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>524</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>525</v>
       </c>
       <c r="D4" s="51">
         <v>66</v>
@@ -21936,10 +21891,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
+        <v>525</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>526</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>527</v>
       </c>
       <c r="D5" s="51">
         <v>72</v>
@@ -21977,10 +21932,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>527</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>528</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>529</v>
       </c>
       <c r="D6" s="51">
         <v>56</v>
@@ -22018,10 +21973,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
+        <v>529</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>530</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>531</v>
       </c>
       <c r="D7" s="51">
         <v>90</v>
@@ -22059,10 +22014,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
+        <v>531</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>532</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>533</v>
       </c>
       <c r="D8" s="51">
         <v>75</v>
@@ -22100,10 +22055,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
+        <v>533</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>534</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>535</v>
       </c>
       <c r="D9" s="51">
         <v>72</v>
@@ -22141,10 +22096,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
+        <v>535</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>536</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>537</v>
       </c>
       <c r="D10" s="51">
         <v>73</v>
@@ -22182,10 +22137,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>538</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>539</v>
       </c>
       <c r="D11" s="51">
         <v>68</v>
@@ -22223,10 +22178,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>540</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>541</v>
       </c>
       <c r="D12" s="51">
         <v>70</v>
@@ -22264,10 +22219,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="31" t="s">
+        <v>541</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>542</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>543</v>
       </c>
       <c r="D13" s="51">
         <v>65</v>
@@ -22305,10 +22260,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="31" t="s">
+        <v>543</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>544</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>545</v>
       </c>
       <c r="D14" s="51">
         <v>73</v>
@@ -22346,10 +22301,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>546</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>547</v>
       </c>
       <c r="D15" s="51">
         <v>65</v>
@@ -22387,10 +22342,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="31" t="s">
+        <v>547</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>548</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>549</v>
       </c>
       <c r="D16" s="51">
         <v>72</v>
@@ -22428,10 +22383,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="31" t="s">
+        <v>549</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>550</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>551</v>
       </c>
       <c r="D17" s="51">
         <v>77</v>
@@ -22469,10 +22424,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>552</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>553</v>
       </c>
       <c r="D18" s="51">
         <v>77</v>
@@ -22510,10 +22465,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="31" t="s">
+        <v>553</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>554</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>555</v>
       </c>
       <c r="D19" s="51">
         <v>66</v>
@@ -22551,10 +22506,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="31" t="s">
+        <v>555</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>556</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>557</v>
       </c>
       <c r="D20" s="51">
         <v>73</v>
@@ -22592,10 +22547,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="31" t="s">
+        <v>557</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>558</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>559</v>
       </c>
       <c r="D21" s="51">
         <v>66</v>
@@ -22633,10 +22588,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>560</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>561</v>
       </c>
       <c r="D22" s="51">
         <v>68</v>
@@ -22674,10 +22629,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>562</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>563</v>
       </c>
       <c r="D23" s="51">
         <v>65</v>
@@ -22715,10 +22670,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>564</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>565</v>
       </c>
       <c r="D24" s="51">
         <v>68</v>
@@ -22756,10 +22711,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="31" t="s">
+        <v>565</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>566</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>567</v>
       </c>
       <c r="D25" s="51">
         <v>70</v>
@@ -22797,10 +22752,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="31" t="s">
+        <v>567</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>568</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>569</v>
       </c>
       <c r="D26" s="51">
         <v>60</v>
@@ -22838,10 +22793,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="s">
+        <v>569</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>570</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>571</v>
       </c>
       <c r="D27" s="51">
         <v>76</v>
@@ -22879,10 +22834,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="31" t="s">
+        <v>571</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>572</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>573</v>
       </c>
       <c r="D28" s="51">
         <v>68</v>
@@ -22920,10 +22875,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="31" t="s">
+        <v>573</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>574</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>575</v>
       </c>
       <c r="D29" s="51">
         <v>57</v>
@@ -22961,10 +22916,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="31" t="s">
+        <v>575</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>576</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>577</v>
       </c>
       <c r="D30" s="51">
         <v>75</v>
@@ -23002,10 +22957,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>578</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>579</v>
       </c>
       <c r="D31" s="51">
         <v>82</v>
@@ -23043,10 +22998,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>580</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>581</v>
       </c>
       <c r="D32" s="51">
         <v>85</v>
@@ -23084,10 +23039,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>582</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>583</v>
       </c>
       <c r="D33" s="51">
         <v>73</v>
@@ -23125,10 +23080,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="52" t="s">
+        <v>588</v>
+      </c>
+      <c r="C34" s="53" t="s">
         <v>589</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>590</v>
       </c>
       <c r="D34" s="57">
         <v>20</v>
@@ -23166,10 +23121,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="52" t="s">
+        <v>590</v>
+      </c>
+      <c r="C35" s="53" t="s">
         <v>591</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>592</v>
       </c>
       <c r="D35" s="58">
         <v>19.3</v>
@@ -23207,10 +23162,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="52" t="s">
+        <v>592</v>
+      </c>
+      <c r="C36" s="53" t="s">
         <v>593</v>
-      </c>
-      <c r="C36" s="53" t="s">
-        <v>594</v>
       </c>
       <c r="D36" s="58">
         <v>20.8</v>
@@ -23248,10 +23203,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="52" t="s">
+        <v>594</v>
+      </c>
+      <c r="C37" s="53" t="s">
         <v>595</v>
-      </c>
-      <c r="C37" s="53" t="s">
-        <v>596</v>
       </c>
       <c r="D37" s="58">
         <v>20</v>
@@ -23290,22 +23245,22 @@
       </c>
       <c r="B38" s="54"/>
       <c r="C38" s="53" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D38" s="59" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E38" s="59" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F38" s="59" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G38" s="59" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H38" s="59" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="2"/>
@@ -23328,25 +23283,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="52" t="s">
+        <v>597</v>
+      </c>
+      <c r="C39" s="53" t="s">
         <v>598</v>
       </c>
-      <c r="C39" s="53" t="s">
-        <v>599</v>
-      </c>
       <c r="D39" s="60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E39" s="60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F39" s="60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G39" s="60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H39" s="60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="2"/>
@@ -23369,25 +23324,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="55" t="s">
+        <v>599</v>
+      </c>
+      <c r="C40" s="56" t="s">
         <v>600</v>
       </c>
-      <c r="C40" s="56" t="s">
-        <v>601</v>
-      </c>
       <c r="D40" s="60" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F40" s="60" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G40" s="60" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H40" s="60" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="2"/>
